--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27D13B-C81D-8B41-A20A-57AACD8A9AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140D5E3-A129-8E4B-AF07-40E63C6BDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38680" windowHeight="31360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="880" windowWidth="38680" windowHeight="31360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="675">
   <si>
     <t>name</t>
   </si>
@@ -2337,7 +2337,7 @@
   </sheetPr>
   <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
@@ -6269,11 +6269,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6305,6 +6305,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6317,7 +6325,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birk/Documents/Jobs/SAPA/Development/pellaton-experience-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140D5E3-A129-8E4B-AF07-40E63C6BDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD966B-5001-124C-BACA-FDF58B51873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="880" windowWidth="38680" windowHeight="31360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="500" windowWidth="38680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="675">
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>variations</t>
   </si>
   <si>
@@ -2052,6 +2049,9 @@
   </si>
   <si>
     <t>Geist</t>
+  </si>
+  <si>
+    <t>entity</t>
   </si>
 </sst>
 </file>
@@ -2069,12 +2069,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2119,7 +2121,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2337,9 +2339,9 @@
   </sheetPr>
   <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2355,22 +2357,22 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2395,3575 +2397,3575 @@
     </row>
     <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>85</v>
-      </c>
-      <c r="E41" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
         <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
         <v>101</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
         <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
         <v>119</v>
       </c>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>120</v>
-      </c>
-      <c r="E58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
         <v>124</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
         <v>125</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
         <v>127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
         <v>133</v>
       </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
         <v>137</v>
       </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>138</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>139</v>
-      </c>
-      <c r="F69" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
         <v>142</v>
       </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>143</v>
-      </c>
-      <c r="E71" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
         <v>145</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>148</v>
-      </c>
-      <c r="E73" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
         <v>150</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
         <v>160</v>
       </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
         <v>163</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
         <v>164</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
         <v>166</v>
       </c>
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>167</v>
-      </c>
-      <c r="E84" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
         <v>169</v>
       </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>170</v>
-      </c>
-      <c r="E85" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
         <v>176</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
         <v>177</v>
       </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>178</v>
-      </c>
-      <c r="E89" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
         <v>181</v>
       </c>
-      <c r="C90" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>182</v>
-      </c>
-      <c r="F90" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
         <v>185</v>
       </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>186</v>
-      </c>
-      <c r="E92" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
         <v>191</v>
       </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
         <v>193</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>194</v>
-      </c>
-      <c r="F97" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
         <v>196</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
         <v>199</v>
       </c>
-      <c r="C99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>200</v>
-      </c>
-      <c r="E99" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
         <v>204</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
         <v>205</v>
       </c>
-      <c r="C101" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>206</v>
-      </c>
-      <c r="E101" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
         <v>208</v>
-      </c>
-      <c r="C102" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
         <v>211</v>
-      </c>
-      <c r="C104" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
         <v>213</v>
       </c>
-      <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>214</v>
-      </c>
-      <c r="E105" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
         <v>216</v>
       </c>
-      <c r="C106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>217</v>
-      </c>
-      <c r="E106" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
         <v>221</v>
       </c>
-      <c r="C109" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>222</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>223</v>
-      </c>
-      <c r="F109" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
         <v>226</v>
       </c>
-      <c r="B111" t="s">
-        <v>227</v>
-      </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
         <v>228</v>
       </c>
-      <c r="B112" t="s">
-        <v>229</v>
-      </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
         <v>230</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
         <v>233</v>
       </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>234</v>
-      </c>
-      <c r="E115" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s">
         <v>237</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
         <v>238</v>
       </c>
-      <c r="C117" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>239</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>240</v>
-      </c>
-      <c r="F117" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
         <v>242</v>
-      </c>
-      <c r="C118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" t="s">
         <v>245</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
         <v>246</v>
-      </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
         <v>248</v>
       </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>249</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>250</v>
-      </c>
-      <c r="F121" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
         <v>252</v>
       </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>253</v>
-      </c>
-      <c r="E122" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
         <v>255</v>
       </c>
-      <c r="C123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>256</v>
-      </c>
-      <c r="E123" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
         <v>258</v>
       </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>259</v>
-      </c>
-      <c r="F124" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" t="s">
         <v>261</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
         <v>262</v>
-      </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
         <v>265</v>
       </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>266</v>
-      </c>
-      <c r="E127" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" t="s">
         <v>268</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
         <v>269</v>
       </c>
-      <c r="C128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>270</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>271</v>
-      </c>
-      <c r="F128" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" t="s">
         <v>273</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
         <v>274</v>
       </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" t="s">
         <v>275</v>
-      </c>
-      <c r="E129" t="s">
-        <v>121</v>
-      </c>
-      <c r="F129" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" t="s">
         <v>277</v>
       </c>
-      <c r="B130" t="s">
-        <v>278</v>
-      </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
         <v>279</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" t="s">
         <v>281</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
         <v>282</v>
       </c>
-      <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>283</v>
-      </c>
-      <c r="E132" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>285</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
         <v>286</v>
       </c>
-      <c r="C134" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>287</v>
-      </c>
-      <c r="E134" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
+        <v>288</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
         <v>289</v>
-      </c>
-      <c r="C135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
         <v>291</v>
       </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>292</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>293</v>
-      </c>
-      <c r="F136" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
         <v>295</v>
-      </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
+        <v>297</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
         <v>298</v>
-      </c>
-      <c r="C139" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
+        <v>299</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
         <v>300</v>
-      </c>
-      <c r="C140" t="s">
-        <v>10</v>
-      </c>
-      <c r="E140" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
         <v>302</v>
       </c>
-      <c r="C141" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>303</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>304</v>
-      </c>
-      <c r="F141" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
+        <v>309</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
         <v>310</v>
       </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>311</v>
-      </c>
-      <c r="E146" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
         <v>313</v>
       </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>314</v>
-      </c>
-      <c r="E147" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148" t="s">
         <v>316</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
         <v>317</v>
-      </c>
-      <c r="C148" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
         <v>319</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
         <v>320</v>
-      </c>
-      <c r="C149" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
+        <v>321</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
         <v>322</v>
-      </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" t="s">
         <v>324</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
         <v>325</v>
       </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>326</v>
-      </c>
-      <c r="F151" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
         <v>328</v>
-      </c>
-      <c r="C152" t="s">
-        <v>10</v>
-      </c>
-      <c r="E152" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" t="s">
         <v>330</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
         <v>331</v>
       </c>
-      <c r="C153" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>332</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>333</v>
-      </c>
-      <c r="F153" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" t="s">
         <v>337</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
         <v>338</v>
-      </c>
-      <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" t="s">
         <v>340</v>
       </c>
-      <c r="B157" t="s">
-        <v>341</v>
-      </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" t="s">
         <v>342</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
         <v>343</v>
-      </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
+        <v>344</v>
+      </c>
+      <c r="B159" t="s">
         <v>345</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
         <v>346</v>
       </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>347</v>
-      </c>
-      <c r="E159" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
+        <v>348</v>
+      </c>
+      <c r="B160" t="s">
         <v>349</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
         <v>350</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
+        <v>351</v>
+      </c>
+      <c r="B161" t="s">
         <v>352</v>
       </c>
-      <c r="B161" t="s">
-        <v>353</v>
-      </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
+        <v>353</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
         <v>354</v>
-      </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>355</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
         <v>356</v>
       </c>
-      <c r="C163" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>357</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>358</v>
-      </c>
-      <c r="F163" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
         <v>360</v>
       </c>
-      <c r="C164" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>361</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>362</v>
-      </c>
-      <c r="F164" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
+        <v>363</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" t="s">
         <v>364</v>
       </c>
-      <c r="C165" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>365</v>
-      </c>
-      <c r="E165" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
+        <v>366</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" t="s">
         <v>367</v>
       </c>
-      <c r="C166" t="s">
-        <v>15</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>368</v>
-      </c>
-      <c r="E166" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
+        <v>369</v>
+      </c>
+      <c r="C167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" t="s">
         <v>370</v>
       </c>
-      <c r="C167" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>371</v>
-      </c>
-      <c r="E167" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
         <v>373</v>
       </c>
-      <c r="C168" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>374</v>
-      </c>
-      <c r="E168" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
+        <v>375</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
         <v>376</v>
       </c>
-      <c r="C169" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>377</v>
-      </c>
-      <c r="E169" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
+        <v>378</v>
+      </c>
+      <c r="B170" t="s">
         <v>379</v>
       </c>
-      <c r="B170" t="s">
-        <v>380</v>
-      </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
+        <v>380</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
         <v>381</v>
       </c>
-      <c r="C171" t="s">
-        <v>10</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>382</v>
-      </c>
-      <c r="E171" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
+        <v>383</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
         <v>384</v>
       </c>
-      <c r="C172" t="s">
-        <v>10</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
         <v>385</v>
-      </c>
-      <c r="F172" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
+        <v>386</v>
+      </c>
+      <c r="B173" t="s">
         <v>387</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
         <v>388</v>
       </c>
-      <c r="C173" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>389</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>390</v>
-      </c>
-      <c r="F173" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
+        <v>391</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
         <v>392</v>
       </c>
-      <c r="C174" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>393</v>
-      </c>
-      <c r="E174" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
+        <v>394</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" t="s">
         <v>395</v>
       </c>
-      <c r="C175" t="s">
-        <v>10</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="F175" t="s">
         <v>396</v>
-      </c>
-      <c r="F175" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
+        <v>397</v>
+      </c>
+      <c r="B176" t="s">
         <v>398</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" t="s">
         <v>399</v>
-      </c>
-      <c r="C176" t="s">
-        <v>34</v>
-      </c>
-      <c r="D176" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" t="s">
         <v>401</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" t="s">
         <v>402</v>
       </c>
-      <c r="C177" t="s">
-        <v>10</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>403</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>404</v>
-      </c>
-      <c r="F177" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
+        <v>405</v>
+      </c>
+      <c r="B178" t="s">
         <v>406</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" t="s">
         <v>407</v>
-      </c>
-      <c r="C178" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" t="s">
         <v>409</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
         <v>410</v>
       </c>
-      <c r="C179" t="s">
-        <v>10</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>411</v>
-      </c>
-      <c r="E179" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
+        <v>412</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
         <v>413</v>
-      </c>
-      <c r="C180" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
+        <v>414</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
         <v>415</v>
-      </c>
-      <c r="C181" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
+        <v>417</v>
+      </c>
+      <c r="B183" t="s">
         <v>418</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" t="s">
         <v>419</v>
       </c>
-      <c r="C183" t="s">
-        <v>15</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="F183" t="s">
         <v>420</v>
-      </c>
-      <c r="F183" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
+        <v>421</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
         <v>422</v>
-      </c>
-      <c r="C184" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
+        <v>423</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s">
         <v>424</v>
       </c>
-      <c r="C185" t="s">
-        <v>15</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>425</v>
-      </c>
-      <c r="E185" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
+        <v>427</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
         <v>428</v>
-      </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
+        <v>429</v>
+      </c>
+      <c r="C188" t="s">
+        <v>33</v>
+      </c>
+      <c r="D188" t="s">
         <v>430</v>
-      </c>
-      <c r="C188" t="s">
-        <v>34</v>
-      </c>
-      <c r="D188" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" t="s">
         <v>434</v>
       </c>
-      <c r="B191" t="s">
-        <v>435</v>
-      </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
         <v>437</v>
-      </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
+        <v>438</v>
+      </c>
+      <c r="C194" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" t="s">
         <v>439</v>
       </c>
-      <c r="C194" t="s">
-        <v>10</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>440</v>
-      </c>
-      <c r="E194" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
+        <v>443</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
         <v>444</v>
       </c>
-      <c r="C197" t="s">
-        <v>10</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>445</v>
-      </c>
-      <c r="E197" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
         <v>447</v>
       </c>
-      <c r="C198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
         <v>448</v>
-      </c>
-      <c r="F198" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
+        <v>450</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
         <v>451</v>
       </c>
-      <c r="C200" t="s">
-        <v>10</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>452</v>
-      </c>
-      <c r="E200" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
+        <v>453</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" t="s">
         <v>454</v>
       </c>
-      <c r="C201" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>455</v>
-      </c>
-      <c r="E201" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
+        <v>460</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
         <v>461</v>
-      </c>
-      <c r="C206" t="s">
-        <v>15</v>
-      </c>
-      <c r="D206" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
+        <v>462</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
         <v>463</v>
-      </c>
-      <c r="C207" t="s">
-        <v>15</v>
-      </c>
-      <c r="D207" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
+        <v>464</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
         <v>465</v>
-      </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
+        <v>466</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
         <v>467</v>
       </c>
-      <c r="C209" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>468</v>
-      </c>
-      <c r="E209" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
+        <v>472</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" t="s">
         <v>473</v>
       </c>
-      <c r="C213" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>474</v>
-      </c>
-      <c r="E213" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
+        <v>476</v>
+      </c>
+      <c r="C215" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" t="s">
         <v>477</v>
-      </c>
-      <c r="C215" t="s">
-        <v>34</v>
-      </c>
-      <c r="D215" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
+        <v>479</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
         <v>480</v>
       </c>
-      <c r="C217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>481</v>
-      </c>
-      <c r="F217" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
+        <v>484</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" t="s">
         <v>485</v>
       </c>
-      <c r="C220" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>486</v>
-      </c>
-      <c r="E220" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
+        <v>487</v>
+      </c>
+      <c r="B221" t="s">
         <v>488</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
+        <v>9</v>
+      </c>
+      <c r="D221" t="s">
         <v>489</v>
       </c>
-      <c r="C221" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>490</v>
       </c>
-      <c r="E221" t="s">
+      <c r="F221" t="s">
         <v>491</v>
-      </c>
-      <c r="F221" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
+        <v>492</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
         <v>493</v>
       </c>
-      <c r="C222" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>494</v>
       </c>
-      <c r="E222" t="s">
+      <c r="F222" t="s">
         <v>495</v>
-      </c>
-      <c r="F222" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" t="s">
         <v>498</v>
       </c>
-      <c r="C224" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>499</v>
-      </c>
-      <c r="E224" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
+        <v>500</v>
+      </c>
+      <c r="B225" t="s">
         <v>501</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
         <v>502</v>
-      </c>
-      <c r="C225" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
+        <v>505</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
         <v>506</v>
-      </c>
-      <c r="C228" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
+        <v>507</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
         <v>508</v>
       </c>
-      <c r="C229" t="s">
-        <v>10</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>509</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>510</v>
-      </c>
-      <c r="F229" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
+        <v>508</v>
+      </c>
+      <c r="E230" t="s">
         <v>509</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>510</v>
-      </c>
-      <c r="F230" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
+        <v>512</v>
+      </c>
+      <c r="B231" t="s">
         <v>513</v>
       </c>
-      <c r="B231" t="s">
-        <v>514</v>
-      </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
+        <v>519</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" t="s">
         <v>520</v>
       </c>
-      <c r="C237" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>521</v>
-      </c>
-      <c r="E237" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
+        <v>523</v>
+      </c>
+      <c r="B239" t="s">
         <v>524</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
         <v>525</v>
       </c>
-      <c r="C239" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>526</v>
       </c>
-      <c r="E239" t="s">
-        <v>527</v>
-      </c>
       <c r="F239" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
+        <v>530</v>
+      </c>
+      <c r="C243" t="s">
+        <v>14</v>
+      </c>
+      <c r="D243" t="s">
         <v>531</v>
       </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>532</v>
-      </c>
-      <c r="E243" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
+        <v>533</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
         <v>534</v>
       </c>
-      <c r="C244" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>535</v>
-      </c>
-      <c r="E244" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
+        <v>537</v>
+      </c>
+      <c r="B246" t="s">
         <v>538</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
         <v>539</v>
       </c>
-      <c r="C246" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" t="s">
+      <c r="F246" t="s">
         <v>540</v>
-      </c>
-      <c r="F246" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
+        <v>541</v>
+      </c>
+      <c r="C247" t="s">
+        <v>14</v>
+      </c>
+      <c r="D247" t="s">
         <v>542</v>
       </c>
-      <c r="C247" t="s">
-        <v>15</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="F247" t="s">
         <v>543</v>
-      </c>
-      <c r="F247" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
+        <v>544</v>
+      </c>
+      <c r="C248" t="s">
+        <v>33</v>
+      </c>
+      <c r="D248" t="s">
         <v>545</v>
-      </c>
-      <c r="C248" t="s">
-        <v>34</v>
-      </c>
-      <c r="D248" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
+        <v>546</v>
+      </c>
+      <c r="C249" t="s">
+        <v>14</v>
+      </c>
+      <c r="D249" t="s">
         <v>547</v>
-      </c>
-      <c r="C249" t="s">
-        <v>15</v>
-      </c>
-      <c r="D249" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
+        <v>548</v>
+      </c>
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
         <v>549</v>
-      </c>
-      <c r="C250" t="s">
-        <v>10</v>
-      </c>
-      <c r="E250" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
+        <v>550</v>
+      </c>
+      <c r="C251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
         <v>551</v>
-      </c>
-      <c r="C251" t="s">
-        <v>10</v>
-      </c>
-      <c r="E251" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
+        <v>552</v>
+      </c>
+      <c r="B252" t="s">
         <v>553</v>
       </c>
-      <c r="B252" t="s">
-        <v>554</v>
-      </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
+        <v>554</v>
+      </c>
+      <c r="B253" t="s">
         <v>555</v>
       </c>
-      <c r="B253" t="s">
-        <v>556</v>
-      </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
+        <v>556</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
         <v>557</v>
-      </c>
-      <c r="C254" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
+        <v>558</v>
+      </c>
+      <c r="B255" t="s">
         <v>559</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s">
         <v>560</v>
-      </c>
-      <c r="C255" t="s">
-        <v>15</v>
-      </c>
-      <c r="E255" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
+        <v>562</v>
+      </c>
+      <c r="B257" t="s">
         <v>563</v>
       </c>
-      <c r="B257" t="s">
-        <v>564</v>
-      </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
+        <v>565</v>
+      </c>
+      <c r="B259" t="s">
         <v>566</v>
       </c>
-      <c r="B259" t="s">
-        <v>567</v>
-      </c>
       <c r="C259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C262" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
+        <v>570</v>
+      </c>
+      <c r="B263" t="s">
         <v>571</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="s">
         <v>572</v>
       </c>
-      <c r="C263" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="E263" t="s">
         <v>573</v>
       </c>
-      <c r="E263" t="s">
+      <c r="F263" t="s">
         <v>574</v>
-      </c>
-      <c r="F263" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
+        <v>577</v>
+      </c>
+      <c r="B266" t="s">
         <v>578</v>
       </c>
-      <c r="B266" t="s">
-        <v>579</v>
-      </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
+        <v>579</v>
+      </c>
+      <c r="B267" t="s">
         <v>580</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
         <v>581</v>
       </c>
-      <c r="C267" t="s">
-        <v>10</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>582</v>
-      </c>
-      <c r="E267" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
+        <v>584</v>
+      </c>
+      <c r="C269" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" t="s">
         <v>585</v>
       </c>
-      <c r="C269" t="s">
-        <v>15</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>586</v>
-      </c>
-      <c r="E269" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
+        <v>587</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
         <v>588</v>
-      </c>
-      <c r="C270" t="s">
-        <v>10</v>
-      </c>
-      <c r="E270" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
+        <v>590</v>
+      </c>
+      <c r="B272" t="s">
         <v>591</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
         <v>592</v>
-      </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
+        <v>593</v>
+      </c>
+      <c r="B273" t="s">
         <v>594</v>
       </c>
-      <c r="B273" t="s">
-        <v>595</v>
-      </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
+        <v>595</v>
+      </c>
+      <c r="C274" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" t="s">
         <v>596</v>
       </c>
-      <c r="C274" t="s">
-        <v>15</v>
-      </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>597</v>
-      </c>
-      <c r="E274" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
+        <v>599</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
         <v>600</v>
-      </c>
-      <c r="C276" t="s">
-        <v>10</v>
-      </c>
-      <c r="E276" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
+        <v>601</v>
+      </c>
+      <c r="B277" t="s">
         <v>602</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" t="s">
         <v>603</v>
       </c>
-      <c r="C277" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" t="s">
+      <c r="E277" t="s">
         <v>604</v>
-      </c>
-      <c r="E277" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
+        <v>606</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
         <v>607</v>
-      </c>
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
+        <v>610</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
         <v>611</v>
       </c>
-      <c r="C282" t="s">
-        <v>10</v>
-      </c>
-      <c r="D282" t="s">
+      <c r="E282" t="s">
         <v>612</v>
-      </c>
-      <c r="E282" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
+        <v>615</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
         <v>616</v>
-      </c>
-      <c r="C285" t="s">
-        <v>15</v>
-      </c>
-      <c r="E285" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
+        <v>617</v>
+      </c>
+      <c r="B286" t="s">
         <v>618</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
         <v>619</v>
-      </c>
-      <c r="C286" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
+        <v>621</v>
+      </c>
+      <c r="C288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
         <v>622</v>
-      </c>
-      <c r="C288" t="s">
-        <v>10</v>
-      </c>
-      <c r="E288" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
+        <v>623</v>
+      </c>
+      <c r="B289" t="s">
         <v>624</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" t="s">
         <v>625</v>
       </c>
-      <c r="C289" t="s">
-        <v>15</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="F289" t="s">
         <v>626</v>
-      </c>
-      <c r="F289" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
+        <v>627</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
         <v>628</v>
-      </c>
-      <c r="C290" t="s">
-        <v>7</v>
-      </c>
-      <c r="D290" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
+        <v>629</v>
+      </c>
+      <c r="C291" t="s">
+        <v>9</v>
+      </c>
+      <c r="D291" t="s">
         <v>630</v>
-      </c>
-      <c r="C291" t="s">
-        <v>10</v>
-      </c>
-      <c r="D291" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
+        <v>631</v>
+      </c>
+      <c r="C292" t="s">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
         <v>632</v>
       </c>
-      <c r="C292" t="s">
-        <v>10</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="E292" t="s">
+        <v>193</v>
+      </c>
+      <c r="F292" t="s">
         <v>633</v>
-      </c>
-      <c r="E292" t="s">
-        <v>194</v>
-      </c>
-      <c r="F292" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
+        <v>634</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" t="s">
         <v>635</v>
-      </c>
-      <c r="C293" t="s">
-        <v>15</v>
-      </c>
-      <c r="D293" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
+        <v>637</v>
+      </c>
+      <c r="B295" t="s">
         <v>638</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" t="s">
         <v>639</v>
       </c>
-      <c r="C295" t="s">
-        <v>10</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>640</v>
-      </c>
-      <c r="E295" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
+        <v>642</v>
+      </c>
+      <c r="B297" t="s">
         <v>643</v>
       </c>
-      <c r="B297" t="s">
-        <v>644</v>
-      </c>
       <c r="C297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
+        <v>644</v>
+      </c>
+      <c r="C298" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" t="s">
         <v>645</v>
-      </c>
-      <c r="C298" t="s">
-        <v>10</v>
-      </c>
-      <c r="D298" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
+        <v>650</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
         <v>651</v>
-      </c>
-      <c r="C303" t="s">
-        <v>10</v>
-      </c>
-      <c r="E303" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
+        <v>652</v>
+      </c>
+      <c r="C304" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" t="s">
         <v>653</v>
       </c>
-      <c r="C304" t="s">
-        <v>15</v>
-      </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
         <v>654</v>
-      </c>
-      <c r="E304" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
+        <v>655</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
         <v>656</v>
-      </c>
-      <c r="C305" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C306" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C307" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
+        <v>659</v>
+      </c>
+      <c r="C308" t="s">
+        <v>33</v>
+      </c>
+      <c r="D308" t="s">
         <v>660</v>
-      </c>
-      <c r="C308" t="s">
-        <v>34</v>
-      </c>
-      <c r="D308" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C310" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
+        <v>664</v>
+      </c>
+      <c r="C312" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" t="s">
         <v>665</v>
       </c>
-      <c r="C312" t="s">
-        <v>15</v>
-      </c>
-      <c r="D312" t="s">
+      <c r="E312" t="s">
         <v>666</v>
-      </c>
-      <c r="E312" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C313" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
+        <v>668</v>
+      </c>
+      <c r="B314" t="s">
         <v>669</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
         <v>670</v>
-      </c>
-      <c r="C314" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -6271,9 +6273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6285,32 +6287,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" t="s">
         <v>673</v>
       </c>
-      <c r="B2" t="s">
-        <v>674</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6325,7 +6327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6335,12 +6337,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD966B-5001-124C-BACA-FDF58B51873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B682A7-28C5-A84F-AC1C-32020F03AA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="38680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="680">
   <si>
     <t>variations</t>
   </si>
@@ -2051,14 +2051,29 @@
     <t>Geist</t>
   </si>
   <si>
+    <t>amerikanische</t>
+  </si>
+  <si>
     <t>entity</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P: Ich</t>
+  </si>
+  <si>
+    <t>K/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2092,6 +2107,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2113,12 +2134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2339,9 +2362,9 @@
   </sheetPr>
   <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2357,7 +2380,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -6275,7 +6298,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6287,7 +6310,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6323,11 +6346,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBF373-464C-4049-B3A6-00F049E0D3CB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6337,7 +6360,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -6345,8 +6368,32 @@
         <v>671</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A2" xr:uid="{8B493542-0974-E147-8C2A-337612CB1B54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Documents/GitHub/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AD966B-5001-124C-BACA-FDF58B51873B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B7307-4B15-FE44-98E2-C02870D24563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="38680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29980" yWindow="1340" windowWidth="24520" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="720">
   <si>
     <t>variations</t>
   </si>
@@ -2052,13 +2052,148 @@
   </si>
   <si>
     <t>entity</t>
+  </si>
+  <si>
+    <t>abendfüllend</t>
+  </si>
+  <si>
+    <t>PROC</t>
+  </si>
+  <si>
+    <t>Abonnement</t>
+  </si>
+  <si>
+    <t>abliefern</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Abschnitt</t>
+  </si>
+  <si>
+    <t>Abschnitte</t>
+  </si>
+  <si>
+    <t>abschreiben</t>
+  </si>
+  <si>
+    <t>abgeschrieben</t>
+  </si>
+  <si>
+    <t>Anfang</t>
+  </si>
+  <si>
+    <t>Anfänge</t>
+  </si>
+  <si>
+    <t>anschauen</t>
+  </si>
+  <si>
+    <t>Arbeitsbewilligung</t>
+  </si>
+  <si>
+    <t>Aufbau</t>
+  </si>
+  <si>
+    <t>Aufenthalt</t>
+  </si>
+  <si>
+    <t>Auflistung</t>
+  </si>
+  <si>
+    <t>Aufwärmen</t>
+  </si>
+  <si>
+    <t>Ausbildung</t>
+  </si>
+  <si>
+    <t>ausdrucken</t>
+  </si>
+  <si>
+    <t>ausgedruckt</t>
+  </si>
+  <si>
+    <t>Auslastung</t>
+  </si>
+  <si>
+    <t>Begegnung</t>
+  </si>
+  <si>
+    <t>Beitrag</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>beschreiben</t>
+  </si>
+  <si>
+    <t>Choreografie</t>
+  </si>
+  <si>
+    <t>choreografieren</t>
+  </si>
+  <si>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Darstellung</t>
+  </si>
+  <si>
+    <t>dekonstruieren</t>
+  </si>
+  <si>
+    <t>Devise</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>digitaler</t>
+  </si>
+  <si>
+    <t>diskutieren</t>
+  </si>
+  <si>
+    <t>disponieren</t>
+  </si>
+  <si>
+    <t>Disponieren</t>
+  </si>
+  <si>
+    <t>distanziert</t>
+  </si>
+  <si>
+    <t>duzen</t>
+  </si>
+  <si>
+    <t>geduzt</t>
+  </si>
+  <si>
+    <t>Einleitung</t>
+  </si>
+  <si>
+    <t>Einführung, Einführungen</t>
+  </si>
+  <si>
+    <t>einstimmen</t>
+  </si>
+  <si>
+    <t>Abstand halten;zurückhaltend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2092,6 +2227,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF043559"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2113,12 +2254,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2339,7 +2486,7 @@
   </sheetPr>
   <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
@@ -6271,11 +6418,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6315,6 +6462,311 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6326,7 +6778,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Documents/GitHub/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B7307-4B15-FE44-98E2-C02870D24563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D4375-BF43-5D45-A974-290EA3084AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29980" yWindow="1340" windowWidth="24520" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8320" yWindow="2440" windowWidth="24520" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="514">
   <si>
     <t>variations</t>
   </si>
@@ -44,15 +44,9 @@
     <t>image</t>
   </si>
   <si>
-    <t>afrikanische</t>
-  </si>
-  <si>
     <t>MISC</t>
   </si>
   <si>
-    <t>Aktion</t>
-  </si>
-  <si>
     <t>Alain Bernard</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>http://data.performing-arts.ch/a/6c42c391-55ba-4272-9619-591a5add1573</t>
   </si>
   <si>
-    <t>American Modern Dance</t>
-  </si>
-  <si>
     <t>Amerika</t>
   </si>
   <si>
@@ -80,24 +71,9 @@
     <t>http://data.performing-arts.ch/p/24fee191-fccc-40ac-b5b9-5ce73b29907f</t>
   </si>
   <si>
-    <t>Amerika-Tournee</t>
-  </si>
-  <si>
-    <t>https://media.performing-arts.ch/iiif/image/1027-5-4-158/full/max/0/color.jpg</t>
-  </si>
-  <si>
-    <t>Amerikaner</t>
-  </si>
-  <si>
     <t>Amerikanisches</t>
   </si>
   <si>
-    <t>Anfänge des Bühnentanzes</t>
-  </si>
-  <si>
-    <t>Anfängen des Bühnentanzes</t>
-  </si>
-  <si>
     <t>Angollo</t>
   </si>
   <si>
@@ -107,21 +83,6 @@
     <t>Sutter</t>
   </si>
   <si>
-    <t>Appenzeller-Kind</t>
-  </si>
-  <si>
-    <t>Ausdruckstänzer</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q778382</t>
-  </si>
-  <si>
-    <t>Ausdruckstänzerinnen</t>
-  </si>
-  <si>
-    <t>https://media.performing-arts.ch/iiif/image/1027-9-4-5-5/full/max/0/color.jpg</t>
-  </si>
-  <si>
     <t>Ausdruckstanzschule</t>
   </si>
   <si>
@@ -185,9 +146,6 @@
     <t>http://data.performing-arts.ch/p/5094b2fa-9fb3-4925-8687-79bf0707aac2</t>
   </si>
   <si>
-    <t>Berner</t>
-  </si>
-  <si>
     <t>Berte Trümpi</t>
   </si>
   <si>
@@ -200,24 +158,6 @@
     <t>https://www.deutsches-tanzarchiv.de/fileadmin/user_upload/www.tanzarchiv-koeln.de/Sammlungen/Truempy/3-solo-1.jpg</t>
   </si>
   <si>
-    <t>Beruf</t>
-  </si>
-  <si>
-    <t>Berufen</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q28640</t>
-  </si>
-  <si>
-    <t>Berufstänzer</t>
-  </si>
-  <si>
-    <t>BEWEGUNGSleiter</t>
-  </si>
-  <si>
-    <t>Bewegungsskala</t>
-  </si>
-  <si>
     <t>Biel</t>
   </si>
   <si>
@@ -233,39 +173,6 @@
     <t>http://www.wikidata.org/entity/Q56091033</t>
   </si>
   <si>
-    <t>Brauchtumstänze</t>
-  </si>
-  <si>
-    <t>Einfach bei Brauchtumstänzen</t>
-  </si>
-  <si>
-    <t>Brokat</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q649022</t>
-  </si>
-  <si>
-    <t>Brustbein</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q16359</t>
-  </si>
-  <si>
-    <t>Bühnenbilder</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q987061</t>
-  </si>
-  <si>
-    <t>Bund</t>
-  </si>
-  <si>
-    <t>C-Dur</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q55706505</t>
-  </si>
-  <si>
     <t>Cabaret Voltaire</t>
   </si>
   <si>
@@ -275,9 +182,6 @@
     <t>http://www.wikidata.org/entity/Q200959</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
     <t>CH-Tanztheater</t>
   </si>
   <si>
@@ -293,12 +197,6 @@
     <t>http://www.wikidata.org/entity/Q882</t>
   </si>
   <si>
-    <t>Charaktertänze</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1063002</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -314,12 +212,6 @@
     <t>http://data.performing-arts.ch/a/6bdb18b6-ad25-46aa-a2d9-5e80a00a6001</t>
   </si>
   <si>
-    <t>Choreografie-Wettbewerb</t>
-  </si>
-  <si>
-    <t>http://data.performing-arts.ch/a/244eaeac-b8f5-488c-bf0b-276223ddfe29</t>
-  </si>
-  <si>
     <t>Chur</t>
   </si>
   <si>
@@ -344,42 +236,9 @@
     <t>http://www.wikidata.org/entity/Q1102565</t>
   </si>
   <si>
-    <t>Contemporary</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q186035</t>
-  </si>
-  <si>
-    <t>Coppelia</t>
-  </si>
-  <si>
-    <t>Corps de Ballet</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1206595</t>
-  </si>
-  <si>
-    <t>Così fan tutte</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q207410</t>
-  </si>
-  <si>
     <t>Dada-Kreisen</t>
   </si>
   <si>
-    <t>Dada-Soirée</t>
-  </si>
-  <si>
-    <t>Dadaismus</t>
-  </si>
-  <si>
-    <t>Zeit des Dadaismus; Dada; DADA</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q6034</t>
-  </si>
-  <si>
     <t>Daheim</t>
   </si>
   <si>
@@ -392,39 +251,9 @@
     <t>http://data.performing-arts.ch/a/6db0926b-dfe8-47dd-b853-829736f7510c</t>
   </si>
   <si>
-    <t>dänische</t>
-  </si>
-  <si>
     <t>Dartington Hall</t>
   </si>
   <si>
-    <t>Der Grüne Tisch</t>
-  </si>
-  <si>
-    <t>Grünen Tisch; Grüne Tisch; Grüne</t>
-  </si>
-  <si>
-    <t>https://media.performing-arts.ch/iiif/image/1027-5-1-108/full/max/0/color.jpg</t>
-  </si>
-  <si>
-    <t>Der sterbende Schwan</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1334530</t>
-  </si>
-  <si>
-    <t>Der Verlorene Sohn</t>
-  </si>
-  <si>
-    <t>deutschen</t>
-  </si>
-  <si>
-    <t>deutscher</t>
-  </si>
-  <si>
-    <t>Deutsches</t>
-  </si>
-  <si>
     <t>Deutschland</t>
   </si>
   <si>
@@ -434,9 +263,6 @@
     <t>http://data.performing-arts.ch/p/a7cbf121-4ac8-4cbd-af7d-4d6d25cd7efb</t>
   </si>
   <si>
-    <t>deutschsprachigen</t>
-  </si>
-  <si>
     <t>Dore Hoyer</t>
   </si>
   <si>
@@ -449,9 +275,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/e/e4/Hoyer%2C_Dore.jpg</t>
   </si>
   <si>
-    <t>Dornröschen</t>
-  </si>
-  <si>
     <t>Dresden</t>
   </si>
   <si>
@@ -461,12 +284,6 @@
     <t>http://data.performing-arts.ch/p/c91c6724-1b01-492f-9651-76250e3fbf53</t>
   </si>
   <si>
-    <t>Dur</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q12541258</t>
-  </si>
-  <si>
     <t>Düsseldorf</t>
   </si>
   <si>
@@ -482,12 +299,6 @@
     <t>http://www.wikidata.org/entity/Q45901497</t>
   </si>
   <si>
-    <t>Ehrenzeichen von Basel</t>
-  </si>
-  <si>
-    <t>Eigenständiges</t>
-  </si>
-  <si>
     <t>EINFACH</t>
   </si>
   <si>
@@ -497,15 +308,6 @@
     <t>http://www.wikidata.org/entity/Q21</t>
   </si>
   <si>
-    <t>Engländer</t>
-  </si>
-  <si>
-    <t>englische</t>
-  </si>
-  <si>
-    <t>englischen</t>
-  </si>
-  <si>
     <t>Erika Ackermann</t>
   </si>
   <si>
@@ -515,15 +317,6 @@
     <t>https://media.performing-arts.ch/iiif/image/1027-6-8-44-7/full/max/0/color.jpg</t>
   </si>
   <si>
-    <t>Erster Weltkrieg</t>
-  </si>
-  <si>
-    <t>Ersten Weltkrieg</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q361</t>
-  </si>
-  <si>
     <t>Erwin Schumann</t>
   </si>
   <si>
@@ -542,30 +335,6 @@
     <t>http://data.performing-arts.ch/p/a5236285-cb7c-45c9-bbfd-7249339c7994</t>
   </si>
   <si>
-    <t>Etüden</t>
-  </si>
-  <si>
-    <t>Excelsior</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/it/thumb/e/ee/Balloexcelsior.jpg/1280px-Balloexcelsior.jpg</t>
-  </si>
-  <si>
-    <t>Flamenco-Tänzerinnen</t>
-  </si>
-  <si>
-    <t>Flamencos en Route</t>
-  </si>
-  <si>
-    <t>Flamencos</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q29935018</t>
-  </si>
-  <si>
-    <t>http://data.performing-arts.ch/r/c3e92b31-8d02-461b-a0c2-fa593ff95f5e</t>
-  </si>
-  <si>
     <t>Folkwang Hochschule</t>
   </si>
   <si>
@@ -578,9 +347,6 @@
     <t>https://media.performing-arts.ch/iiif/image/1027-5-11-41/full/max/0/color.jpg</t>
   </si>
   <si>
-    <t>Franken</t>
-  </si>
-  <si>
     <t>Frankreich</t>
   </si>
   <si>
@@ -590,36 +356,9 @@
     <t>http://data.performing-arts.ch/p/804af1fe-911d-449e-9a90-c127110acda5</t>
   </si>
   <si>
-    <t>Franzosen</t>
-  </si>
-  <si>
-    <t>französische</t>
-  </si>
-  <si>
-    <t>französischen</t>
-  </si>
-  <si>
-    <t>Freier Tanz</t>
-  </si>
-  <si>
-    <t>Freien Tanz da</t>
-  </si>
-  <si>
-    <t>Fridolin</t>
-  </si>
-  <si>
     <t>http://data.performing-arts.ch/a/13b82c40-433e-4ce3-8f40-ad44dcce2d9f</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/7/7c/Otto_Skall_Trudi_Schoop_1935.jpg</t>
-  </si>
-  <si>
-    <t>Frieden</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q454</t>
-  </si>
-  <si>
     <t>Fumi Matsuda</t>
   </si>
   <si>
@@ -632,12 +371,6 @@
     <t>http://data.performing-arts.ch/a/7fbec640-fe28-47c0-a5bc-5c48a7595066</t>
   </si>
   <si>
-    <t>Fünfeck</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q127840</t>
-  </si>
-  <si>
     <t>Genf</t>
   </si>
   <si>
@@ -683,12 +416,6 @@
     <t>http://data.performing-arts.ch/a/13f399f4-de45-4e09-9629-71d33a8d54bd</t>
   </si>
   <si>
-    <t>Graham-Technik</t>
-  </si>
-  <si>
-    <t>Grand Ballet</t>
-  </si>
-  <si>
     <t>Grete Müller</t>
   </si>
   <si>
@@ -701,30 +428,18 @@
     <t>https://media.performing-arts.ch/iiif/image/1027-11-2-6-5/full/max/0/color.jpg</t>
   </si>
   <si>
-    <t>Griechen</t>
-  </si>
-  <si>
     <t>Grosse Oper in Berlin</t>
   </si>
   <si>
     <t>Grosse Oper</t>
   </si>
   <si>
-    <t>Grüner Heinrich</t>
-  </si>
-  <si>
-    <t>Heinrich</t>
-  </si>
-  <si>
     <t>Hagia Sofia</t>
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q12506</t>
   </si>
   <si>
-    <t>Halbspitze</t>
-  </si>
-  <si>
     <t>Hannover</t>
   </si>
   <si>
@@ -809,15 +524,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/0/09/Doris_Humphrey_%28Sep_1921%29.png</t>
   </si>
   <si>
-    <t>Ikarus</t>
-  </si>
-  <si>
-    <t>Ikarus.</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q34041</t>
-  </si>
-  <si>
     <t>Irene Steiner</t>
   </si>
   <si>
@@ -857,12 +563,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/1/19/Emile_Jaques_Dalcroze.jpg</t>
   </si>
   <si>
-    <t>Jahrbücher</t>
-  </si>
-  <si>
-    <t>Jahrbüchern</t>
-  </si>
-  <si>
     <t>Jean Cébron</t>
   </si>
   <si>
@@ -881,9 +581,6 @@
     <t>http://data.performing-arts.ch/a/a5b8a4a1-96e3-4bcb-9617-6c95111e6a86</t>
   </si>
   <si>
-    <t>Jobs</t>
-  </si>
-  <si>
     <t>Johannes Schmid</t>
   </si>
   <si>
@@ -893,12 +590,6 @@
     <t>http://data.performing-arts.ch/a/12e75200-da8b-4095-95e5-3f1321b22c46</t>
   </si>
   <si>
-    <t>Jooss-Tänzer</t>
-  </si>
-  <si>
-    <t>https://media.performing-arts.ch/iiif/image/1027-9-4-2-12/full/max/0/color.jpg</t>
-  </si>
-  <si>
     <t>Joseph Brodsky</t>
   </si>
   <si>
@@ -911,15 +602,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/b/b7/Josef_Brodsky_crop.jpg</t>
   </si>
   <si>
-    <t>Juden</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q7325</t>
-  </si>
-  <si>
-    <t>jüdische</t>
-  </si>
-  <si>
     <t>Julia Markus</t>
   </si>
   <si>
@@ -944,15 +626,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cc/Katja_Wulff.jpg/800px-Katja_Wulff.jpg</t>
   </si>
   <si>
-    <t>Kinderauftritt</t>
-  </si>
-  <si>
-    <t>Klassiker-Inszenierungen</t>
-  </si>
-  <si>
-    <t>Klassiker-Lehrer</t>
-  </si>
-  <si>
     <t>Knuscht</t>
   </si>
   <si>
@@ -974,30 +647,6 @@
     <t>http://data.performing-arts.ch/p/d37c6c4f-7421-4e34-aae2-695a4286a48c</t>
   </si>
   <si>
-    <t>Körper</t>
-  </si>
-  <si>
-    <t>Dein Körper</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q170494</t>
-  </si>
-  <si>
-    <t>Krieg</t>
-  </si>
-  <si>
-    <t>dem Krieg; Kriegsausbruch</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q198</t>
-  </si>
-  <si>
-    <t>Kulturmanager</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q3104508</t>
-  </si>
-  <si>
     <t>Kunsthaus</t>
   </si>
   <si>
@@ -1037,30 +686,9 @@
     <t>Laban-Schule</t>
   </si>
   <si>
-    <t>Laban-Schüler</t>
-  </si>
-  <si>
-    <t>Laban-Leute; Laban-Leuten</t>
-  </si>
-  <si>
     <t>https://media.performing-arts.ch/iiif/image/1027-5-10-89/full/max/0/color.jpg</t>
   </si>
   <si>
-    <t>Laban-Tänzerinnen</t>
-  </si>
-  <si>
-    <t>Laban-Frauen</t>
-  </si>
-  <si>
-    <t>Landi</t>
-  </si>
-  <si>
-    <t>Landi...</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q2256530</t>
-  </si>
-  <si>
     <t>Lausanne</t>
   </si>
   <si>
@@ -1082,18 +710,6 @@
     <t>https://media.performing-arts.ch/iiif/image/1027-9-3-25/full/max/0/color.jpg</t>
   </si>
   <si>
-    <t>Leeder-Stunde</t>
-  </si>
-  <si>
-    <t>Leeder]-Stunde</t>
-  </si>
-  <si>
-    <t>Les Sylphides</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1630831</t>
-  </si>
-  <si>
     <t>Lisa Ullmann</t>
   </si>
   <si>
@@ -1277,9 +893,6 @@
     <t>http://www.wikidata.org/entity/Q628105</t>
   </si>
   <si>
-    <t>Moll</t>
-  </si>
-  <si>
     <t>Monte Verità</t>
   </si>
   <si>
@@ -1310,21 +923,12 @@
     <t>Museum für Gestaltung</t>
   </si>
   <si>
-    <t>Musiknotationen</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q233861</t>
-  </si>
-  <si>
     <t>Musikschule</t>
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q23541619</t>
   </si>
   <si>
-    <t>Nachwuchschoreografen</t>
-  </si>
-  <si>
     <t>Nadja Rothenburger</t>
   </si>
   <si>
@@ -1334,15 +938,6 @@
     <t>Napoleon Zürich</t>
   </si>
   <si>
-    <t>Nationalfonds</t>
-  </si>
-  <si>
-    <t>Natürlichkeit</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q17144832</t>
-  </si>
-  <si>
     <t>Neumeier</t>
   </si>
   <si>
@@ -1352,12 +947,6 @@
     <t>http://data.performing-arts.ch/a/ec58665f-e305-4e1d-8082-c16cafe3ed63</t>
   </si>
   <si>
-    <t>New German Dance</t>
-  </si>
-  <si>
-    <t>nicht-akademische</t>
-  </si>
-  <si>
     <t>Niddy Impekoven</t>
   </si>
   <si>
@@ -1400,12 +989,6 @@
     <t>NZZ-Archiv</t>
   </si>
   <si>
-    <t>Obergericht</t>
-  </si>
-  <si>
-    <t>Oberkörper</t>
-  </si>
-  <si>
     <t>Olegkowski</t>
   </si>
   <si>
@@ -1421,12 +1004,6 @@
     <t>http://www.wikidata.org/entity/Q518690</t>
   </si>
   <si>
-    <t>Oral History Gespräch</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q558929</t>
-  </si>
-  <si>
     <t>Österreich</t>
   </si>
   <si>
@@ -1442,9 +1019,6 @@
     <t>Papaberiosow</t>
   </si>
   <si>
-    <t>Parenthese</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -1454,9 +1028,6 @@
     <t>http://data.performing-arts.ch/p/b38adfac-e177-4289-bcbb-a849d21eaef9</t>
   </si>
   <si>
-    <t>Pariser</t>
-  </si>
-  <si>
     <t>Pariser Oper</t>
   </si>
   <si>
@@ -1475,9 +1046,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/a/aa/Anna_Pavlova_1916.jpg</t>
   </si>
   <si>
-    <t>Periode</t>
-  </si>
-  <si>
     <t>Peter Wright</t>
   </si>
   <si>
@@ -1517,9 +1085,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/0/02/Pina_Bausch.jpg</t>
   </si>
   <si>
-    <t>Poltern</t>
-  </si>
-  <si>
     <t>Prag</t>
   </si>
   <si>
@@ -1529,27 +1094,6 @@
     <t>http://data.performing-arts.ch/p/c8b03af3-474a-4caa-8a68-12bb201cbdca</t>
   </si>
   <si>
-    <t>Premiere</t>
-  </si>
-  <si>
-    <t>ALLERERSTEN Mal</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q204854</t>
-  </si>
-  <si>
-    <t>Produktionsbedingungen</t>
-  </si>
-  <si>
-    <t>Psychologietests</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1300585</t>
-  </si>
-  <si>
     <t>Radmanski</t>
   </si>
   <si>
@@ -1571,15 +1115,6 @@
     <t>Raumharmonie Bindestrich</t>
   </si>
   <si>
-    <t>Raumtheater</t>
-  </si>
-  <si>
-    <t>Reformkolonie</t>
-  </si>
-  <si>
-    <t>Reigen</t>
-  </si>
-  <si>
     <t>Remisstrasse</t>
   </si>
   <si>
@@ -1610,15 +1145,9 @@
     <t>http://data.performing-arts.ch/a/9dd84202-8274-4fa3-96a1-358cdea7ed5a</t>
   </si>
   <si>
-    <t>Russen</t>
-  </si>
-  <si>
     <t>Russes</t>
   </si>
   <si>
-    <t>russische</t>
-  </si>
-  <si>
     <t>Russland</t>
   </si>
   <si>
@@ -1637,21 +1166,6 @@
     <t>http://data.performing-arts.ch/a/2bb410f5-6067-4f3d-be13-5f71d6d96a54</t>
   </si>
   <si>
-    <t>Sacharoff-Stücke</t>
-  </si>
-  <si>
-    <t>Sacre du Printemps</t>
-  </si>
-  <si>
-    <t>Sacre</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q28553917</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/6/67/RiteofSpringDancers.jpg</t>
-  </si>
-  <si>
     <t>Safa</t>
   </si>
   <si>
@@ -1685,24 +1199,6 @@
     <t>http://data.performing-arts.ch/a/3d030c21-648b-494f-93af-446f16c75918</t>
   </si>
   <si>
-    <t>Schülerinnen</t>
-  </si>
-  <si>
-    <t>Meine Schülerinnen</t>
-  </si>
-  <si>
-    <t>Schultern</t>
-  </si>
-  <si>
-    <t>Schultern)</t>
-  </si>
-  <si>
-    <t>Schwanensee</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q199786</t>
-  </si>
-  <si>
     <t>Schweiz</t>
   </si>
   <si>
@@ -1712,9 +1208,6 @@
     <t>http://data.performing-arts.ch/p/f00035bf-36a7-4130-850f-d30f47c127b5</t>
   </si>
   <si>
-    <t>Schweizer</t>
-  </si>
-  <si>
     <t>Schweizer Tanzarchiv</t>
   </si>
   <si>
@@ -1733,9 +1226,6 @@
     <t>Schweizerische Frauenausstellung</t>
   </si>
   <si>
-    <t>Schweizern</t>
-  </si>
-  <si>
     <t>Schwester Wiesenthal</t>
   </si>
   <si>
@@ -1757,15 +1247,6 @@
     <t>Sigurd Leeder School of Dance</t>
   </si>
   <si>
-    <t>Skala</t>
-  </si>
-  <si>
-    <t>Sommerkurse</t>
-  </si>
-  <si>
-    <t>Zeit der Sommerkurse</t>
-  </si>
-  <si>
     <t>Sophie Taeuber</t>
   </si>
   <si>
@@ -1778,9 +1259,6 @@
     <t>http://data.performing-arts.ch/a/3766cb5d-4b79-44d1-b9b9-8fe7722adfb7</t>
   </si>
   <si>
-    <t>spanische</t>
-  </si>
-  <si>
     <t>St. Gallen</t>
   </si>
   <si>
@@ -1796,24 +1274,6 @@
     <t>http://data.performing-arts.ch/a/24186eeb-6d31-4b28-b7e4-ddde2d5b6210</t>
   </si>
   <si>
-    <t>Street-Tänzer</t>
-  </si>
-  <si>
-    <t>Streetdance</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q1061584</t>
-  </si>
-  <si>
-    <t>Stück</t>
-  </si>
-  <si>
-    <t>Stücks</t>
-  </si>
-  <si>
     <t>Südafrika</t>
   </si>
   <si>
@@ -1823,9 +1283,6 @@
     <t>http://data.performing-arts.ch/p/01420140-eb8b-405c-a338-39d60a521442</t>
   </si>
   <si>
-    <t>Südafrikaner</t>
-  </si>
-  <si>
     <t>Susanna</t>
   </si>
   <si>
@@ -1847,18 +1304,9 @@
     <t>Szigeti</t>
   </si>
   <si>
-    <t>Tanz</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q11639</t>
-  </si>
-  <si>
     <t>Tanz-November</t>
   </si>
   <si>
-    <t>Tanzbeschreibungen</t>
-  </si>
-  <si>
     <t>Tatjana Gsovsky</t>
   </si>
   <si>
@@ -1871,27 +1319,12 @@
     <t>TAZ</t>
   </si>
   <si>
-    <t>Tendu</t>
-  </si>
-  <si>
     <t>Tessin</t>
   </si>
   <si>
     <t>http://data.performing-arts.ch/p/13a91523-1514-4e71-afc8-1be1af5de5d3</t>
   </si>
   <si>
-    <t>Theater</t>
-  </si>
-  <si>
-    <t>Theatern</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q24354</t>
-  </si>
-  <si>
-    <t>Theatertanz</t>
-  </si>
-  <si>
     <t>Tina</t>
   </si>
   <si>
@@ -1910,12 +1343,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/b/b2/Toni-Areal_Z%C3%BCrich_%28Juli_2012%29.jpg</t>
   </si>
   <si>
-    <t>Transkription</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q207714</t>
-  </si>
-  <si>
     <t>Triton</t>
   </si>
   <si>
@@ -1937,9 +1364,6 @@
     <t>http://www.wikidata.org/entity/Q16524</t>
   </si>
   <si>
-    <t>Unterrichtsmaterial</t>
-  </si>
-  <si>
     <t>Ursula Pellaton</t>
   </si>
   <si>
@@ -1955,30 +1379,15 @@
     <t>Vierwaldstättersee</t>
   </si>
   <si>
-    <t>Vorstellungen</t>
-  </si>
-  <si>
-    <t>Vorstellungen im Jahr</t>
-  </si>
-  <si>
     <t>Waganowa</t>
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q236413</t>
   </si>
   <si>
-    <t>Wandervogel</t>
-  </si>
-  <si>
     <t>Westend</t>
   </si>
   <si>
-    <t>Wettbewerben</t>
-  </si>
-  <si>
-    <t>Wigman-Schülerin</t>
-  </si>
-  <si>
     <t>Wilhelm Tell</t>
   </si>
   <si>
@@ -1994,30 +1403,12 @@
     <t>http://data.performing-arts.ch/p/ff37db65-8fff-4640-8088-049f56a9aedb</t>
   </si>
   <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q866</t>
-  </si>
-  <si>
-    <t>Zentraleuropäischer Tanz</t>
-  </si>
-  <si>
-    <t>Zentrum</t>
-  </si>
-  <si>
     <t>ZHDK</t>
   </si>
   <si>
     <t>http://www.wikidata.org/entity/Q222450</t>
   </si>
   <si>
-    <t>Zürcher</t>
-  </si>
-  <si>
-    <t>Zürcher Zeit</t>
-  </si>
-  <si>
     <t>Züriberg</t>
   </si>
   <si>
@@ -2031,15 +1422,6 @@
   </si>
   <si>
     <t>Züricher</t>
-  </si>
-  <si>
-    <t>Zweiter Weltkrieg</t>
-  </si>
-  <si>
-    <t>Zweiten Weltkriegs</t>
-  </si>
-  <si>
-    <t>http://www.wikidata.org/entity/Q362</t>
   </si>
   <si>
     <t>ZUSÄTZLICHES</t>
@@ -2486,9 +1868,9 @@
   </sheetPr>
   <dimension ref="A1:Z314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A314" sqref="A314:XFD314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2504,7 +1886,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2542,3579 +1924,2421 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    </row>
+    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-    </row>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-    </row>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>96</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="65" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>145</v>
-      </c>
-    </row>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-    </row>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>177</v>
-      </c>
-      <c r="E89" t="s">
-        <v>178</v>
-      </c>
-    </row>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>191</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" t="s">
-        <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>196</v>
-      </c>
-    </row>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="E99" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>202</v>
-      </c>
-    </row>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="E105" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>218</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>219</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>224</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>227</v>
-      </c>
-      <c r="B112" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="F117" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="F121" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="E122" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
       <c r="E123" t="s">
-        <v>256</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>258</v>
+        <v>163</v>
       </c>
       <c r="F124" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>260</v>
-      </c>
-      <c r="B125" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" t="s">
-        <v>262</v>
-      </c>
-    </row>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="E127" t="s">
-        <v>266</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="E128" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="F128" t="s">
-        <v>271</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>274</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F129" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>276</v>
-      </c>
-      <c r="B130" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="E132" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>284</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="E134" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" t="s">
-        <v>289</v>
-      </c>
-    </row>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="E136" t="s">
-        <v>292</v>
+        <v>189</v>
       </c>
       <c r="F136" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>294</v>
-      </c>
-      <c r="C137" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>296</v>
-      </c>
-      <c r="C138" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>298</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>302</v>
+        <v>196</v>
       </c>
       <c r="E141" t="s">
-        <v>303</v>
+        <v>197</v>
       </c>
       <c r="F141" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>306</v>
-      </c>
-      <c r="C143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="E147" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>315</v>
-      </c>
-      <c r="B148" t="s">
-        <v>316</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>318</v>
-      </c>
-      <c r="B149" t="s">
-        <v>319</v>
-      </c>
-      <c r="C149" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>321</v>
-      </c>
-      <c r="C150" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" t="s">
-        <v>322</v>
-      </c>
-    </row>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>325</v>
+        <v>208</v>
       </c>
       <c r="F151" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>328</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>331</v>
+        <v>214</v>
       </c>
       <c r="E153" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="F153" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="C154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
-        <v>336</v>
-      </c>
-      <c r="B156" t="s">
-        <v>337</v>
-      </c>
-      <c r="C156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>339</v>
-      </c>
-      <c r="B157" t="s">
-        <v>340</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
-        <v>341</v>
-      </c>
-      <c r="B158" t="s">
-        <v>342</v>
-      </c>
-      <c r="C158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" t="s">
-        <v>343</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="E159" t="s">
-        <v>347</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>348</v>
+        <v>224</v>
       </c>
       <c r="B160" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>351</v>
-      </c>
-      <c r="B161" t="s">
-        <v>352</v>
-      </c>
-      <c r="C161" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>353</v>
-      </c>
-      <c r="C162" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" t="s">
-        <v>354</v>
-      </c>
-    </row>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>355</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="E163" t="s">
-        <v>357</v>
+        <v>229</v>
       </c>
       <c r="F163" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>360</v>
+        <v>232</v>
       </c>
       <c r="E164" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="F164" t="s">
-        <v>362</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>363</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="E165" t="s">
-        <v>365</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>366</v>
+        <v>238</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>367</v>
+        <v>239</v>
       </c>
       <c r="E166" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>369</v>
+        <v>241</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="E167" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="C168" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
       <c r="E168" t="s">
-        <v>374</v>
+        <v>246</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="E169" t="s">
-        <v>377</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="B170" t="s">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>381</v>
+        <v>253</v>
       </c>
       <c r="E171" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="F172" t="s">
-        <v>385</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
       <c r="B173" t="s">
-        <v>387</v>
+        <v>259</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D173" t="s">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="E173" t="s">
-        <v>389</v>
+        <v>261</v>
       </c>
       <c r="F173" t="s">
-        <v>390</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>391</v>
+        <v>263</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>392</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>393</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>394</v>
+        <v>266</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>395</v>
+        <v>267</v>
       </c>
       <c r="F175" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>397</v>
+        <v>269</v>
       </c>
       <c r="B176" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>399</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>402</v>
+        <v>274</v>
       </c>
       <c r="E177" t="s">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="F177" t="s">
-        <v>404</v>
+        <v>276</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>405</v>
+        <v>277</v>
       </c>
       <c r="B178" t="s">
-        <v>406</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>407</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="B179" t="s">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="E179" t="s">
-        <v>411</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>413</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>414</v>
+        <v>286</v>
       </c>
       <c r="C181" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
-        <v>416</v>
-      </c>
-      <c r="C182" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="183" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>417</v>
+        <v>288</v>
       </c>
       <c r="B183" t="s">
-        <v>418</v>
+        <v>289</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="F183" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>422</v>
+        <v>293</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>424</v>
+        <v>295</v>
       </c>
       <c r="E185" t="s">
-        <v>425</v>
+        <v>296</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>426</v>
+        <v>297</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
-        <v>427</v>
-      </c>
-      <c r="C187" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" t="s">
-        <v>428</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="188" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>429</v>
+        <v>298</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>431</v>
-      </c>
-      <c r="C189" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="190" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>432</v>
+        <v>300</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>433</v>
+        <v>301</v>
       </c>
       <c r="B191" t="s">
-        <v>434</v>
+        <v>302</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
-        <v>435</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
-        <v>436</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" t="s">
-        <v>437</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="194" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>438</v>
+        <v>303</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="E194" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>441</v>
-      </c>
-      <c r="C195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>442</v>
-      </c>
-      <c r="C196" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="196" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="197" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>443</v>
+        <v>306</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="E197" t="s">
-        <v>445</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>446</v>
+        <v>309</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>447</v>
+        <v>310</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>449</v>
+        <v>312</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>450</v>
+        <v>313</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>451</v>
+        <v>314</v>
       </c>
       <c r="E200" t="s">
-        <v>452</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>453</v>
+        <v>316</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>454</v>
+        <v>317</v>
       </c>
       <c r="E201" t="s">
-        <v>455</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>456</v>
+        <v>319</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
-        <v>457</v>
-      </c>
-      <c r="C203" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
-        <v>458</v>
-      </c>
-      <c r="C204" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="205" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>459</v>
+        <v>320</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>460</v>
+        <v>321</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D206" t="s">
-        <v>461</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>462</v>
+        <v>323</v>
       </c>
       <c r="C207" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
-        <v>464</v>
-      </c>
-      <c r="C208" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" t="s">
-        <v>465</v>
-      </c>
-    </row>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>466</v>
+        <v>325</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="E209" t="s">
-        <v>468</v>
+        <v>327</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>469</v>
+        <v>328</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>470</v>
+        <v>329</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
-        <v>471</v>
-      </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="E213" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
-        <v>475</v>
-      </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>476</v>
+        <v>333</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
-        <v>477</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>478</v>
+        <v>335</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>479</v>
+        <v>336</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>480</v>
+        <v>337</v>
       </c>
       <c r="F217" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
-        <v>482</v>
-      </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="219" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>484</v>
+        <v>340</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D220" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="E220" t="s">
-        <v>486</v>
+        <v>342</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="B221" t="s">
-        <v>488</v>
+        <v>344</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="E221" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
       <c r="F221" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="E222" t="s">
-        <v>494</v>
+        <v>350</v>
       </c>
       <c r="F222" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
-        <v>496</v>
-      </c>
-      <c r="C223" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="224" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>497</v>
+        <v>352</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D224" t="s">
-        <v>498</v>
+        <v>353</v>
       </c>
       <c r="E224" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
-        <v>500</v>
-      </c>
-      <c r="B225" t="s">
-        <v>501</v>
-      </c>
-      <c r="C225" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
-        <v>503</v>
-      </c>
-      <c r="C226" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
-        <v>504</v>
-      </c>
-      <c r="C227" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
-        <v>505</v>
-      </c>
-      <c r="C228" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" t="s">
-        <v>506</v>
-      </c>
-    </row>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="226" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="227" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="228" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="229" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>507</v>
+        <v>355</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="E229" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
       <c r="F229" t="s">
-        <v>510</v>
+        <v>358</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>511</v>
+        <v>359</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>508</v>
+        <v>356</v>
       </c>
       <c r="E230" t="s">
-        <v>509</v>
+        <v>357</v>
       </c>
       <c r="F230" t="s">
-        <v>510</v>
+        <v>358</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>512</v>
+        <v>360</v>
       </c>
       <c r="B231" t="s">
-        <v>513</v>
+        <v>361</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>514</v>
-      </c>
-      <c r="C232" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>515</v>
-      </c>
-      <c r="C233" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>516</v>
-      </c>
-      <c r="C234" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="233" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="234" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="235" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="C235" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="E237" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>522</v>
+        <v>367</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>523</v>
+        <v>368</v>
       </c>
       <c r="B239" t="s">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="E239" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="F239" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>527</v>
-      </c>
-      <c r="C240" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="241" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>529</v>
-      </c>
-      <c r="C242" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="243" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>530</v>
+        <v>373</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="E243" t="s">
-        <v>532</v>
+        <v>375</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>533</v>
+        <v>376</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>534</v>
+        <v>377</v>
       </c>
       <c r="E244" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>536</v>
-      </c>
-      <c r="C245" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>537</v>
-      </c>
-      <c r="B246" t="s">
-        <v>538</v>
-      </c>
-      <c r="C246" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246" t="s">
-        <v>539</v>
-      </c>
-      <c r="F246" t="s">
-        <v>540</v>
-      </c>
-    </row>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="247" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>541</v>
+        <v>379</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D247" t="s">
-        <v>542</v>
+        <v>380</v>
       </c>
       <c r="F247" t="s">
-        <v>543</v>
+        <v>381</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>544</v>
+        <v>382</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
-        <v>545</v>
+        <v>383</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>546</v>
+        <v>384</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>547</v>
+        <v>385</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>548</v>
+        <v>386</v>
       </c>
       <c r="C250" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E250" t="s">
-        <v>549</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>550</v>
+        <v>388</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E251" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
-        <v>552</v>
-      </c>
-      <c r="B252" t="s">
-        <v>553</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
-        <v>554</v>
-      </c>
-      <c r="B253" t="s">
-        <v>555</v>
-      </c>
-      <c r="C253" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
-        <v>556</v>
-      </c>
-      <c r="C254" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254" t="s">
-        <v>557</v>
-      </c>
-    </row>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="255" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>558</v>
+        <v>390</v>
       </c>
       <c r="B255" t="s">
-        <v>559</v>
+        <v>391</v>
       </c>
       <c r="C255" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E255" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
-        <v>561</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="257" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>562</v>
+        <v>393</v>
       </c>
       <c r="B257" t="s">
-        <v>563</v>
+        <v>394</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>564</v>
+        <v>395</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>565</v>
+        <v>396</v>
       </c>
       <c r="B259" t="s">
-        <v>566</v>
+        <v>397</v>
       </c>
       <c r="C259" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>567</v>
+        <v>398</v>
       </c>
       <c r="C260" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
-        <v>568</v>
-      </c>
-      <c r="C261" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="262" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>569</v>
+        <v>399</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>570</v>
+        <v>400</v>
       </c>
       <c r="B263" t="s">
-        <v>571</v>
+        <v>401</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D263" t="s">
-        <v>572</v>
+        <v>402</v>
       </c>
       <c r="E263" t="s">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="F263" t="s">
-        <v>574</v>
+        <v>404</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>575</v>
+        <v>405</v>
       </c>
       <c r="C264" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
-        <v>576</v>
-      </c>
-      <c r="C265" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
-        <v>577</v>
-      </c>
-      <c r="B266" t="s">
-        <v>578</v>
-      </c>
-      <c r="C266" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="266" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="267" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>579</v>
+        <v>406</v>
       </c>
       <c r="B267" t="s">
-        <v>580</v>
+        <v>407</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D267" t="s">
-        <v>581</v>
+        <v>408</v>
       </c>
       <c r="E267" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>583</v>
-      </c>
-      <c r="C268" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="269" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>584</v>
+        <v>410</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D269" t="s">
-        <v>585</v>
+        <v>411</v>
       </c>
       <c r="E269" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>587</v>
+        <v>413</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E270" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
-        <v>589</v>
-      </c>
-      <c r="C271" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
-        <v>590</v>
-      </c>
-      <c r="B272" t="s">
-        <v>591</v>
-      </c>
-      <c r="C272" t="s">
-        <v>6</v>
-      </c>
-      <c r="D272" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
-        <v>593</v>
-      </c>
-      <c r="B273" t="s">
-        <v>594</v>
-      </c>
-      <c r="C273" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="272" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="274" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>595</v>
+        <v>415</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="E274" t="s">
-        <v>597</v>
+        <v>417</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
-        <v>598</v>
-      </c>
-      <c r="C275" t="s">
-        <v>6</v>
-      </c>
       <c r="G275" s="2"/>
     </row>
     <row r="276" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>599</v>
+        <v>418</v>
       </c>
       <c r="C276" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E276" t="s">
-        <v>600</v>
+        <v>419</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>601</v>
+        <v>420</v>
       </c>
       <c r="B277" t="s">
-        <v>602</v>
+        <v>421</v>
       </c>
       <c r="C277" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>603</v>
+        <v>422</v>
       </c>
       <c r="E277" t="s">
-        <v>604</v>
+        <v>423</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>605</v>
+        <v>424</v>
       </c>
       <c r="C278" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
-        <v>606</v>
-      </c>
-      <c r="C279" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" t="s">
-        <v>607</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="280" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>608</v>
+        <v>425</v>
       </c>
       <c r="C280" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
-        <v>609</v>
-      </c>
-      <c r="C281" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="282" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>610</v>
+        <v>426</v>
       </c>
       <c r="C282" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D282" t="s">
-        <v>611</v>
+        <v>427</v>
       </c>
       <c r="E282" t="s">
-        <v>612</v>
+        <v>428</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>613</v>
+        <v>429</v>
       </c>
       <c r="C283" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
-        <v>614</v>
-      </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="285" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>615</v>
+        <v>430</v>
       </c>
       <c r="C285" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E285" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
-        <v>617</v>
-      </c>
-      <c r="B286" t="s">
-        <v>618</v>
-      </c>
-      <c r="C286" t="s">
-        <v>6</v>
-      </c>
-      <c r="D286" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
-        <v>620</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="287" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
     <row r="288" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>621</v>
+        <v>432</v>
       </c>
       <c r="C288" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E288" t="s">
-        <v>622</v>
+        <v>433</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>623</v>
+        <v>434</v>
       </c>
       <c r="B289" t="s">
-        <v>624</v>
+        <v>435</v>
       </c>
       <c r="C289" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D289" t="s">
-        <v>625</v>
+        <v>436</v>
       </c>
       <c r="F289" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
-        <v>627</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="s">
-        <v>628</v>
-      </c>
-    </row>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="291" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>629</v>
+        <v>438</v>
       </c>
       <c r="C291" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D291" t="s">
-        <v>630</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>631</v>
+        <v>440</v>
       </c>
       <c r="C292" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D292" t="s">
-        <v>632</v>
+        <v>441</v>
       </c>
       <c r="E292" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="F292" t="s">
-        <v>633</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D293" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>636</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="295" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>637</v>
+        <v>445</v>
       </c>
       <c r="B295" t="s">
-        <v>638</v>
+        <v>446</v>
       </c>
       <c r="C295" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D295" t="s">
-        <v>639</v>
+        <v>447</v>
       </c>
       <c r="E295" t="s">
-        <v>640</v>
+        <v>448</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>641</v>
+        <v>449</v>
       </c>
       <c r="C296" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A297" t="s">
-        <v>642</v>
-      </c>
-      <c r="B297" t="s">
-        <v>643</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="298" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>644</v>
+        <v>450</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D298" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>646</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="300" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>647</v>
+        <v>452</v>
       </c>
       <c r="C300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>648</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>649</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="302" spans="1:6" ht="13" x14ac:dyDescent="0.15"/>
     <row r="303" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>650</v>
+        <v>453</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E303" t="s">
-        <v>651</v>
+        <v>454</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>652</v>
+        <v>455</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D304" t="s">
-        <v>653</v>
+        <v>456</v>
       </c>
       <c r="E304" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A305" t="s">
-        <v>655</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A306" t="s">
-        <v>657</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A307" t="s">
-        <v>658</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="306" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="307" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="308" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>659</v>
+        <v>458</v>
       </c>
       <c r="C308" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D308" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A309" t="s">
-        <v>661</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A310" t="s">
-        <v>662</v>
-      </c>
-      <c r="C310" t="s">
-        <v>6</v>
-      </c>
-    </row>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="310" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
     <row r="311" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>663</v>
+        <v>460</v>
       </c>
       <c r="C311" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>664</v>
+        <v>461</v>
       </c>
       <c r="C312" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D312" t="s">
-        <v>665</v>
+        <v>462</v>
       </c>
       <c r="E312" t="s">
-        <v>666</v>
+        <v>463</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>667</v>
+        <v>464</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15">
-      <c r="A314" t="s">
-        <v>668</v>
-      </c>
-      <c r="B314" t="s">
-        <v>669</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" t="s">
-        <v>670</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:F314" xr:uid="{D80FE2EF-A799-5D40-AA01-0589FDA0CC52}"/>
   <hyperlinks>
@@ -6122,295 +4346,246 @@
     <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E20" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D41" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D58" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F61" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D62" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D67" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F69" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E71" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D72" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D73" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F82" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D83" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D84" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E84" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D85" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F87" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D89" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E89" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D90" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F90" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D92" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E97" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F97" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D98" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E99" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D100" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D101" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E101" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E102" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E105" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D106" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E106" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D109" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E109" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F109" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D113" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D115" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E115" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D117" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E117" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F117" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E118" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E120" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D121" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E121" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F121" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D122" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E122" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D123" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E123" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E124" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D127" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E128" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="F128" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D129" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="F129" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E132" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E134" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="F135" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D136" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E136" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="F136" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D137" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D139" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E140" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D141" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="F141" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D146" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E146" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D147" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E147" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D148" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D149" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D151" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E152" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D153" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E153" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="F153" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="F156" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D158" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D159" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E159" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="F160" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D162" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D163" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E163" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="F163" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D164" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E164" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="F164" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D165" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E165" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D166" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E166" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D167" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E167" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D168" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E168" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D169" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D171" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="D172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="F172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="D173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E173" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="F173" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="D174" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E174" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="D175" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="F175" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="D176" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="D177" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E177" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="F177" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="D178" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="D179" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E179" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E180" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="D181" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="D183" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="F183" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E184" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="D185" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="E185" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="D187" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D188" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="D193" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="D194" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="E194" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="D197" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E197" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="D198" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="F198" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="D200" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E200" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="D201" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E201" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="D206" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="D207" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D208" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="D209" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E209" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="D213" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="D215" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E217" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="F217" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="D220" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E220" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D221" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E221" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="F221" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="D222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E222" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="F222" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="D224" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E224" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="D225" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="D228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="D229" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E229" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="F229" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="D230" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E230" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="F230" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="D237" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E237" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="D239" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E239" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="F239" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="D243" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E243" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="D244" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E244" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="D246" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="F246" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="D247" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="F247" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="D248" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="D249" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E250" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E251" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="D254" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="E255" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="D263" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E263" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="F263" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="D267" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E267" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="D269" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E269" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E270" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="D272" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="D274" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E274" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E276" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="D277" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E277" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="D279" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="D282" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="E282" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="E285" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="D286" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="E288" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="D289" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="F289" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="D290" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="D291" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="D292" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="E292" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="F292" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="D293" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="D295" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="E295" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="D298" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="E303" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="D304" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="E304" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="D305" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="D308" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="D312" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="E312" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="D314" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="D78" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D22" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E25" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D31" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D39" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D41" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D42" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E44" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E45" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E47" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D48" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E58" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E67" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E69" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F69" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E71" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D73" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E73" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D74" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E82" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F82" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D84" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E85" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D90" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F90" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D92" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E92" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D99" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E99" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="D101" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E101" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E102" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="D104" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D105" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E105" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D106" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E106" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D109" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E109" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F109" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D113" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D115" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E115" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D117" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E117" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F117" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E118" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E120" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="D121" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E121" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F121" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D122" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E122" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D123" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E123" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E124" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F124" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D127" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E127" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="D128" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E128" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F128" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D129" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E129" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F129" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="D131" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D132" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E132" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D134" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E134" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D136" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E136" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F136" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D139" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E140" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D141" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E141" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F141" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D146" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E146" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D147" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E147" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D151" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E152" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D153" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E153" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F153" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D159" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E159" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F160" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="D163" r:id="rId118" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E163" r:id="rId119" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F163" r:id="rId120" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D164" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E164" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F164" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D165" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E165" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D166" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E166" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D167" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E167" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D168" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E168" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D169" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E169" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D171" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E171" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D172" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F172" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D173" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E173" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="F173" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D174" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E174" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D175" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F175" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D176" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D177" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E177" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F177" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D178" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D179" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E179" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E180" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D181" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D183" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="F183" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E184" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="D185" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E185" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="D188" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="D194" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E194" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="D197" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E197" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D198" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="F198" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D200" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E200" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D201" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E201" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="D206" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="D207" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D209" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E209" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="D213" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E213" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D215" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E217" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F217" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D220" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E220" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D221" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E221" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="F221" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D222" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E222" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="F222" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="D224" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E224" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="D229" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E229" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F229" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D230" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E230" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="F230" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="D237" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E237" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D239" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="E239" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F239" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="D243" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E243" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D244" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E244" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D247" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F247" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D248" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="D249" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E250" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E251" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E255" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D263" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E263" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="F263" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="D267" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E267" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D269" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E269" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E270" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="D274" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E274" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E276" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="D277" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E277" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="D282" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E282" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="E285" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="E288" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="D289" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="F289" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D291" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="D292" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="E292" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="F292" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="D293" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D295" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="E295" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="D298" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E303" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D304" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E304" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="D308" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D312" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="E312" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="D78" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6420,7 +4595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -6434,7 +4609,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6445,326 +4620,326 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>467</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>675</v>
+        <v>469</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>677</v>
+        <v>471</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>678</v>
+        <v>472</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>679</v>
+        <v>473</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>680</v>
+        <v>474</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>681</v>
+        <v>475</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>682</v>
+        <v>476</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>683</v>
+        <v>477</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>684</v>
+        <v>478</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>685</v>
+        <v>479</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>686</v>
+        <v>480</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>687</v>
+        <v>481</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>688</v>
+        <v>482</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>689</v>
+        <v>483</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>690</v>
+        <v>484</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>691</v>
+        <v>485</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>692</v>
+        <v>486</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>693</v>
+        <v>487</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>694</v>
+        <v>488</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>695</v>
+        <v>489</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>696</v>
+        <v>490</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>697</v>
+        <v>491</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>698</v>
+        <v>492</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>699</v>
+        <v>493</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>700</v>
+        <v>494</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>701</v>
+        <v>495</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>702</v>
+        <v>496</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>703</v>
+        <v>497</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>704</v>
+        <v>498</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>705</v>
+        <v>499</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>706</v>
+        <v>500</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>707</v>
+        <v>501</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>708</v>
+        <v>502</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>709</v>
+        <v>503</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>710</v>
+        <v>504</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>711</v>
+        <v>505</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>712</v>
+        <v>506</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>713</v>
+        <v>507</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>719</v>
+        <v>513</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>714</v>
+        <v>508</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>715</v>
+        <v>509</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>716</v>
+        <v>510</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>717</v>
+        <v>511</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>718</v>
+        <v>512</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="5" t="s">
-        <v>676</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -6789,12 +4964,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>674</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>671</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrin/Documents/GitHub/pellaton-experience-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF86AE9-7EFB-8E45-82F3-9E9C3CC6A102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC7CBE-CEE4-D542-B58F-A8023CD8F8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27900" yWindow="460" windowWidth="24520" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ignore" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$561</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entities!$A$1:$F$314</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ignore!$A$1:$A$2</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1189">
   <si>
     <t>variations</t>
   </si>
@@ -1604,9 +1604,6 @@
     <t>Aha</t>
   </si>
   <si>
-    <t>LOC;MISC;PER</t>
-  </si>
-  <si>
     <t>Aha ja</t>
   </si>
   <si>
@@ -2177,9 +2174,6 @@
     <t>Kantilene</t>
   </si>
   <si>
-    <t>konstant</t>
-  </si>
-  <si>
     <t>Koordination</t>
   </si>
   <si>
@@ -3026,9 +3020,6 @@
     <t>Szene</t>
   </si>
   <si>
-    <t>STYL;MOVE</t>
-  </si>
-  <si>
     <t>Tanzabend</t>
   </si>
   <si>
@@ -3050,9 +3041,6 @@
     <t>Technisches</t>
   </si>
   <si>
-    <t>PROC;MOVE;DANC</t>
-  </si>
-  <si>
     <t>Theaterleiter</t>
   </si>
   <si>
@@ -3359,9 +3347,6 @@
     <t>Theaterballett</t>
   </si>
   <si>
-    <t>STYL;DANC</t>
-  </si>
-  <si>
     <t>Theatertanz</t>
   </si>
   <si>
@@ -3482,9 +3467,6 @@
     <t>Tanzkritik;Kritiken;Kunstkritiker</t>
   </si>
   <si>
-    <t>JOUR;PROC;DANC</t>
-  </si>
-  <si>
     <t>Kulturabteilung</t>
   </si>
   <si>
@@ -3600,9 +3582,6 @@
   </si>
   <si>
     <t>Antriebslehre</t>
-  </si>
-  <si>
-    <t>DANC;MOV</t>
   </si>
   <si>
     <t>Zeitungsausschnitte;Zeitungsbusiness;Zeitungslandschaft</t>
@@ -6657,11 +6636,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C588"/>
+  <dimension ref="A1:C587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173:XFD173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6875,7 +6854,7 @@
         <v>496</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -6892,7 +6871,7 @@
         <v>498</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>471</v>
@@ -6904,7 +6883,7 @@
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -6983,7 +6962,7 @@
         <v>510</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>471</v>
@@ -7000,10 +6979,10 @@
     </row>
     <row r="34" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>471</v>
@@ -7011,7 +6990,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
@@ -7020,10 +6999,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>533</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>471</v>
@@ -7031,7 +7010,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
@@ -7040,7 +7019,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
@@ -7049,7 +7028,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
@@ -7058,7 +7037,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
@@ -7067,10 +7046,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>539</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>471</v>
@@ -7078,7 +7057,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
@@ -7087,7 +7066,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
@@ -7096,7 +7075,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
@@ -7105,7 +7084,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
@@ -7114,7 +7093,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
@@ -7123,7 +7102,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
@@ -7132,7 +7111,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
@@ -7141,7 +7120,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
@@ -7150,7 +7129,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
@@ -7159,7 +7138,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
@@ -7168,7 +7147,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
@@ -7177,7 +7156,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
@@ -7186,7 +7165,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
@@ -7195,7 +7174,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
@@ -7204,19 +7183,19 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>471</v>
@@ -7224,7 +7203,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
@@ -7233,7 +7212,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
@@ -7242,19 +7221,19 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>471</v>
@@ -7262,21 +7241,21 @@
     </row>
     <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>471</v>
@@ -7284,7 +7263,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8" t="s">
@@ -7293,7 +7272,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
@@ -7302,7 +7281,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
@@ -7311,10 +7290,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>570</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>471</v>
@@ -7322,19 +7301,19 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>572</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>573</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>471</v>
@@ -7342,10 +7321,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>575</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>471</v>
@@ -7353,10 +7332,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>577</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>471</v>
@@ -7364,10 +7343,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>579</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>471</v>
@@ -7375,7 +7354,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
@@ -7384,7 +7363,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
@@ -7393,10 +7372,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>471</v>
@@ -7404,7 +7383,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8" t="s">
@@ -7413,7 +7392,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8" t="s">
@@ -7422,10 +7401,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>587</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>471</v>
@@ -7433,21 +7412,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>589</v>
-      </c>
       <c r="C79" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>591</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>471</v>
@@ -7455,7 +7434,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8" t="s">
@@ -7464,7 +7443,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
@@ -7473,7 +7452,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
@@ -7482,7 +7461,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
@@ -7491,7 +7470,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
@@ -7500,10 +7479,10 @@
     </row>
     <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>597</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>598</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>471</v>
@@ -7511,7 +7490,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
@@ -7520,16 +7499,16 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
@@ -7538,10 +7517,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>603</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>471</v>
@@ -7549,7 +7528,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
@@ -7558,10 +7537,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>605</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>606</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>471</v>
@@ -7569,10 +7548,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>471</v>
@@ -7580,10 +7559,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>610</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>471</v>
@@ -7591,7 +7570,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8" t="s">
@@ -7600,10 +7579,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>613</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>471</v>
@@ -7611,10 +7590,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>615</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>471</v>
@@ -7622,19 +7601,19 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>471</v>
@@ -7642,10 +7621,10 @@
     </row>
     <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>620</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>471</v>
@@ -7653,7 +7632,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="8" t="s">
@@ -7662,10 +7641,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>623</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>471</v>
@@ -7673,7 +7652,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
@@ -7682,7 +7661,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
@@ -7691,7 +7670,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
@@ -7700,7 +7679,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8" t="s">
@@ -7709,7 +7688,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
@@ -7718,10 +7697,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>630</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>471</v>
@@ -7729,7 +7708,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8" t="s">
@@ -7738,7 +7717,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8" t="s">
@@ -7747,10 +7726,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>634</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>471</v>
@@ -7758,19 +7737,19 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>637</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>471</v>
@@ -7778,7 +7757,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
@@ -7787,7 +7766,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8" t="s">
@@ -7796,7 +7775,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8" t="s">
@@ -7805,10 +7784,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>641</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>642</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>471</v>
@@ -7816,7 +7795,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8" t="s">
@@ -7825,10 +7804,10 @@
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>471</v>
@@ -7836,7 +7815,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8" t="s">
@@ -7845,10 +7824,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>648</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>471</v>
@@ -7856,10 +7835,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>471</v>
@@ -7867,7 +7846,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8" t="s">
@@ -7876,10 +7855,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>653</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>471</v>
@@ -7887,7 +7866,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8" t="s">
@@ -7896,7 +7875,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8" t="s">
@@ -7905,7 +7884,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8" t="s">
@@ -7914,7 +7893,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8" t="s">
@@ -7923,7 +7902,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8" t="s">
@@ -7932,10 +7911,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>659</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>660</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>471</v>
@@ -7943,10 +7922,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>662</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>471</v>
@@ -7954,7 +7933,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="8" t="s">
@@ -7963,7 +7942,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="8" t="s">
@@ -7972,7 +7951,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8" t="s">
@@ -7981,7 +7960,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="8" t="s">
@@ -7990,7 +7969,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="8" t="s">
@@ -7999,120 +7978,122 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C137" s="8"/>
+      <c r="C137" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B138" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>674</v>
-      </c>
       <c r="C139" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>677</v>
-      </c>
       <c r="C141" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>679</v>
-      </c>
       <c r="C142" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B143" s="8"/>
       <c r="C143" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B144" s="8"/>
       <c r="C144" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B145" s="8"/>
       <c r="C145" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>684</v>
-      </c>
       <c r="C146" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B147" s="8"/>
       <c r="C147" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -8120,256 +8101,260 @@
         <v>499</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>689</v>
-      </c>
       <c r="C150" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>691</v>
-      </c>
       <c r="C151" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B152" s="8"/>
       <c r="C152" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B153" s="8"/>
       <c r="C153" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B154" s="8"/>
       <c r="C154" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B155" s="8"/>
       <c r="C155" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B156" s="8"/>
       <c r="C156" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>698</v>
-      </c>
       <c r="C157" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B158" s="8"/>
       <c r="C158" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B159" s="8"/>
       <c r="C159" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>702</v>
-      </c>
       <c r="C160" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B161" s="8"/>
       <c r="C161" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B162" s="8"/>
       <c r="C162" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B164" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>707</v>
-      </c>
       <c r="C164" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B165" s="8"/>
       <c r="C165" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>710</v>
-      </c>
       <c r="C166" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B167" s="8"/>
       <c r="C167" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B168" s="8"/>
       <c r="C168" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B169" s="8"/>
       <c r="C169" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>713</v>
-      </c>
       <c r="C170" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B171" s="8"/>
       <c r="C171" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B172" s="8"/>
       <c r="C172" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="C173" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B174" s="8"/>
       <c r="C174" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B175" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="B175" s="8"/>
       <c r="C175" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -8380,125 +8365,129 @@
         <v>720</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>722</v>
-      </c>
+      <c r="B177" s="8"/>
       <c r="C177" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B178" s="8"/>
       <c r="C178" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B179" s="8"/>
       <c r="C179" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B181" s="8"/>
       <c r="C181" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B182" s="8"/>
       <c r="C182" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B183" s="8"/>
       <c r="C183" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B184" s="8"/>
       <c r="C184" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B185" s="8"/>
       <c r="C185" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B186" s="8"/>
       <c r="C186" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B187" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+      <c r="C187" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>734</v>
-      </c>
+      <c r="B188" s="8"/>
       <c r="C188" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B189" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+      <c r="C189" s="8" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="8" t="s">
@@ -8508,7 +8497,7 @@
         <v>737</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -8519,228 +8508,228 @@
         <v>739</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>741</v>
-      </c>
+      <c r="B192" s="8"/>
       <c r="C192" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B193" s="8"/>
       <c r="C193" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B195" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="B196" s="8"/>
       <c r="C196" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="B200" s="8"/>
+        <v>634</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>749</v>
+      </c>
       <c r="C200" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>751</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="B201" s="8"/>
       <c r="C201" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="B202" s="8"/>
       <c r="C202" s="8" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="B203" s="8" t="s">
         <v>754</v>
       </c>
+      <c r="B203" s="8"/>
       <c r="C203" s="8" t="s">
-        <v>755</v>
+        <v>671</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B204" s="8"/>
       <c r="C204" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B205" s="8"/>
       <c r="C205" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>759</v>
-      </c>
+      <c r="B206" s="8"/>
       <c r="C206" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="8" t="s">
-        <v>760</v>
+        <v>653</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="8" t="s">
-        <v>654</v>
+        <v>759</v>
       </c>
       <c r="B208" s="8"/>
       <c r="C208" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B209" s="8"/>
       <c r="C209" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>762</v>
       </c>
-      <c r="B210" s="8"/>
       <c r="C210" s="8" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>764</v>
-      </c>
+      <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="B212" s="8"/>
       <c r="C212" s="8" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8" t="s">
         <v>766</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="B214" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -8751,47 +8740,47 @@
         <v>771</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="B216" s="8" t="s">
-        <v>773</v>
-      </c>
+      <c r="B216" s="8"/>
       <c r="C216" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B217" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B217" s="8"/>
       <c r="C217" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>776</v>
-      </c>
+      <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B219" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="B219" s="8"/>
       <c r="C219" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -8802,423 +8791,423 @@
         <v>779</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="B221" s="8" t="s">
-        <v>781</v>
-      </c>
+      <c r="B221" s="8"/>
       <c r="C221" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B222" s="8"/>
       <c r="C222" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B223" s="8"/>
       <c r="C223" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B224" s="8"/>
       <c r="C224" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B225" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="B225" s="8"/>
       <c r="C225" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="B226" s="8" t="s">
-        <v>787</v>
-      </c>
+      <c r="B226" s="8"/>
       <c r="C226" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B227" s="8"/>
       <c r="C227" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B228" s="8"/>
       <c r="C228" s="8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A229" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B229" s="8"/>
       <c r="C229" s="8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="B230" s="9" t="s">
-        <v>792</v>
-      </c>
+      <c r="B230" s="8"/>
       <c r="C230" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B231" s="8"/>
       <c r="C231" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B232" s="8"/>
       <c r="C232" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B233" s="8"/>
       <c r="C233" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B234" s="8"/>
       <c r="C234" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B235" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B235" s="8"/>
       <c r="C235" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="B236" s="8" t="s">
-        <v>799</v>
-      </c>
+      <c r="B236" s="8"/>
       <c r="C236" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B237" s="8"/>
       <c r="C237" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B238" s="8"/>
       <c r="C238" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B239" s="8"/>
       <c r="C239" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B240" s="8"/>
       <c r="C240" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B241" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="B241" s="8"/>
       <c r="C241" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B242" s="8" t="s">
-        <v>806</v>
-      </c>
+      <c r="B242" s="8"/>
       <c r="C242" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B243" s="8"/>
       <c r="C243" s="8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B244" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="B244" s="8"/>
       <c r="C244" s="8" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="B245" s="8" t="s">
         <v>810</v>
       </c>
+      <c r="B245" s="8"/>
       <c r="C245" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B246" s="8"/>
       <c r="C246" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B247" s="8"/>
       <c r="C247" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B248" s="8"/>
       <c r="C248" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="B249" s="8"/>
+        <v>814</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>1187</v>
+      </c>
       <c r="C249" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="B250" s="7" t="s">
-        <v>1194</v>
-      </c>
       <c r="C250" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="B251" s="8" t="s">
-        <v>818</v>
-      </c>
+      <c r="B251" s="8"/>
       <c r="C251" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B252" s="8"/>
       <c r="C252" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B253" s="8"/>
       <c r="C253" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B254" s="8"/>
       <c r="C254" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B255" s="8"/>
       <c r="C255" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B256" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="B256" s="8"/>
       <c r="C256" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>825</v>
-      </c>
+      <c r="B257" s="8"/>
       <c r="C257" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B258" s="8"/>
       <c r="C258" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B259" s="8"/>
       <c r="C259" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B260" s="8"/>
       <c r="C260" s="8" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B261" s="8"/>
+      <c r="B261" s="8" t="s">
+        <v>830</v>
+      </c>
       <c r="C261" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="B262" s="8" t="s">
-        <v>832</v>
-      </c>
+      <c r="B262" s="8"/>
       <c r="C262" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B263" s="8"/>
       <c r="C263" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="B264" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="B264" s="8"/>
       <c r="C264" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -9229,7 +9218,7 @@
         <v>836</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -9240,36 +9229,34 @@
         <v>838</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>840</v>
-      </c>
+      <c r="B267" s="8"/>
       <c r="C267" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B268" s="8"/>
       <c r="C268" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="8" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -9278,88 +9265,90 @@
       </c>
       <c r="B270" s="8"/>
       <c r="C270" s="8" t="s">
-        <v>844</v>
+        <v>809</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B271" s="8"/>
       <c r="C271" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B272" s="8"/>
       <c r="C272" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B273" s="8"/>
       <c r="C273" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B274" s="8"/>
       <c r="C274" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B275" s="8"/>
       <c r="C275" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B276" s="8"/>
       <c r="C276" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B277" s="8"/>
       <c r="C277" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B278" s="8"/>
       <c r="C278" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="B279" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="B279" s="8"/>
       <c r="C279" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -9370,27 +9359,27 @@
         <v>855</v>
       </c>
       <c r="C280" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B281" s="8" t="s">
-        <v>857</v>
-      </c>
+      <c r="B281" s="8"/>
       <c r="C281" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="B282" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="B282" s="8"/>
       <c r="C282" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -9401,206 +9390,206 @@
         <v>860</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="B284" s="8" t="s">
-        <v>862</v>
-      </c>
+      <c r="B284" s="8"/>
       <c r="C284" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B285" s="8"/>
       <c r="C285" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B286" s="8"/>
       <c r="C286" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B287" s="8"/>
       <c r="C287" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B288" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="B288" s="8"/>
       <c r="C288" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="B289" s="8" t="s">
-        <v>868</v>
-      </c>
+      <c r="B289" s="8"/>
       <c r="C289" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B290" s="8"/>
       <c r="C290" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="B291" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="B291" s="8"/>
       <c r="C291" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="B292" s="8" t="s">
-        <v>872</v>
-      </c>
+      <c r="B292" s="8"/>
       <c r="C292" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B293" s="8"/>
       <c r="C293" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B294" s="8"/>
       <c r="C294" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B295" s="8"/>
+      <c r="C295" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A296" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A296" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="B296" s="8"/>
+      <c r="B296" s="8" t="s">
+        <v>876</v>
+      </c>
       <c r="C296" s="9" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="B297" s="8" t="s">
-        <v>878</v>
-      </c>
+      <c r="B297" s="8"/>
       <c r="C297" s="9" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="9" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B299" s="8"/>
-      <c r="C299" s="9" t="s">
-        <v>811</v>
+      <c r="C299" s="8" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="B301" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="B301" s="8"/>
       <c r="C301" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="B302" s="8" t="s">
-        <v>884</v>
-      </c>
+      <c r="B302" s="8"/>
       <c r="C302" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="8" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B303" s="8"/>
       <c r="C303" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="B304" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="B304" s="8"/>
       <c r="C304" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -9611,27 +9600,27 @@
         <v>888</v>
       </c>
       <c r="C305" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="B306" s="8" t="s">
-        <v>890</v>
-      </c>
+      <c r="B306" s="8"/>
       <c r="C306" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="B307" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="B307" s="8"/>
       <c r="C307" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -9642,1567 +9631,1567 @@
         <v>893</v>
       </c>
       <c r="C308" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="B309" s="8" t="s">
-        <v>895</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="B309" s="8"/>
       <c r="C309" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="8" t="s">
-        <v>548</v>
+        <v>894</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B311" s="8"/>
       <c r="C311" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B313" s="8"/>
       <c r="C313" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B314" s="8"/>
       <c r="C314" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="8" t="s">
-        <v>900</v>
+        <v>553</v>
       </c>
       <c r="B315" s="8"/>
       <c r="C315" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="8" t="s">
-        <v>554</v>
+        <v>899</v>
       </c>
       <c r="B316" s="8"/>
       <c r="C316" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B317" s="8"/>
       <c r="C317" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B318" s="8"/>
       <c r="C318" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B319" s="8"/>
       <c r="C319" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B320" s="8"/>
       <c r="C320" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="B321" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="B321" s="8"/>
       <c r="C321" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B322" s="8" t="s">
-        <v>907</v>
-      </c>
+      <c r="B322" s="8"/>
       <c r="C322" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B323" s="8"/>
       <c r="C323" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="8" t="s">
-        <v>909</v>
+        <v>558</v>
       </c>
       <c r="B324" s="8"/>
-      <c r="C324" s="8"/>
+      <c r="C324" s="8" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="8" t="s">
-        <v>559</v>
+        <v>908</v>
       </c>
       <c r="B325" s="8"/>
       <c r="C325" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B326" s="8"/>
       <c r="C326" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B327" s="8"/>
       <c r="C327" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="B328" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="B328" s="8"/>
       <c r="C328" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="B329" s="8" t="s">
-        <v>914</v>
-      </c>
+      <c r="B329" s="8"/>
       <c r="C329" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B330" s="8"/>
       <c r="C330" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B331" s="8"/>
       <c r="C331" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A332" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B332" s="8"/>
-      <c r="C332" s="8" t="s">
-        <v>811</v>
+      <c r="C332" s="9" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A333" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B333" s="8"/>
       <c r="C333" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A334" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B334" s="8"/>
       <c r="C334" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A335" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B335" s="8"/>
       <c r="C335" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A336" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B336" s="8"/>
       <c r="C336" s="9" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A337" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B337" s="8"/>
       <c r="C337" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A338" s="8" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B338" s="8"/>
       <c r="C338" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A339" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="B339" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="B339" s="8"/>
       <c r="C339" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A340" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="B340" s="8" t="s">
-        <v>926</v>
-      </c>
+      <c r="B340" s="8"/>
       <c r="C340" s="9" t="s">
-        <v>844</v>
+        <v>809</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A341" s="8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B341" s="8"/>
       <c r="C341" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A342" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B342" s="8"/>
       <c r="C342" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A343" s="8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B343" s="8"/>
       <c r="C343" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A344" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A345" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B345" s="8"/>
       <c r="C345" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A346" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B346" s="8"/>
       <c r="C346" s="9" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B347" s="8"/>
-      <c r="C347" s="9" t="s">
-        <v>811</v>
+      <c r="C347" s="8" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B348" s="8"/>
       <c r="C348" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B349" s="8"/>
       <c r="C349" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B350" s="8"/>
       <c r="C350" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B351" s="8"/>
       <c r="C351" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B352" s="8"/>
       <c r="C352" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="B353" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="B353" s="8"/>
       <c r="C353" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="B354" s="8" t="s">
-        <v>941</v>
-      </c>
+      <c r="B354" s="8"/>
       <c r="C354" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="B355" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="B355" s="8"/>
       <c r="C355" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="B356" s="8" t="s">
-        <v>944</v>
-      </c>
+      <c r="B356" s="8"/>
       <c r="C356" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B357" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="B357" s="8"/>
       <c r="C357" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="B358" s="8" t="s">
-        <v>947</v>
-      </c>
+      <c r="B358" s="8"/>
       <c r="C358" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="8" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B359" s="8"/>
       <c r="C359" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B360" s="8"/>
       <c r="C360" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="8" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B361" s="8"/>
       <c r="C361" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B362" s="8"/>
       <c r="C362" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="8" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B363" s="8"/>
       <c r="C363" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B364" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="B364" s="8"/>
       <c r="C364" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="B365" s="8" t="s">
-        <v>955</v>
-      </c>
+      <c r="B365" s="8"/>
       <c r="C365" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="8" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B366" s="8"/>
       <c r="C366" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B367" s="8"/>
       <c r="C367" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="8" t="s">
+        <v>957</v>
+      </c>
+      <c r="B368" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="B368" s="8"/>
       <c r="C368" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="B369" s="8" t="s">
-        <v>960</v>
-      </c>
+      <c r="B369" s="8"/>
       <c r="C369" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B370" s="8"/>
       <c r="C370" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B371" s="8"/>
       <c r="C371" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="B372" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="B372" s="8"/>
       <c r="C372" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="B373" s="8" t="s">
-        <v>965</v>
-      </c>
+      <c r="B373" s="8"/>
       <c r="C373" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B374" s="8"/>
       <c r="C374" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B375" s="8"/>
       <c r="C375" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B376" s="8"/>
       <c r="C376" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B377" s="8"/>
       <c r="C377" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="8" t="s">
-        <v>970</v>
-      </c>
-      <c r="B378" s="8"/>
+        <v>611</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>969</v>
+      </c>
       <c r="C378" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="8" t="s">
-        <v>612</v>
+        <v>970</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>971</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="B380" s="8" t="s">
-        <v>973</v>
-      </c>
+      <c r="B380" s="8"/>
       <c r="C380" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="8" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B381" s="8"/>
       <c r="C381" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B382" s="8"/>
       <c r="C382" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="B383" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="B383" s="8"/>
       <c r="C383" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="B384" s="8" t="s">
-        <v>978</v>
-      </c>
+      <c r="B384" s="8"/>
       <c r="C384" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B385" s="8"/>
       <c r="C385" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B387" s="8"/>
       <c r="C387" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B388" s="8"/>
       <c r="C388" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B389" s="8"/>
       <c r="C389" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="B390" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="B390" s="8"/>
       <c r="C390" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="B391" s="8" t="s">
-        <v>986</v>
-      </c>
+      <c r="B391" s="8"/>
       <c r="C391" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B392" s="8"/>
       <c r="C392" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B393" s="8"/>
       <c r="C393" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B394" s="8"/>
       <c r="C394" s="8" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B395" s="8"/>
       <c r="C395" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B396" s="8"/>
       <c r="C396" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A397" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="B397" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="B397" s="8"/>
       <c r="C397" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="8" t="s">
         <v>994</v>
       </c>
       <c r="C398" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="B399" s="8" t="s">
-        <v>996</v>
-      </c>
+      <c r="B399" s="8"/>
       <c r="C399" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B400" s="8"/>
       <c r="C400" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="8" t="s">
-        <v>998</v>
+        <v>751</v>
       </c>
       <c r="B401" s="8"/>
       <c r="C401" s="8" t="s">
-        <v>811</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="8" t="s">
-        <v>753</v>
+        <v>997</v>
       </c>
       <c r="B402" s="8"/>
       <c r="C402" s="8" t="s">
-        <v>999</v>
+        <v>809</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="8" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="8" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B404" s="8"/>
       <c r="C404" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="8" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B405" s="8"/>
       <c r="C405" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B406" s="8"/>
       <c r="C406" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="8" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B407" s="8"/>
       <c r="C407" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A408" s="8" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>634</v>
+      </c>
+      <c r="B408" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A409" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B409" s="8" t="s">
-        <v>1006</v>
-      </c>
+        <v>1004</v>
+      </c>
+      <c r="B409" s="8"/>
       <c r="C409" s="9" t="s">
-        <v>1007</v>
+        <v>809</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A410" s="8" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B410" s="8"/>
       <c r="C410" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A411" s="8" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B411" s="8"/>
       <c r="C411" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A412" s="8" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B412" s="8"/>
+        <v>1007</v>
+      </c>
+      <c r="B412" s="8" t="s">
+        <v>1008</v>
+      </c>
       <c r="C412" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A413" s="8" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B413" s="8" t="s">
-        <v>1012</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="B413" s="8"/>
       <c r="C413" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A414" s="8" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B414" s="8"/>
+        <v>1010</v>
+      </c>
+      <c r="B414" s="8" t="s">
+        <v>1011</v>
+      </c>
       <c r="C414" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A415" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B415" s="8" t="s">
-        <v>1015</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="B415" s="8"/>
       <c r="C415" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A416" s="8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B416" s="8"/>
+        <v>1013</v>
+      </c>
+      <c r="B416" s="8" t="s">
+        <v>1014</v>
+      </c>
       <c r="C416" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A417" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>1018</v>
-      </c>
+        <v>1015</v>
+      </c>
+      <c r="B417" s="8"/>
       <c r="C417" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A418" s="8" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B418" s="8"/>
       <c r="C418" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A419" s="8" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B419" s="8"/>
       <c r="C419" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A420" s="8" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B420" s="8"/>
       <c r="C420" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A421" s="8" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B421" s="8"/>
       <c r="C421" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A422" s="8" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B422" s="8"/>
       <c r="C422" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A423" s="8" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B423" s="8"/>
       <c r="C423" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A424" s="8" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B424" s="8"/>
+        <v>1022</v>
+      </c>
+      <c r="B424" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="C424" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A425" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B425" s="8" t="s">
-        <v>1027</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="B425" s="8"/>
       <c r="C425" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A426" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B426" s="8"/>
       <c r="C426" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A427" s="8" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B427" s="8"/>
       <c r="C427" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A428" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B428" s="8"/>
       <c r="C428" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A429" s="8" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B429" s="8"/>
       <c r="C429" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A430" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B430" s="8"/>
       <c r="C430" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A431" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="B431" s="8"/>
-      <c r="C431" s="9" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A432" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B432" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C432" s="9" t="s">
-        <v>1036</v>
+      <c r="B432" s="8"/>
+      <c r="C432" s="8" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B433" s="8"/>
+        <v>1034</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>1035</v>
+      </c>
       <c r="C433" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" s="8" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B434" s="8" t="s">
-        <v>1039</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="B434" s="8"/>
       <c r="C434" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" s="8" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B435" s="8"/>
       <c r="C435" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B436" s="8"/>
+        <v>1038</v>
+      </c>
+      <c r="B436" s="8" t="s">
+        <v>1039</v>
+      </c>
       <c r="C436" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" s="8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B437" s="8" t="s">
-        <v>1043</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="B437" s="8"/>
       <c r="C437" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B438" s="8"/>
+        <v>1041</v>
+      </c>
+      <c r="B438" s="8" t="s">
+        <v>1042</v>
+      </c>
       <c r="C438" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C439" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B440" s="8" t="s">
-        <v>1048</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="B440" s="8"/>
       <c r="C440" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="8" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B441" s="8"/>
       <c r="C441" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="8" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B442" s="8"/>
       <c r="C442" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" s="8" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B443" s="8"/>
       <c r="C443" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B444" s="8"/>
       <c r="C444" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B445" s="8"/>
+        <v>1050</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="C445" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="8" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B447" s="8" t="s">
-        <v>1057</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="B447" s="8"/>
       <c r="C447" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="8" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B448" s="8"/>
       <c r="C448" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="8" t="s">
-        <v>1059</v>
+        <v>894</v>
       </c>
       <c r="B449" s="8"/>
       <c r="C449" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="8" t="s">
-        <v>896</v>
+        <v>1056</v>
       </c>
       <c r="B450" s="8"/>
       <c r="C450" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B451" s="8"/>
       <c r="C451" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B452" s="8"/>
       <c r="C452" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B453" s="8"/>
       <c r="C453" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" s="8" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B454" s="8"/>
       <c r="C454" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B455" s="8"/>
+        <v>1061</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1062</v>
+      </c>
       <c r="C455" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C456" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B457" s="8" t="s">
-        <v>1068</v>
-      </c>
+        <v>1065</v>
+      </c>
+      <c r="B457" s="8"/>
       <c r="C457" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" s="8" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B458" s="8"/>
       <c r="C458" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B459" s="8"/>
+        <v>1067</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1068</v>
+      </c>
       <c r="C459" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B460" s="8" t="s">
-        <v>1072</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="B460" s="8"/>
       <c r="C460" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="8" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B461" s="8"/>
       <c r="C461" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="8" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B462" s="8"/>
+        <v>1071</v>
+      </c>
+      <c r="B462" s="8" t="s">
+        <v>1072</v>
+      </c>
       <c r="C462" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="8" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B463" s="8" t="s">
-        <v>1076</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="B463" s="8"/>
       <c r="C463" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B464" s="8"/>
+        <v>1074</v>
+      </c>
+      <c r="B464" s="8" t="s">
+        <v>1075</v>
+      </c>
       <c r="C464" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B465" s="8" t="s">
-        <v>1079</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="B465" s="8"/>
       <c r="C465" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="8" t="s">
-        <v>1080</v>
+        <v>933</v>
       </c>
       <c r="B466" s="8"/>
       <c r="C466" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="8" t="s">
-        <v>935</v>
+        <v>1077</v>
       </c>
       <c r="B467" s="8"/>
       <c r="C467" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="8" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B468" s="8"/>
       <c r="C468" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B469" s="8"/>
+        <v>1079</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1080</v>
+      </c>
       <c r="C469" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B470" s="8" t="s">
-        <v>1084</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="B470" s="8"/>
       <c r="C470" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B471" s="8"/>
       <c r="C471" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" s="8" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B472" s="8"/>
       <c r="C472" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" s="8" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B473" s="8"/>
       <c r="C473" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" s="8" t="s">
-        <v>1088</v>
+        <v>946</v>
       </c>
       <c r="B474" s="8"/>
       <c r="C474" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
@@ -11211,827 +11200,828 @@
       </c>
       <c r="B475" s="8"/>
       <c r="C475" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" s="8" t="s">
-        <v>950</v>
+        <v>593</v>
       </c>
       <c r="B476" s="8"/>
       <c r="C476" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" s="8" t="s">
-        <v>594</v>
+        <v>1085</v>
       </c>
       <c r="B477" s="8"/>
       <c r="C477" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B478" s="8"/>
+        <v>1086</v>
+      </c>
+      <c r="B478" s="8" t="s">
+        <v>1087</v>
+      </c>
       <c r="C478" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" s="8" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B479" s="8" t="s">
-        <v>1091</v>
-      </c>
+        <v>1088</v>
+      </c>
+      <c r="B479" s="8"/>
       <c r="C479" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="8" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B480" s="8"/>
       <c r="C480" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" s="8" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B481" s="8"/>
       <c r="C481" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" s="8" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="B482" s="8"/>
       <c r="C482" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" s="8" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="B483" s="8"/>
       <c r="C483" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" s="8" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B484" s="8"/>
       <c r="C484" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" s="8" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B485" s="8"/>
       <c r="C485" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" s="8" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B486" s="8"/>
       <c r="C486" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B487" s="8"/>
+        <v>1096</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1097</v>
+      </c>
       <c r="C487" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" s="8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B488" s="8" t="s">
-        <v>1101</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="B488" s="8"/>
       <c r="C488" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" s="8" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B489" s="8"/>
       <c r="C489" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" s="8" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B490" s="8"/>
       <c r="C490" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" s="8" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B491" s="8"/>
+        <v>1101</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1102</v>
+      </c>
       <c r="C491" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="8" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B492" s="8" t="s">
-        <v>1106</v>
-      </c>
+        <v>1103</v>
+      </c>
+      <c r="B492" s="8"/>
       <c r="C492" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="8" t="s">
-        <v>1107</v>
+        <v>751</v>
       </c>
       <c r="B493" s="8"/>
       <c r="C493" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A494" s="8" t="s">
-        <v>753</v>
+        <v>1104</v>
       </c>
       <c r="B494" s="8"/>
       <c r="C494" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A495" s="8" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B495" s="8"/>
       <c r="C495" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A496" s="8" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B496" s="8"/>
       <c r="C496" s="8" t="s">
-        <v>1110</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A497" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B497" s="8"/>
+        <v>1107</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>1108</v>
+      </c>
       <c r="C497" s="8" t="s">
-        <v>1110</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A498" s="8" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B498" s="8" t="s">
-        <v>1113</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="B498" s="8"/>
       <c r="C498" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A499" s="8" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B499" s="8"/>
       <c r="C499" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A500" s="8" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B500" s="8"/>
       <c r="C500" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A501" s="8" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B501" s="8"/>
       <c r="C501" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A502" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B502" s="8"/>
       <c r="C502" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A503" s="8" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B503" s="8"/>
+        <v>1114</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="C503" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A504" s="8" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B504" s="8" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C504" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A505" s="8" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B505" s="8" t="s">
-        <v>1122</v>
-      </c>
+        <v>1118</v>
+      </c>
+      <c r="B505" s="8"/>
       <c r="C505" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A506" s="8" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B506" s="8"/>
+        <v>1119</v>
+      </c>
+      <c r="B506" s="8" t="s">
+        <v>1120</v>
+      </c>
       <c r="C506" s="8" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A507" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B507" s="8"/>
+      <c r="C507" s="8" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A508" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C508" s="8" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A509" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="B507" s="8" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C507" s="8" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A508" s="8" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B508" s="8"/>
-      <c r="C508" s="8" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A509" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B509" s="10" t="s">
-        <v>1193</v>
-      </c>
+      <c r="B509" s="8"/>
       <c r="C509" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A510" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B510" s="8"/>
+        <v>1125</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>1126</v>
+      </c>
       <c r="C510" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A511" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B511" s="8" t="s">
-        <v>1131</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="B511" s="8"/>
       <c r="C511" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A512" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B512" s="8"/>
       <c r="C512" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A513" s="8" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B513" s="8"/>
       <c r="C513" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A514" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="B514" s="8"/>
       <c r="C514" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A515" s="8" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B515" s="8"/>
       <c r="C515" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A516" s="8" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B516" s="8"/>
+        <v>1132</v>
+      </c>
+      <c r="B516" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="C516" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A517" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B517" s="8" t="s">
-        <v>1138</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="B517" s="8"/>
       <c r="C517" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A518" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B518" s="8"/>
+        <v>1135</v>
+      </c>
+      <c r="B518" s="8" t="s">
+        <v>1136</v>
+      </c>
       <c r="C518" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A519" s="8" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B519" s="8" t="s">
-        <v>1141</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="B519" s="8"/>
       <c r="C519" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A520" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="B520" s="8"/>
       <c r="C520" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A521" s="8" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B521" s="8"/>
       <c r="C521" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A522" s="8" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="B522" s="8"/>
       <c r="C522" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A523" s="8" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B523" s="8"/>
       <c r="C523" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A524" s="8" t="s">
-        <v>1146</v>
+        <v>559</v>
       </c>
       <c r="B524" s="8"/>
       <c r="C524" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A525" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B525" s="8"/>
+        <v>1142</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>1143</v>
+      </c>
       <c r="C525" s="8" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A526" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B526" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A527" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B527" s="8"/>
+      <c r="C527" s="9" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A528" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="B526" s="8" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C526" s="8" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A527" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B527" s="8" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C527" s="9" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A528" s="8" t="s">
-        <v>1152</v>
-      </c>
       <c r="B528" s="8"/>
-      <c r="C528" s="9" t="s">
-        <v>1127</v>
+      <c r="C528" s="8" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A529" s="8" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B529" s="8"/>
       <c r="C529" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A530" s="8" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="B530" s="8"/>
       <c r="C530" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A531" s="8" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B531" s="8"/>
+        <v>1150</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>1151</v>
+      </c>
       <c r="C531" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A532" s="8" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B532" s="8" t="s">
-        <v>1157</v>
-      </c>
+        <v>1152</v>
+      </c>
+      <c r="B532" s="8"/>
       <c r="C532" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A533" s="8" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="B533" s="8"/>
       <c r="C533" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A534" s="8" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B534" s="8"/>
       <c r="C534" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A535" s="8" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B535" s="8"/>
       <c r="C535" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A536" s="8" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B536" s="8"/>
       <c r="C536" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A537" s="8" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B537" s="8"/>
       <c r="C537" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" s="8" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="B538" s="8"/>
       <c r="C538" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" s="8" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="B539" s="8"/>
       <c r="C539" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" s="8" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B540" s="8"/>
       <c r="C540" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" s="8" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="B541" s="8"/>
       <c r="C541" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B542" s="8"/>
+        <v>1162</v>
+      </c>
+      <c r="B542" s="8" t="s">
+        <v>1163</v>
+      </c>
       <c r="C542" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B543" s="8" t="s">
-        <v>1169</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="B543" s="8"/>
       <c r="C543" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" s="8" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="B544" s="8"/>
       <c r="C544" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" s="8" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="B545" s="8"/>
       <c r="C545" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" s="8" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="B546" s="8"/>
       <c r="C546" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" s="8" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B547" s="8"/>
       <c r="C547" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" s="8" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B548" s="8"/>
       <c r="C548" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" s="8" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="B549" s="8"/>
       <c r="C549" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="8" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="B550" s="8"/>
       <c r="C550" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="8" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="B551" s="8"/>
       <c r="C551" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="8" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B552" s="8"/>
       <c r="C552" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="8" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="B553" s="8"/>
       <c r="C553" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="8" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B554" s="8"/>
+        <v>1175</v>
+      </c>
+      <c r="B554" s="8" t="s">
+        <v>1176</v>
+      </c>
       <c r="C554" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="8" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B555" s="8" t="s">
-        <v>1182</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="B555" s="8"/>
       <c r="C555" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" s="8" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B556" s="8"/>
       <c r="C556" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" s="8" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B557" s="8"/>
       <c r="C557" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" s="8" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="B558" s="8"/>
       <c r="C558" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" s="8" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="B559" s="8"/>
       <c r="C559" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" s="8" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="B560" s="8"/>
       <c r="C560" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" s="8" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B561" s="8"/>
+        <v>1183</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>1185</v>
+      </c>
       <c r="C561" s="8" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A562" s="8" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B562" s="8" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C562" s="8" t="s">
-        <v>1127</v>
+      <c r="A562" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B562" s="7"/>
+      <c r="C562" s="7" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
     </row>
@@ -12041,23 +12031,19 @@
       <c r="C564" s="8"/>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A565" s="8"/>
-      <c r="B565" s="8"/>
-      <c r="C565" s="8"/>
+      <c r="A565" s="5"/>
+      <c r="B565" s="5"/>
+      <c r="C565" s="5"/>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A566" s="5"/>
-      <c r="B566" s="5"/>
-      <c r="C566" s="5"/>
+      <c r="A566" s="7"/>
+      <c r="B566" s="7"/>
+      <c r="C566" s="7"/>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A567" s="7" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B567" s="7"/>
-      <c r="C567" s="7" t="s">
-        <v>1191</v>
-      </c>
+      <c r="A567" s="5"/>
+      <c r="B567" s="5"/>
+      <c r="C567" s="5"/>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A568" s="5"/>
@@ -12091,7 +12077,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A574" s="5"/>
-      <c r="B574" s="5"/>
+      <c r="B574" s="6"/>
       <c r="C574" s="5"/>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.15">
@@ -12109,10 +12095,10 @@
       <c r="B577" s="6"/>
       <c r="C577" s="5"/>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A578" s="5"/>
-      <c r="B578" s="6"/>
-      <c r="C578" s="5"/>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A579" s="5"/>
+      <c r="B579" s="5"/>
+      <c r="C579" s="5"/>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A580" s="5"/>
@@ -12154,13 +12140,8 @@
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A588" s="5"/>
-      <c r="B588" s="5"/>
-      <c r="C588" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C562" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
+  <autoFilter ref="A1:C561" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12171,7 +12152,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C15"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12194,117 +12175,91 @@
         <v>514</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>515</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>516</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>517</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>518</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>519</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>520</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>521</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>522</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>523</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>524</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>525</v>
-      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{8B493542-0974-E147-8C2A-337612CB1B54}"/>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45DD1E4-4AD7-0A48-BF13-35F473AC67F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189ECD1F-5947-924C-9A82-8847CB592F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,6 +1124,9 @@
     <t>Rowida</t>
   </si>
   <si>
+    <t>Rudolf von Laban</t>
+  </si>
+  <si>
     <t>http://www.wikidata.org/entity/Q213712</t>
   </si>
   <si>
@@ -3590,13 +3593,10 @@
     <t>Stadt Lausanne;Lausanner</t>
   </si>
   <si>
-    <t>Laban</t>
-  </si>
-  <si>
     <t>Schweizerischen Bund; SBTG; Schweizerische Bund für Tanz; Bund für Tanz und Gymnastik...;Schweizerische Verband für Tanz und Gymnastik</t>
   </si>
   <si>
-    <t>Rudolf von Laban,Also Laban,Rudolf Laban,Laban-Brief,Laban-Frauen,Laban-Leut;Laban-Schüler,Laban-Spektakel,Tänzerinnen,Laban-Archiv</t>
+    <t>Also Laban;Laban</t>
   </si>
 </sst>
 </file>
@@ -3905,7 +3905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3921,7 +3921,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4080,7 +4080,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -4122,7 +4122,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -4475,7 +4475,7 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
@@ -4782,7 +4782,7 @@
         <v>173</v>
       </c>
       <c r="B66" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -5000,7 +5000,7 @@
         <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>1187</v>
+        <v>365</v>
       </c>
       <c r="B139" t="s">
         <v>1189</v>
@@ -5744,10 +5744,10 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F139" t="s">
         <v>217</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
@@ -5763,110 +5763,110 @@
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E141" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E142" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F143" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="E147" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B148" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B151" t="s">
         <v>1188</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
@@ -5909,27 +5909,27 @@
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B154" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E154" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F154" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
@@ -5937,91 +5937,91 @@
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B156" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E156" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E157" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
       <c r="E158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E159" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B161" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E161" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C163" t="s">
         <v>21</v>
@@ -6037,21 +6037,21 @@
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E164" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -6059,102 +6059,102 @@
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B168" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F168" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E170" t="s">
         <v>109</v>
       </c>
       <c r="F170" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B172" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E172" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
@@ -6162,18 +6162,18 @@
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
@@ -6181,43 +6181,43 @@
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C178" t="s">
         <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
@@ -6225,21 +6225,21 @@
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
@@ -6516,7 +6516,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6527,10 +6527,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -6538,5350 +6538,5350 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B116" s="7"/>
       <c r="C116" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B161" s="7"/>
       <c r="C161" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B167" s="7"/>
       <c r="C167" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B171" s="7"/>
       <c r="C171" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B186" s="7"/>
       <c r="C186" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B194" s="7"/>
       <c r="C194" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B199" s="7"/>
       <c r="C199" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B201" s="7"/>
       <c r="C201" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B204" s="7"/>
       <c r="C204" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B206" s="7"/>
       <c r="C206" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B207" s="7"/>
       <c r="C207" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B218" s="7"/>
       <c r="C218" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B224" s="7"/>
       <c r="C224" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B231" s="7"/>
       <c r="C231" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B246" s="7"/>
       <c r="C246" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B248" s="7"/>
       <c r="C248" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B255" s="7"/>
       <c r="C255" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B258" s="7"/>
       <c r="C258" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B272" s="7"/>
       <c r="C272" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B277" s="7"/>
       <c r="C277" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B278" s="7"/>
       <c r="C278" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B286" s="7"/>
       <c r="C286" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B287" s="7"/>
       <c r="C287" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B289" s="7"/>
       <c r="C289" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B290" s="7"/>
       <c r="C290" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B292" s="7"/>
       <c r="C292" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B293" s="7"/>
       <c r="C293" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="8" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B298" s="7"/>
       <c r="C298" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B300" s="7"/>
       <c r="C300" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B302" s="7"/>
       <c r="C302" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B303" s="7"/>
       <c r="C303" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B306" s="7"/>
       <c r="C306" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B309" s="7"/>
       <c r="C309" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B310" s="7"/>
       <c r="C310" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B315" s="7"/>
       <c r="C315" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B316" s="7"/>
       <c r="C316" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B323" s="7"/>
       <c r="C323" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B325" s="7"/>
       <c r="C325" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B326" s="7"/>
       <c r="C326" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B329" s="7"/>
       <c r="C329" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B332" s="7"/>
       <c r="C332" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B333" s="7"/>
       <c r="C333" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B334" s="7"/>
       <c r="C334" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B336" s="7"/>
       <c r="C336" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B338" s="7"/>
       <c r="C338" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B345" s="7"/>
       <c r="C345" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B346" s="7"/>
       <c r="C346" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B354" s="7"/>
       <c r="C354" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B356" s="7"/>
       <c r="C356" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="7" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B363" s="7"/>
       <c r="C363" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B367" s="7"/>
       <c r="C367" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B373" s="7"/>
       <c r="C373" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B374" s="7"/>
       <c r="C374" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B376" s="7"/>
       <c r="C376" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B380" s="7"/>
       <c r="C380" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B386" s="7"/>
       <c r="C386" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B392" s="7"/>
       <c r="C392" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B393" s="7"/>
       <c r="C393" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B394" s="7"/>
       <c r="C394" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B395" s="7"/>
       <c r="C395" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C408" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B409" s="7"/>
       <c r="C409" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B417" s="7"/>
       <c r="C417" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B421" s="7"/>
       <c r="C421" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B426" s="7"/>
       <c r="C426" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B427" s="7"/>
       <c r="C427" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B428" s="7"/>
       <c r="C428" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B429" s="7"/>
       <c r="C429" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A430" s="7" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B430" s="7"/>
       <c r="C430" s="8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A431" s="7" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A432" s="7" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B432" s="7"/>
       <c r="C432" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A433" s="7" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A434" s="7" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B434" s="7"/>
       <c r="C434" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A435" s="7" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B435" s="7"/>
       <c r="C435" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A436" s="7" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A437" s="7" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B437" s="7"/>
       <c r="C437" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="7" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A439" s="7" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="7" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B440" s="7"/>
       <c r="C440" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="7" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B441" s="7"/>
       <c r="C441" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="7" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B442" s="7"/>
       <c r="C442" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A443" s="7" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B443" s="7"/>
       <c r="C443" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B444" s="7"/>
       <c r="C444" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="7" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="7" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="7" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B447" s="7"/>
       <c r="C447" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="7" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B448" s="7"/>
       <c r="C448" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="7" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B449" s="7"/>
       <c r="C449" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="7" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B450" s="7"/>
       <c r="C450" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A451" s="7" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B451" s="7"/>
       <c r="C451" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="7" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B452" s="7"/>
       <c r="C452" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A453" s="7" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B453" s="7"/>
       <c r="C453" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A454" s="7" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B454" s="7"/>
       <c r="C454" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A455" s="7" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A456" s="7" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A457" s="7" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B457" s="7"/>
       <c r="C457" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A458" s="7" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B458" s="7"/>
       <c r="C458" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A459" s="7" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A460" s="7" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B460" s="7"/>
       <c r="C460" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="7" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B461" s="7"/>
       <c r="C461" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="7" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="7" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B463" s="7"/>
       <c r="C463" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="7" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="7" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B465" s="7"/>
       <c r="C465" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B466" s="7"/>
       <c r="C466" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="7" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B467" s="7"/>
       <c r="C467" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B468" s="7"/>
       <c r="C468" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A470" s="7" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B470" s="7"/>
       <c r="C470" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A471" s="7" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B471" s="7"/>
       <c r="C471" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A472" s="7" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B472" s="7"/>
       <c r="C472" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A473" s="7" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B473" s="7"/>
       <c r="C473" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A474" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B474" s="7"/>
       <c r="C474" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A475" s="7" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B475" s="7"/>
       <c r="C475" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A476" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B476" s="7"/>
       <c r="C476" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A477" s="7" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B477" s="7"/>
       <c r="C477" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A478" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A479" s="7" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B479" s="7"/>
       <c r="C479" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="7" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B480" s="7"/>
       <c r="C480" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A481" s="7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B481" s="7"/>
       <c r="C481" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A482" s="7" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B482" s="7"/>
       <c r="C482" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A483" s="7" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B483" s="7"/>
       <c r="C483" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A484" s="7" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B484" s="7"/>
       <c r="C484" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A485" s="7" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B485" s="7"/>
       <c r="C485" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A486" s="7" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B486" s="7"/>
       <c r="C486" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A487" s="7" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A488" s="7" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B488" s="7"/>
       <c r="C488" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A489" s="7" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B489" s="7"/>
       <c r="C489" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A490" s="7" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B490" s="7"/>
       <c r="C490" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A491" s="7" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A492" s="7" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B492" s="7"/>
       <c r="C492" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A493" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B493" s="7"/>
       <c r="C493" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A494" s="7" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B494" s="7"/>
       <c r="C494" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A495" s="7" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B495" s="7"/>
       <c r="C495" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A496" s="7" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B496" s="7"/>
       <c r="C496" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A497" s="7" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A498" s="7" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B498" s="7"/>
       <c r="C498" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A499" s="7" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B499" s="7"/>
       <c r="C499" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A500" s="7" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B500" s="7"/>
       <c r="C500" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A501" s="7" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B501" s="7"/>
       <c r="C501" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A502" s="7" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B502" s="7"/>
       <c r="C502" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A503" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A504" s="7" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A505" s="7" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B505" s="7"/>
       <c r="C505" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A506" s="7" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A507" s="7" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B507" s="7"/>
       <c r="C507" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A508" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C508" s="7" t="s">
         <v>1115</v>
-      </c>
-      <c r="B508" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C508" s="7" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A509" s="7" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B509" s="7"/>
       <c r="C509" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A510" s="7" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A511" s="7" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B511" s="7"/>
       <c r="C511" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A512" s="7" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B512" s="7"/>
       <c r="C512" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A513" s="7" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B513" s="7"/>
       <c r="C513" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A514" s="7" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B514" s="7"/>
       <c r="C514" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A515" s="7" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B515" s="7"/>
       <c r="C515" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A516" s="7" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A517" s="7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B517" s="7"/>
       <c r="C517" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A518" s="7" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A519" s="7" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B519" s="7"/>
       <c r="C519" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A520" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B520" s="7"/>
       <c r="C520" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A521" s="7" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B521" s="7"/>
       <c r="C521" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A522" s="7" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B522" s="7"/>
       <c r="C522" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A523" s="7" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B523" s="7"/>
       <c r="C523" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A524" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B524" s="7"/>
       <c r="C524" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A525" s="7" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A526" s="7" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C526" s="8" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A527" s="7" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B527" s="7"/>
       <c r="C527" s="8" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A528" s="7" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B528" s="7"/>
       <c r="C528" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A529" s="7" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B529" s="7"/>
       <c r="C529" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A530" s="7" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B530" s="7"/>
       <c r="C530" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A531" s="7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A532" s="7" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B532" s="7"/>
       <c r="C532" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A533" s="7" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B533" s="7"/>
       <c r="C533" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A534" s="7" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B534" s="7"/>
       <c r="C534" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A535" s="7" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B535" s="7"/>
       <c r="C535" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A536" s="7" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B536" s="7"/>
       <c r="C536" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A537" s="7" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B537" s="7"/>
       <c r="C537" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A538" s="7" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B538" s="7"/>
       <c r="C538" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A539" s="7" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B539" s="7"/>
       <c r="C539" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A540" s="7" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B540" s="7"/>
       <c r="C540" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A541" s="7" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B541" s="7"/>
       <c r="C541" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A542" s="7" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A543" s="7" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B543" s="7"/>
       <c r="C543" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A544" s="7" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B544" s="7"/>
       <c r="C544" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A545" s="7" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B545" s="7"/>
       <c r="C545" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A546" s="7" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B546" s="7"/>
       <c r="C546" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A547" s="7" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B547" s="7"/>
       <c r="C547" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A548" s="7" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B548" s="7"/>
       <c r="C548" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A549" s="7" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B549" s="7"/>
       <c r="C549" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A550" s="7" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B550" s="7"/>
       <c r="C550" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A551" s="7" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B551" s="7"/>
       <c r="C551" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A552" s="7" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B552" s="7"/>
       <c r="C552" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A553" s="7" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B553" s="7"/>
       <c r="C553" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A554" s="7" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A555" s="7" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B555" s="7"/>
       <c r="C555" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A556" s="7" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B556" s="7"/>
       <c r="C556" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A557" s="7" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B557" s="7"/>
       <c r="C557" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A558" s="7" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B558" s="7"/>
       <c r="C558" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A559" s="7" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B559" s="7"/>
       <c r="C559" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A560" s="7" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B560" s="7"/>
       <c r="C560" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A561" s="7" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A562" s="6" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B562" s="6"/>
       <c r="C562" s="6" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.15">
@@ -12026,94 +12026,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annika/Documents/GitHub/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1A4C45-26F7-6147-9AE2-B8FA87BAFC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D88D7-C80A-DF4C-B3A2-E91CACE82FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="6380" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ignore" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$560</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$426</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entities!$A$1:$F$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ignore!$A$1:$A$2</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1085">
   <si>
     <t>variations</t>
   </si>
@@ -1418,72 +1418,18 @@
     <t>Abonnement</t>
   </si>
   <si>
-    <t>abliefern</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>Abschnitt</t>
-  </si>
-  <si>
-    <t>Abschnitte</t>
-  </si>
-  <si>
-    <t>abschreiben</t>
-  </si>
-  <si>
-    <t>abgeschrieben</t>
-  </si>
-  <si>
     <t>Anfang</t>
   </si>
   <si>
     <t>Anfänge</t>
   </si>
   <si>
-    <t>anschauen</t>
-  </si>
-  <si>
-    <t>Arbeitsbewilligung</t>
-  </si>
-  <si>
-    <t>Aufbau</t>
-  </si>
-  <si>
-    <t>Aufenthalt</t>
-  </si>
-  <si>
-    <t>Auflistung</t>
-  </si>
-  <si>
     <t>Aufwärmen</t>
   </si>
   <si>
     <t>Ausbildung</t>
   </si>
   <si>
-    <t>ausdrucken</t>
-  </si>
-  <si>
-    <t>ausgedruckt</t>
-  </si>
-  <si>
-    <t>Auslastung</t>
-  </si>
-  <si>
-    <t>Begegnung</t>
-  </si>
-  <si>
-    <t>Beitrag</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>beschreiben</t>
-  </si>
-  <si>
     <t>Choreografie</t>
   </si>
   <si>
@@ -1496,24 +1442,15 @@
     <t>Computer</t>
   </si>
   <si>
-    <t>Darstellung</t>
-  </si>
-  <si>
     <t>dekonstruieren</t>
   </si>
   <si>
-    <t>Devise</t>
-  </si>
-  <si>
     <t>digital</t>
   </si>
   <si>
     <t>digitaler</t>
   </si>
   <si>
-    <t>diskutieren</t>
-  </si>
-  <si>
     <t>disponieren</t>
   </si>
   <si>
@@ -1523,18 +1460,9 @@
     <t>distanziert</t>
   </si>
   <si>
-    <t>duzen</t>
-  </si>
-  <si>
-    <t>geduzt</t>
-  </si>
-  <si>
     <t>Einleitung</t>
   </si>
   <si>
-    <t>einstimmen</t>
-  </si>
-  <si>
     <t>Abstand halten;zurückhaltend</t>
   </si>
   <si>
@@ -1577,9 +1505,6 @@
     <t>Aha ja</t>
   </si>
   <si>
-    <t>PROC;DANC</t>
-  </si>
-  <si>
     <t>Einführung;Einführungen</t>
   </si>
   <si>
@@ -1592,18 +1517,6 @@
     <t>Entwurf</t>
   </si>
   <si>
-    <t>entziffern</t>
-  </si>
-  <si>
-    <t>Entzifferung</t>
-  </si>
-  <si>
-    <t>ergriffen</t>
-  </si>
-  <si>
-    <t>Ertüchtigung</t>
-  </si>
-  <si>
     <t>Etüden</t>
   </si>
   <si>
@@ -1622,30 +1535,18 @@
     <t>Finanzen</t>
   </si>
   <si>
-    <t>Formgebung</t>
-  </si>
-  <si>
     <t>Foto</t>
   </si>
   <si>
     <t>Freundschaft</t>
   </si>
   <si>
-    <t>gebunden</t>
-  </si>
-  <si>
-    <t>Gedächtnis</t>
-  </si>
-  <si>
     <t>Gegenlesen</t>
   </si>
   <si>
     <t>Geschichte</t>
   </si>
   <si>
-    <t>grafisch</t>
-  </si>
-  <si>
     <t>Grundschritte</t>
   </si>
   <si>
@@ -1667,9 +1568,6 @@
     <t>Honorare;Stundenlohn;Geld;Franken;Spesen</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>international</t>
   </si>
   <si>
@@ -1718,18 +1616,6 @@
     <t>fotokopieren;copy-paste</t>
   </si>
   <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>gekürzt</t>
-  </si>
-  <si>
-    <t>kritzeln</t>
-  </si>
-  <si>
-    <t>gekritzelt</t>
-  </si>
-  <si>
     <t>Lehre</t>
   </si>
   <si>
@@ -1742,18 +1628,9 @@
     <t>Manier</t>
   </si>
   <si>
-    <t>Materialsammlung</t>
-  </si>
-  <si>
-    <t>Materialsammlungen</t>
-  </si>
-  <si>
     <t>Methoden</t>
   </si>
   <si>
-    <t>Nachforschungen</t>
-  </si>
-  <si>
     <t>Notation</t>
   </si>
   <si>
@@ -1772,18 +1649,6 @@
     <t>Notizen</t>
   </si>
   <si>
-    <t>orientieren</t>
-  </si>
-  <si>
-    <t>Papier</t>
-  </si>
-  <si>
-    <t>Partitur</t>
-  </si>
-  <si>
-    <t>Platzprobleme</t>
-  </si>
-  <si>
     <t>Politik</t>
   </si>
   <si>
@@ -1808,9 +1673,6 @@
     <t>Quellenstudium</t>
   </si>
   <si>
-    <t>Rat</t>
-  </si>
-  <si>
     <t>Recherche</t>
   </si>
   <si>
@@ -1862,24 +1724,12 @@
     <t>Schule</t>
   </si>
   <si>
-    <t>Skala</t>
-  </si>
-  <si>
-    <t>Skalen</t>
-  </si>
-  <si>
-    <t>Spalte</t>
-  </si>
-  <si>
     <t>Spielplan</t>
   </si>
   <si>
     <t>Spielzeit</t>
   </si>
   <si>
-    <t>Statistik</t>
-  </si>
-  <si>
     <t>Stenografie</t>
   </si>
   <si>
@@ -1934,24 +1784,12 @@
     <t>überliefern;überliefert</t>
   </si>
   <si>
-    <t>übersetzen</t>
-  </si>
-  <si>
     <t>Übung</t>
   </si>
   <si>
     <t>üben</t>
   </si>
   <si>
-    <t>umrahmen</t>
-  </si>
-  <si>
-    <t>umrahmt</t>
-  </si>
-  <si>
-    <t>Untertitel</t>
-  </si>
-  <si>
     <t>Unterricht</t>
   </si>
   <si>
@@ -1964,9 +1802,6 @@
     <t>Vermittlung</t>
   </si>
   <si>
-    <t>Vorwissen</t>
-  </si>
-  <si>
     <t>Werk</t>
   </si>
   <si>
@@ -1985,18 +1820,9 @@
     <t>Wortschatz;Worte</t>
   </si>
   <si>
-    <t>Zeilen</t>
-  </si>
-  <si>
-    <t>Zettel</t>
-  </si>
-  <si>
     <t>Zufall</t>
   </si>
   <si>
-    <t>zurückblättern</t>
-  </si>
-  <si>
     <t>Zusammenarbeit</t>
   </si>
   <si>
@@ -2006,15 +1832,6 @@
     <t>Akzente</t>
   </si>
   <si>
-    <t>aneinanderreihen</t>
-  </si>
-  <si>
-    <t>aneinandergereiht</t>
-  </si>
-  <si>
-    <t>MOV</t>
-  </si>
-  <si>
     <t>Arabeske</t>
   </si>
   <si>
@@ -2024,18 +1841,6 @@
     <t>Armgeste</t>
   </si>
   <si>
-    <t>auseinandernehmen</t>
-  </si>
-  <si>
-    <t>auseinandergenommen</t>
-  </si>
-  <si>
-    <t>Aussen</t>
-  </si>
-  <si>
-    <t>aussen</t>
-  </si>
-  <si>
     <t>Balance</t>
   </si>
   <si>
@@ -2051,27 +1856,9 @@
     <t>beweglich;Bewegungssprache;Bewegungsmaterial;Armbewegung</t>
   </si>
   <si>
-    <t>blitzschnell</t>
-  </si>
-  <si>
     <t>da capo</t>
   </si>
   <si>
-    <t>darstellen</t>
-  </si>
-  <si>
-    <t>Diagonale</t>
-  </si>
-  <si>
-    <t>Diagonalen;diagonal</t>
-  </si>
-  <si>
-    <t>dramatisch</t>
-  </si>
-  <si>
-    <t>Dramatische</t>
-  </si>
-  <si>
     <t>Drehung</t>
   </si>
   <si>
@@ -2084,9 +1871,6 @@
     <t>Ekstasetechnik</t>
   </si>
   <si>
-    <t>endlos</t>
-  </si>
-  <si>
     <t>Energie</t>
   </si>
   <si>
@@ -2108,9 +1892,6 @@
     <t>Flow</t>
   </si>
   <si>
-    <t>Form</t>
-  </si>
-  <si>
     <t>Fouettés</t>
   </si>
   <si>
@@ -2120,9 +1901,6 @@
     <t>fragmentiert;fragementieren</t>
   </si>
   <si>
-    <t>Gehüpfe</t>
-  </si>
-  <si>
     <t>Geometrie</t>
   </si>
   <si>
@@ -2147,30 +1925,9 @@
     <t>Koordination</t>
   </si>
   <si>
-    <t>Kreis</t>
-  </si>
-  <si>
-    <t>Laufen</t>
-  </si>
-  <si>
-    <t>laufen;gelaufen</t>
-  </si>
-  <si>
-    <t>Linie</t>
-  </si>
-  <si>
-    <t>Linien</t>
-  </si>
-  <si>
-    <t>Mittelpunkt</t>
-  </si>
-  <si>
     <t>Pas de deux</t>
   </si>
   <si>
-    <t>peitschend</t>
-  </si>
-  <si>
     <t>Pirouette</t>
   </si>
   <si>
@@ -2180,48 +1937,18 @@
     <t>Präsenz</t>
   </si>
   <si>
-    <t>präzise</t>
-  </si>
-  <si>
-    <t>Punkte</t>
-  </si>
-  <si>
-    <t>Raumwege</t>
-  </si>
-  <si>
-    <t>regelmässig</t>
-  </si>
-  <si>
     <t>Rhythmus</t>
   </si>
   <si>
     <t>Rhythmen</t>
   </si>
   <si>
-    <t>schnell</t>
-  </si>
-  <si>
     <t>Schritt</t>
   </si>
   <si>
     <t>Schritte</t>
   </si>
   <si>
-    <t>schwungvoll</t>
-  </si>
-  <si>
-    <t>Schwungvolle</t>
-  </si>
-  <si>
-    <t>Sitzen</t>
-  </si>
-  <si>
-    <t>dasitzen</t>
-  </si>
-  <si>
-    <t>Sog</t>
-  </si>
-  <si>
     <t>Spannung</t>
   </si>
   <si>
@@ -2237,18 +1964,12 @@
     <t>Stabilität</t>
   </si>
   <si>
-    <t>Stehen</t>
-  </si>
-  <si>
     <t>Symmetrie</t>
   </si>
   <si>
     <t>Takt</t>
   </si>
   <si>
-    <t>technisch;technische</t>
-  </si>
-  <si>
     <t>Tempo</t>
   </si>
   <si>
@@ -2258,9 +1979,6 @@
     <t>tanzen</t>
   </si>
   <si>
-    <t>MOV;DANC</t>
-  </si>
-  <si>
     <t>Tendu</t>
   </si>
   <si>
@@ -2273,24 +1991,6 @@
     <t>ineinander übergehen</t>
   </si>
   <si>
-    <t>verwinkelt</t>
-  </si>
-  <si>
-    <t>Vorpreschen</t>
-  </si>
-  <si>
-    <t>Wippen</t>
-  </si>
-  <si>
-    <t>Zerstückelung</t>
-  </si>
-  <si>
-    <t>zerstückelt;zusammenstückeln;stückeln</t>
-  </si>
-  <si>
-    <t>Zusammenhang</t>
-  </si>
-  <si>
     <t>Arm</t>
   </si>
   <si>
@@ -2432,9 +2132,6 @@
     <t>ästhetisch</t>
   </si>
   <si>
-    <t>äusserlich</t>
-  </si>
-  <si>
     <t>akademisch</t>
   </si>
   <si>
@@ -2480,12 +2177,6 @@
     <t>Beziehungen</t>
   </si>
   <si>
-    <t>Bild</t>
-  </si>
-  <si>
-    <t>DANC;STYL</t>
-  </si>
-  <si>
     <t>Bühne</t>
   </si>
   <si>
@@ -2498,12 +2189,6 @@
     <t>Bühnentechnik</t>
   </si>
   <si>
-    <t>Cello</t>
-  </si>
-  <si>
-    <t>Celli</t>
-  </si>
-  <si>
     <t>Charakter</t>
   </si>
   <si>
@@ -2525,21 +2210,12 @@
     <t>Coach</t>
   </si>
   <si>
-    <t>DANC;PROC</t>
-  </si>
-  <si>
     <t>Corps-de-Ballet</t>
   </si>
   <si>
     <t>Danseur étoile</t>
   </si>
   <si>
-    <t>differenziert</t>
-  </si>
-  <si>
-    <t>Dinglichkeit</t>
-  </si>
-  <si>
     <t>Direktor</t>
   </si>
   <si>
@@ -2555,18 +2231,6 @@
     <t>Dramatik</t>
   </si>
   <si>
-    <t>eigen</t>
-  </si>
-  <si>
-    <t>Eigenes</t>
-  </si>
-  <si>
-    <t>eigenständig</t>
-  </si>
-  <si>
-    <t>Eigenständiges</t>
-  </si>
-  <si>
     <t>Einfluss</t>
   </si>
   <si>
@@ -2585,9 +2249,6 @@
     <t>Ensemble</t>
   </si>
   <si>
-    <t>erdig</t>
-  </si>
-  <si>
     <t>Erfülltheit</t>
   </si>
   <si>
@@ -2621,9 +2282,6 @@
     <t>Festspiele</t>
   </si>
   <si>
-    <t>DANC;BODY;MOVE</t>
-  </si>
-  <si>
     <t>Fördergelder</t>
   </si>
   <si>
@@ -2633,15 +2291,6 @@
     <t>Förderpoltik</t>
   </si>
   <si>
-    <t>Flügel</t>
-  </si>
-  <si>
-    <t>formal</t>
-  </si>
-  <si>
-    <t>Fremdes</t>
-  </si>
-  <si>
     <t>Freie Truppe</t>
   </si>
   <si>
@@ -2684,12 +2333,6 @@
     <t>Gesellschaftstanz</t>
   </si>
   <si>
-    <t>geschmückt</t>
-  </si>
-  <si>
-    <t>gestaltet</t>
-  </si>
-  <si>
     <t>Handlung</t>
   </si>
   <si>
@@ -2732,15 +2375,6 @@
     <t>Kindervorstellung</t>
   </si>
   <si>
-    <t>klassisch</t>
-  </si>
-  <si>
-    <t>klassischen</t>
-  </si>
-  <si>
-    <t>Klavier</t>
-  </si>
-  <si>
     <t>Komplexität</t>
   </si>
   <si>
@@ -2759,12 +2393,6 @@
     <t>Kunstwerk</t>
   </si>
   <si>
-    <t>Ländliches</t>
-  </si>
-  <si>
-    <t>Laienbewegungschor</t>
-  </si>
-  <si>
     <t>lebendig</t>
   </si>
   <si>
@@ -2813,12 +2441,6 @@
     <t>Natürlichkeit</t>
   </si>
   <si>
-    <t>Neoklassisch</t>
-  </si>
-  <si>
-    <t>neoklassisch</t>
-  </si>
-  <si>
     <t>Neuinszenierung</t>
   </si>
   <si>
@@ -2855,30 +2477,18 @@
     <t>platonisch</t>
   </si>
   <si>
-    <t>poppig</t>
-  </si>
-  <si>
-    <t>popartig</t>
-  </si>
-  <si>
     <t>populär</t>
   </si>
   <si>
     <t>Premiere</t>
   </si>
   <si>
-    <t>Privatsammlung</t>
-  </si>
-  <si>
     <t>Produktion</t>
   </si>
   <si>
     <t>Produktionen</t>
   </si>
   <si>
-    <t>psychologisch</t>
-  </si>
-  <si>
     <t>raffiniert</t>
   </si>
   <si>
@@ -2897,9 +2507,6 @@
     <t>Repräsentation</t>
   </si>
   <si>
-    <t>Respekt</t>
-  </si>
-  <si>
     <t>Rhythmik</t>
   </si>
   <si>
@@ -2915,15 +2522,9 @@
     <t>romantisches Ballett</t>
   </si>
   <si>
-    <t>rund</t>
-  </si>
-  <si>
     <t>Sänger</t>
   </si>
   <si>
-    <t>schön</t>
-  </si>
-  <si>
     <t>Schottische Tänze</t>
   </si>
   <si>
@@ -2936,18 +2537,12 @@
     <t>Schwere</t>
   </si>
   <si>
-    <t>selbstbestimmt</t>
-  </si>
-  <si>
     <t>Selbstverständnis</t>
   </si>
   <si>
     <t>Show</t>
   </si>
   <si>
-    <t>Sinn</t>
-  </si>
-  <si>
     <t>Solotänzer</t>
   </si>
   <si>
@@ -2966,12 +2561,6 @@
     <t>Statisterie</t>
   </si>
   <si>
-    <t>staubig</t>
-  </si>
-  <si>
-    <t>steif</t>
-  </si>
-  <si>
     <t>Stil</t>
   </si>
   <si>
@@ -2984,9 +2573,6 @@
     <t>Stimmungen</t>
   </si>
   <si>
-    <t>Struktur</t>
-  </si>
-  <si>
     <t>Szene</t>
   </si>
   <si>
@@ -3002,21 +2588,12 @@
     <t>Tanzkommission</t>
   </si>
   <si>
-    <t>Tanzpolitik</t>
-  </si>
-  <si>
     <t>Tanzwissenschaft</t>
   </si>
   <si>
-    <t>Technisches</t>
-  </si>
-  <si>
     <t>Theaterleiter</t>
   </si>
   <si>
-    <t>Theaterpolitik</t>
-  </si>
-  <si>
     <t>Theaterwissenschaft</t>
   </si>
   <si>
@@ -3044,48 +2621,21 @@
     <t>traditionell</t>
   </si>
   <si>
-    <t>Übereinstimmung</t>
-  </si>
-  <si>
-    <t>übergreifend</t>
-  </si>
-  <si>
-    <t>ungespalten</t>
-  </si>
-  <si>
     <t>unprofessionell</t>
   </si>
   <si>
     <t>Uraufführung</t>
   </si>
   <si>
-    <t>Verwaltungsrat</t>
-  </si>
-  <si>
     <t>Vorstellung</t>
   </si>
   <si>
-    <t>Wahrnehmung</t>
-  </si>
-  <si>
-    <t>Wahrnehmungsproblem</t>
-  </si>
-  <si>
     <t>Weltgeist</t>
   </si>
   <si>
-    <t>Werturteil</t>
-  </si>
-  <si>
-    <t>Wiederkäuer</t>
-  </si>
-  <si>
     <t>Zarenkunst</t>
   </si>
   <si>
-    <t>Zugänglichkeit</t>
-  </si>
-  <si>
     <t>Zeitgeist</t>
   </si>
   <si>
@@ -3164,9 +2714,6 @@
     <t>Gedichte</t>
   </si>
   <si>
-    <t>Gmälde</t>
-  </si>
-  <si>
     <t>Gymnastik</t>
   </si>
   <si>
@@ -3416,12 +2963,6 @@
     <t>Feuilleton</t>
   </si>
   <si>
-    <t>Gattung</t>
-  </si>
-  <si>
-    <t>Germanistik</t>
-  </si>
-  <si>
     <t>Interview</t>
   </si>
   <si>
@@ -3440,9 +2981,6 @@
     <t>Kulturabteilung</t>
   </si>
   <si>
-    <t>Latein</t>
-  </si>
-  <si>
     <t>Lebenslauf</t>
   </si>
   <si>
@@ -3530,18 +3068,9 @@
     <t>Vorträge</t>
   </si>
   <si>
-    <t>Vorschau</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
-    <t>Wikipedie</t>
-  </si>
-  <si>
-    <t>Wirtschaft</t>
-  </si>
-  <si>
     <t>YouTube</t>
   </si>
   <si>
@@ -3584,10 +3113,175 @@
     <t>Stadt Lausanne;Lausanner</t>
   </si>
   <si>
-    <t>Schweizerischen Bund; SBTG; Schweizerische Bund für Tanz; Bund für Tanz und Gymnastik...;Schweizerische Verband für Tanz und Gymnastik</t>
-  </si>
-  <si>
     <t>Also Laban;Laban</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>La Sylphide</t>
+  </si>
+  <si>
+    <t>Swanlake</t>
+  </si>
+  <si>
+    <t>Sacre</t>
+  </si>
+  <si>
+    <t>Corsaire</t>
+  </si>
+  <si>
+    <t>Raymonda</t>
+  </si>
+  <si>
+    <t>Otello</t>
+  </si>
+  <si>
+    <t>Samson und Dalila</t>
+  </si>
+  <si>
+    <t>La fille mal gardée</t>
+  </si>
+  <si>
+    <t>La vie en rose</t>
+  </si>
+  <si>
+    <t>Nussknacker</t>
+  </si>
+  <si>
+    <t>Sylphide-Gewand</t>
+  </si>
+  <si>
+    <t>Mozart-Klavierkonzert</t>
+  </si>
+  <si>
+    <t>Sissi</t>
+  </si>
+  <si>
+    <t>The vertiginous Thrill of Exactitude</t>
+  </si>
+  <si>
+    <t>The show must go on</t>
+  </si>
+  <si>
+    <t>Rosalia</t>
+  </si>
+  <si>
+    <t>Solveig</t>
+  </si>
+  <si>
+    <t>L'après-midi d'un faune</t>
+  </si>
+  <si>
+    <t>Short Pieces</t>
+  </si>
+  <si>
+    <t>Reich der Schatten</t>
+  </si>
+  <si>
+    <t>Pas de Six</t>
+  </si>
+  <si>
+    <t>Parzival</t>
+  </si>
+  <si>
+    <t>Matthäus-Passion</t>
+  </si>
+  <si>
+    <t>Concerto Barocco</t>
+  </si>
+  <si>
+    <t>Beethoven-Violinkonzert</t>
+  </si>
+  <si>
+    <t>Dornröschen</t>
+  </si>
+  <si>
+    <t>Grüne Tisch</t>
+  </si>
+  <si>
+    <t>Die Dame und das Einhorn</t>
+  </si>
+  <si>
+    <t>Die Schöpfung</t>
+  </si>
+  <si>
+    <t>Goldberg-Variationen</t>
+  </si>
+  <si>
+    <t>Don Quijote</t>
+  </si>
+  <si>
+    <t>Don Quichote</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Feuervogel</t>
+  </si>
+  <si>
+    <t>Jooss-Werke</t>
+  </si>
+  <si>
+    <t>Jasin</t>
+  </si>
+  <si>
+    <t>Così fan tutte</t>
+  </si>
+  <si>
+    <t>Der Schwarzen Spinne</t>
+  </si>
+  <si>
+    <t>Der schwarzen Spinne</t>
+  </si>
+  <si>
+    <t>Der sterbende Schwan</t>
+  </si>
+  <si>
+    <t>Der Verlorene Sohn</t>
+  </si>
+  <si>
+    <t>Der Nussknacker</t>
+  </si>
+  <si>
+    <t>Vivandière-Pas de Six</t>
+  </si>
+  <si>
+    <t>Sacre du Printemps</t>
+  </si>
+  <si>
+    <t>Giselle</t>
+  </si>
+  <si>
+    <t>Schwanensee"-Lektionen;Schwanensee"-Aufführung;Schwanensee</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>poppig;popartig</t>
+  </si>
+  <si>
+    <t>Neoklassisch;neoklassisch</t>
+  </si>
+  <si>
+    <t>klassisch;klassischen</t>
+  </si>
+  <si>
+    <t>Technisches;technisch;technische</t>
+  </si>
+  <si>
+    <t>dramatisch;Dramatische</t>
+  </si>
+  <si>
+    <t>DANC;JOUR</t>
+  </si>
+  <si>
+    <t>Tanzpolitik;Theaterpolitik</t>
+  </si>
+  <si>
+    <t>Schweizerischen Bund;SBTG;Schweizerische Bund für Tanz;Bund für Tanz und Gymnastik...;Schweizerische Verband für Tanz und Gymnastik</t>
   </si>
 </sst>
 </file>
@@ -3628,11 +3322,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3655,7 +3348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3673,7 +3366,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3895,8 +3591,8 @@
   <dimension ref="A1:Z182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3955,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4071,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1180</v>
+        <v>1023</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4113,7 +3809,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>1181</v>
+        <v>1024</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -4466,7 +4162,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>1182</v>
+        <v>1025</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -4773,7 +4469,7 @@
         <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>1183</v>
+        <v>1026</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -4991,7 +4687,7 @@
         <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>1184</v>
+        <v>1027</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
@@ -5729,7 +5425,7 @@
         <v>364</v>
       </c>
       <c r="B139" t="s">
-        <v>1186</v>
+        <v>1028</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -5875,8 +5571,8 @@
       <c r="A151" t="s">
         <v>391</v>
       </c>
-      <c r="B151" t="s">
-        <v>1185</v>
+      <c r="B151" s="10" t="s">
+        <v>1084</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
@@ -5903,7 +5599,7 @@
         <v>394</v>
       </c>
       <c r="B154" t="s">
-        <v>1179</v>
+        <v>1022</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -6491,11 +6187,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:C469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6522,7 +6218,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6531,7 +6227,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6549,30 +6245,26 @@
       <c r="A5" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>466</v>
-      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>468</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>461</v>
@@ -6580,25 +6272,27 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>461</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>470</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1021</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
@@ -6607,46 +6301,54 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B11" s="7"/>
+        <v>472</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="C11" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>478</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>492</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>494</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>461</v>
@@ -6654,7 +6356,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
@@ -6663,16 +6365,16 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
@@ -6681,281 +6383,283 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>486</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>516</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1178</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>461</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>516</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>493</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>512</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>502</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>499</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B32" s="8"/>
+        <v>519</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>520</v>
+      </c>
       <c r="C32" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>519</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B34" s="7"/>
+        <v>522</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>598</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>522</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>524</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>525</v>
+      </c>
       <c r="C36" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="B38" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>528</v>
+      </c>
       <c r="C38" s="7" t="s">
-        <v>461</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="B39" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>530</v>
+      </c>
       <c r="C39" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>528</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B43" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>535</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="B44" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>537</v>
+      </c>
       <c r="C44" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B45" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>539</v>
+      </c>
       <c r="C45" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="B46" s="7"/>
+        <v>541</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>542</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
@@ -6964,61 +6668,69 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="B50" s="7"/>
+        <v>546</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>547</v>
+      </c>
       <c r="C50" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B51" s="7"/>
+        <v>548</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>549</v>
+      </c>
       <c r="C51" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="B52" s="7"/>
+        <v>550</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>551</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="B53" s="7"/>
+        <v>552</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>553</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
@@ -7027,19 +6739,21 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B55" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>556</v>
+      </c>
       <c r="C55" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>545</v>
+        <v>557</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>461</v>
@@ -7047,139 +6761,137 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="B58" s="7"/>
+        <v>560</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>561</v>
+      </c>
       <c r="C58" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B59" s="7"/>
+        <v>562</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>563</v>
+      </c>
       <c r="C59" s="7" t="s">
-        <v>516</v>
+        <v>961</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>550</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="B60" s="8"/>
       <c r="C60" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>552</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>554</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B64" s="7"/>
+        <v>568</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="C64" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B67" s="7"/>
+        <v>575</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="C67" s="7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>562</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>564</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>461</v>
@@ -7187,39 +6899,41 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>568</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B72" s="7"/>
+        <v>583</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>584</v>
+      </c>
       <c r="C72" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B73" s="7"/>
+        <v>585</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>586</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>461</v>
@@ -7227,2014 +6941,1980 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>576</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>516</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>461</v>
+        <v>961</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B81" s="7"/>
+        <v>599</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>600</v>
+      </c>
       <c r="C81" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B82" s="7"/>
+        <v>601</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>602</v>
+      </c>
       <c r="C82" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>587</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="B87" s="7"/>
+        <v>607</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>608</v>
+      </c>
       <c r="C87" s="7" t="s">
-        <v>516</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>592</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>595</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>597</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>602</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>607</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>609</v>
+        <v>622</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>623</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B100" s="8"/>
+        <v>624</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>625</v>
+      </c>
       <c r="C100" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>612</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>613</v>
+        <v>506</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>614</v>
+        <v>507</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B104" s="7"/>
+        <v>627</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>628</v>
+      </c>
       <c r="C104" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>619</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>623</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>626</v>
+        <v>636</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="B113" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>639</v>
+      </c>
       <c r="C113" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>634</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="B118" s="7"/>
       <c r="C118" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>637</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>639</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="B121" s="7"/>
       <c r="C121" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>461</v>
+        <v>699</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B124" s="7"/>
+        <v>654</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>655</v>
+      </c>
       <c r="C124" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="B126" s="7"/>
+        <v>658</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>659</v>
+      </c>
       <c r="C126" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B127" s="7"/>
+        <v>660</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>661</v>
+      </c>
       <c r="C127" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>651</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B130" s="7"/>
       <c r="C130" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="B131" s="7"/>
+        <v>666</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>667</v>
+      </c>
       <c r="C131" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="B132" s="7"/>
+        <v>668</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>669</v>
+      </c>
       <c r="C132" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
-        <v>461</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>658</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="B136" s="7"/>
       <c r="C136" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>663</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="B138" s="7"/>
       <c r="C138" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>666</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="B140" s="7"/>
       <c r="C140" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>680</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>673</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="B147" s="7"/>
+        <v>686</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>687</v>
+      </c>
       <c r="C147" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>676</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="B148" s="7"/>
       <c r="C148" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>678</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="B149" s="7"/>
       <c r="C149" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>680</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="B150" s="7"/>
       <c r="C150" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B153" s="7"/>
+        <v>693</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>694</v>
+      </c>
       <c r="C153" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>691</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="B159" s="7"/>
       <c r="C159" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="B160" s="7"/>
+        <v>703</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>1020</v>
+      </c>
       <c r="C160" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="B161" s="7"/>
+        <v>704</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>705</v>
+      </c>
       <c r="C161" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>696</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>699</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="B165" s="7"/>
       <c r="C165" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B166" s="7"/>
       <c r="C166" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B167" s="7"/>
+        <v>711</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>712</v>
+      </c>
       <c r="C167" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>540</v>
+        <v>713</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>702</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="B169" s="7"/>
       <c r="C169" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B171" s="7"/>
+        <v>716</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>717</v>
+      </c>
       <c r="C171" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>710</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="B175" s="7"/>
       <c r="C175" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="B187" s="7"/>
+        <v>737</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>738</v>
+      </c>
       <c r="C187" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>725</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="B188" s="7"/>
       <c r="C188" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>727</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="B189" s="7"/>
       <c r="C189" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>729</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="B190" s="7"/>
       <c r="C190" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="B191" s="7"/>
+        <v>742</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>743</v>
+      </c>
       <c r="C191" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>738</v>
+        <v>663</v>
       </c>
       <c r="B198" s="7"/>
-      <c r="C198" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C198" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>624</v>
+        <v>751</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="B200" s="7"/>
-      <c r="C200" s="7" t="s">
-        <v>661</v>
+      <c r="C200" s="8" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B205" s="7"/>
+        <v>760</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>761</v>
+      </c>
       <c r="C205" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B206" s="7"/>
+        <v>763</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>764</v>
+      </c>
       <c r="C206" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="B207" s="7"/>
+        <v>765</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>766</v>
+      </c>
       <c r="C207" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
-        <v>750</v>
+        <v>505</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>752</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="B209" s="7"/>
       <c r="C209" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>755</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="B211" s="7"/>
       <c r="C211" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
-        <v>757</v>
+        <v>510</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>759</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="B213" s="7"/>
       <c r="C213" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>761</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="B214" s="7"/>
       <c r="C214" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>764</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B216" s="7"/>
       <c r="C216" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>769</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="B219" s="7"/>
       <c r="C219" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
-        <v>771</v>
+        <v>514</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>775</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="B224" s="7"/>
       <c r="C224" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B227" s="7"/>
-      <c r="C227" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="C227" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+      <c r="B228" s="7"/>
+      <c r="C228" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B229" s="7"/>
-      <c r="C229" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C229" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B230" s="7"/>
-      <c r="C230" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C230" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
+        <v>789</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B232" s="7"/>
-      <c r="C232" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C232" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B233" s="7"/>
-      <c r="C233" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C233" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
+        <v>793</v>
+      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B235" s="7"/>
-      <c r="C235" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C235" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B236" s="7"/>
-      <c r="C236" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C236" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B237" s="7"/>
-      <c r="C237" s="7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C237" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B238" s="7"/>
-      <c r="C238" s="7" t="s">
-        <v>756</v>
+      <c r="C238" s="8" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>794</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="B240" s="7"/>
       <c r="C240" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7" t="s">
-        <v>756</v>
+        <v>699</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="B243" s="7" t="s">
-        <v>798</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="B243" s="7"/>
       <c r="C243" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="B246" s="7"/>
+        <v>805</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>806</v>
+      </c>
       <c r="C246" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>1177</v>
+        <v>808</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>809</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="B249" s="7" t="s">
-        <v>806</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="B249" s="7"/>
       <c r="C249" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
-        <v>812</v>
+        <v>540</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>813</v>
+        <v>1083</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="B256" s="7"/>
+        <v>816</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>1077</v>
+      </c>
       <c r="C256" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="B258" s="7"/>
+        <v>818</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>819</v>
+      </c>
       <c r="C258" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7" t="s">
-        <v>818</v>
+        <v>699</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>820</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="B260" s="7"/>
       <c r="C260" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="B261" s="7"/>
+        <v>822</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>823</v>
+      </c>
       <c r="C261" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>824</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="B264" s="7" t="s">
         <v>826</v>
       </c>
+      <c r="B264" s="7"/>
       <c r="C264" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="B265" s="7" t="s">
-        <v>828</v>
-      </c>
+      <c r="B265" s="7"/>
       <c r="C265" s="7" t="s">
-        <v>818</v>
+        <v>699</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="B266" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>828</v>
+      </c>
       <c r="C266" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7" t="s">
-        <v>832</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="B272" s="7"/>
+        <v>838</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>839</v>
+      </c>
       <c r="C272" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B273" s="7"/>
       <c r="C273" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="B277" s="7"/>
+        <v>844</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>845</v>
+      </c>
       <c r="C277" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>845</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="B279" s="7"/>
       <c r="C279" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="B280" s="7"/>
+        <v>648</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>649</v>
+      </c>
       <c r="C280" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>848</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="B281" s="7"/>
       <c r="C281" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="B282" s="7" t="s">
         <v>850</v>
       </c>
+      <c r="B282" s="7"/>
       <c r="C282" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -9243,7 +8923,7 @@
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -9252,7 +8932,7 @@
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7" t="s">
-        <v>799</v>
+        <v>699</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -9261,150 +8941,152 @@
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A287" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="B286" s="7"/>
-      <c r="C286" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A287" s="7" t="s">
+      <c r="B287" s="7"/>
+      <c r="C287" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A288" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B288" s="7"/>
+      <c r="C288" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A289" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="C287" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A288" s="7" t="s">
+      <c r="B289" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="B288" s="7"/>
-      <c r="C288" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A289" s="7" t="s">
+      <c r="C289" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A290" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="B289" s="7"/>
-      <c r="C289" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A290" s="7" t="s">
+      <c r="B290" s="7"/>
+      <c r="C290" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A291" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B291" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="C290" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A291" s="7" t="s">
+      <c r="C291" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A292" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="B291" s="7"/>
-      <c r="C291" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A292" s="7" t="s">
+      <c r="B292" s="7"/>
+      <c r="C292" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A293" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A293" s="7" t="s">
+      <c r="B293" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="B293" s="7"/>
-      <c r="C293" s="7" t="s">
-        <v>799</v>
+      <c r="C293" s="8" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
-        <v>763</v>
+        <v>864</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="8" t="s">
-        <v>864</v>
+        <v>699</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="B295" s="7" t="s">
-        <v>866</v>
-      </c>
+      <c r="B295" s="7"/>
       <c r="C295" s="8" t="s">
-        <v>832</v>
+        <v>699</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B296" s="7"/>
       <c r="C296" s="8" t="s">
-        <v>832</v>
+        <v>699</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B298" s="7"/>
+      <c r="C298" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A299" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="B298" s="7"/>
-      <c r="C298" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A299" s="7" t="s">
+      <c r="B299" s="7"/>
+      <c r="C299" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A300" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B299" s="7"/>
-      <c r="C299" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A300" s="7" t="s">
+      <c r="B300" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="C300" s="8" t="s">
         <v>872</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -9413,96 +9095,100 @@
       </c>
       <c r="B301" s="7"/>
       <c r="C301" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="B302" s="7"/>
+      <c r="B302" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="C302" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="B303" s="7" t="s">
         <v>876</v>
       </c>
+      <c r="B303" s="7"/>
       <c r="C303" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B304" s="7" t="s">
-        <v>878</v>
-      </c>
+      <c r="B304" s="7"/>
       <c r="C304" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B305" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="B305" s="7"/>
       <c r="C305" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="B306" s="7" t="s">
-        <v>881</v>
-      </c>
+      <c r="B306" s="7"/>
       <c r="C306" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B307" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="B307" s="7" t="s">
-        <v>883</v>
-      </c>
       <c r="C307" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B308" s="7"/>
+        <v>722</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="C308" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="B309" s="7"/>
       <c r="C309" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="B310" s="7"/>
+      <c r="B310" s="7" t="s">
+        <v>1081</v>
+      </c>
       <c r="C310" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -9511,7 +9197,7 @@
       </c>
       <c r="B311" s="7"/>
       <c r="C311" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -9520,7 +9206,7 @@
       </c>
       <c r="B312" s="7"/>
       <c r="C312" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -9529,72 +9215,74 @@
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
-        <v>543</v>
+        <v>889</v>
       </c>
       <c r="B314" s="7"/>
       <c r="C314" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="B315" s="7"/>
+        <v>890</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>891</v>
+      </c>
       <c r="C315" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="B316" s="7"/>
+        <v>892</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>893</v>
+      </c>
       <c r="C316" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B317" s="7"/>
       <c r="C317" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
-        <v>892</v>
+        <v>762</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
-        <v>893</v>
+        <v>767</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="B320" s="7" t="s">
         <v>895</v>
       </c>
+      <c r="B320" s="7"/>
       <c r="C320" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -9603,7 +9291,7 @@
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -9612,332 +9300,346 @@
       </c>
       <c r="B322" s="7"/>
       <c r="C322" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B323" s="7"/>
+        <v>898</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>1079</v>
+      </c>
       <c r="C323" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
-        <v>899</v>
-      </c>
-      <c r="B325" s="7"/>
+        <v>900</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>901</v>
+      </c>
       <c r="C325" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="B326" s="7"/>
+        <v>902</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>903</v>
+      </c>
       <c r="C326" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>902</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="B327" s="7"/>
       <c r="C327" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="B329" s="7"/>
+        <v>906</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>907</v>
+      </c>
       <c r="C329" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B330" s="7"/>
       <c r="C330" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A331" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A332" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A333" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A334" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A335" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A336" s="7" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A331" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="B331" s="7"/>
-      <c r="C331" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A332" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="B332" s="7"/>
-      <c r="C332" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A333" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="B333" s="7"/>
-      <c r="C333" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A334" s="7" t="s">
-        <v>909</v>
-      </c>
-      <c r="B334" s="7"/>
-      <c r="C334" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A335" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="B335" s="7"/>
-      <c r="C335" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A336" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="B336" s="7"/>
-      <c r="C336" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C336" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B337" s="7"/>
-      <c r="C337" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C337" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="C338" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1078</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="B339" s="7"/>
-      <c r="C339" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>918</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B340" s="7"/>
-      <c r="C340" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C340" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B341" s="7"/>
-      <c r="C341" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C341" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B342" s="7"/>
-      <c r="C342" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C342" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B343" s="7"/>
-      <c r="C343" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C343" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
-        <v>920</v>
+        <v>810</v>
       </c>
       <c r="B344" s="7"/>
-      <c r="C344" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C344" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B345" s="7"/>
-      <c r="C345" s="8" t="s">
-        <v>799</v>
+      <c r="C345" s="7" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="B346" s="7"/>
+        <v>925</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>926</v>
+      </c>
       <c r="C346" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="B352" s="7" t="s">
-        <v>929</v>
-      </c>
+        <v>932</v>
+      </c>
+      <c r="B352" s="7"/>
       <c r="C352" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B353" s="7"/>
       <c r="C353" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
-        <v>931</v>
+        <v>829</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>932</v>
+        <v>830</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
-        <v>934</v>
+        <v>832</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>935</v>
+        <v>833</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="B357" s="7"/>
       <c r="C357" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -9946,7 +9648,7 @@
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -9955,7 +9657,7 @@
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -9964,139 +9666,141 @@
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="B361" s="7"/>
+      <c r="B361" s="7" t="s">
+        <v>941</v>
+      </c>
       <c r="C361" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
-        <v>941</v>
+        <v>570</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="B363" s="7" t="s">
-        <v>943</v>
-      </c>
+      <c r="B363" s="7"/>
       <c r="C363" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B364" s="7"/>
       <c r="C364" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="B367" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B367" s="7" t="s">
-        <v>948</v>
-      </c>
       <c r="C367" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B368" s="7"/>
       <c r="C368" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="B371" s="7" t="s">
-        <v>953</v>
-      </c>
+        <v>951</v>
+      </c>
+      <c r="B371" s="7"/>
       <c r="C371" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
-        <v>955</v>
-      </c>
-      <c r="B373" s="7"/>
+        <v>953</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>954</v>
+      </c>
       <c r="C373" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B374" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B374" s="7"/>
       <c r="C374" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -10105,1887 +9809,880 @@
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="B376" s="7"/>
+      <c r="B376" s="7" t="s">
+        <v>959</v>
+      </c>
       <c r="C376" s="7" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B377" s="7" t="s">
-        <v>959</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="B377" s="7"/>
       <c r="C377" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B378" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C378" s="7" t="s">
         <v>961</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="B380" s="7"/>
+        <v>964</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>965</v>
+      </c>
       <c r="C380" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B381" s="7"/>
       <c r="C381" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="B382" s="7" t="s">
-        <v>966</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="B382" s="7"/>
       <c r="C382" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B383" s="7"/>
       <c r="C383" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B385" s="7"/>
       <c r="C385" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="B386" s="7"/>
+        <v>971</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>972</v>
+      </c>
       <c r="C386" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
-        <v>972</v>
-      </c>
-      <c r="B388" s="7"/>
+        <v>974</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>975</v>
+      </c>
       <c r="C388" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>974</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="B389" s="7"/>
       <c r="C389" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="B392" s="7"/>
+        <v>515</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>516</v>
+      </c>
       <c r="C392" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="B393" s="7"/>
+        <v>979</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>980</v>
+      </c>
       <c r="C393" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="B394" s="7"/>
-      <c r="C394" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+        <v>981</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B395" s="7"/>
-      <c r="C395" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C395" s="8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="B396" s="8" t="s">
-        <v>982</v>
-      </c>
+        <v>984</v>
+      </c>
+      <c r="B396" s="7"/>
       <c r="C396" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="B397" s="7" t="s">
-        <v>984</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="B397" s="7"/>
       <c r="C397" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
-        <v>985</v>
-      </c>
-      <c r="B398" s="7"/>
+        <v>986</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>987</v>
+      </c>
       <c r="C398" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B399" s="7"/>
       <c r="C399" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
-        <v>741</v>
+        <v>989</v>
       </c>
       <c r="B400" s="7"/>
       <c r="C400" s="7" t="s">
-        <v>1022</v>
+        <v>961</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B401" s="7"/>
       <c r="C401" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B402" s="7"/>
       <c r="C402" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B403" s="7"/>
       <c r="C403" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7" t="s">
-        <v>799</v>
+        <v>961</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B406" s="7"/>
       <c r="C406" s="7" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="B407" s="7" t="s">
-        <v>993</v>
-      </c>
-      <c r="C407" s="8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>996</v>
+      </c>
+      <c r="B407" s="7"/>
+      <c r="C407" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B408" s="7"/>
-      <c r="C408" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C408" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="B409" s="7"/>
-      <c r="C409" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>998</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B410" s="7"/>
-      <c r="C410" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C410" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
-        <v>997</v>
-      </c>
-      <c r="B411" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="C411" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1001</v>
+      </c>
+      <c r="B411" s="7"/>
+      <c r="C411" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B412" s="7"/>
-      <c r="C412" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C412" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B413" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C413" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+      <c r="B413" s="7"/>
+      <c r="C413" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B414" s="7"/>
-      <c r="C414" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C414" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B415" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C415" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1005</v>
+      </c>
+      <c r="B415" s="7"/>
+      <c r="C415" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B416" s="7"/>
-      <c r="C416" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C416" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B417" s="7"/>
-      <c r="C417" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C417" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B418" s="7"/>
-      <c r="C418" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C418" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B419" s="7"/>
-      <c r="C419" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C419" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B420" s="7"/>
-      <c r="C420" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C420" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B421" s="7"/>
-      <c r="C421" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1011</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B422" s="7"/>
-      <c r="C422" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C422" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B423" s="7" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1076</v>
+      </c>
+      <c r="B423" s="7"/>
+      <c r="C423" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B424" s="7"/>
-      <c r="C424" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C424" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="B425" s="7"/>
-      <c r="C425" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C425" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="B426" s="7"/>
-      <c r="C426" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B426" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="B427" s="7"/>
-      <c r="C427" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B427" s="6"/>
+      <c r="C427" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B428" s="7"/>
-      <c r="C428" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1030</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B429" s="7"/>
-      <c r="C429" s="8" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A430" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B430" s="7" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>1022</v>
+        <v>1031</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C429" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A431" s="7" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B431" s="7"/>
+      <c r="A431" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B431" s="6"/>
       <c r="C431" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A432" s="7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B432" s="7" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A432" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B432" s="4"/>
       <c r="C432" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A433" s="7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B433" s="7"/>
+      <c r="A433" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B433" s="4"/>
       <c r="C433" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A434" s="7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B434" s="7"/>
+      <c r="A434" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B434" s="4"/>
       <c r="C434" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A435" s="7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B435" s="7" t="s">
+      <c r="A435" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B435" s="4"/>
+      <c r="C435" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="C435" s="7" t="s">
-        <v>1022</v>
-      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A436" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B436" s="7"/>
+      <c r="A436" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B436" s="4"/>
       <c r="C436" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A437" s="7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B437" s="7" t="s">
-        <v>1032</v>
+      <c r="A437" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>1071</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A438" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B438" s="7" t="s">
-        <v>1034</v>
-      </c>
+      <c r="A438" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B438" s="4"/>
       <c r="C438" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A439" s="7" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B439" s="7"/>
+      <c r="A439" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B439" s="5"/>
       <c r="C439" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A440" s="7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B440" s="7"/>
+      <c r="A440" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B440" s="5"/>
       <c r="C440" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A441" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B441" s="7"/>
+      <c r="A441" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B441" s="5"/>
       <c r="C441" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A442" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B442" s="7"/>
+      <c r="A442" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B442" s="5"/>
       <c r="C442" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A443" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B443" s="7"/>
+      <c r="A443" s="9" t="s">
+        <v>1046</v>
+      </c>
       <c r="C443" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A444" s="7" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B444" s="7" t="s">
-        <v>1041</v>
-      </c>
+      <c r="A444" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B444" s="4"/>
       <c r="C444" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A445" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B445" s="7" t="s">
-        <v>1043</v>
-      </c>
+      <c r="A445" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B445" s="4"/>
       <c r="C445" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A446" s="7" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B446" s="7"/>
+      <c r="A446" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B446" s="4"/>
       <c r="C446" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A447" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B447" s="7"/>
+      <c r="A447" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B447" s="4"/>
       <c r="C447" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A448" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="B448" s="7"/>
+      <c r="A448" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B448" s="4"/>
       <c r="C448" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A449" s="7" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B449" s="7"/>
+      <c r="A449" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B449" s="4"/>
       <c r="C449" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A450" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B450" s="7"/>
+      <c r="A450" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B450" s="4"/>
       <c r="C450" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A451" s="7" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B451" s="7"/>
+      <c r="A451" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B451" s="4"/>
       <c r="C451" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A452" s="7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B452" s="7"/>
+      <c r="A452" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B452" s="4"/>
       <c r="C452" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A453" s="7" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B453" s="7"/>
+      <c r="A453" s="9" t="s">
+        <v>1056</v>
+      </c>
       <c r="C453" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A454" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>1052</v>
+      <c r="A454" s="9" t="s">
+        <v>1057</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A455" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>1054</v>
+      <c r="A455" s="9" t="s">
+        <v>1058</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A456" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B456" s="7"/>
+      <c r="A456" s="9" t="s">
+        <v>1059</v>
+      </c>
       <c r="C456" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A457" s="7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B457" s="7"/>
+      <c r="A457" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>1061</v>
+      </c>
       <c r="C457" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A458" s="7" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>1058</v>
+      <c r="A458" s="9" t="s">
+        <v>1062</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A459" s="7" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B459" s="7"/>
+      <c r="A459" s="9" t="s">
+        <v>1063</v>
+      </c>
       <c r="C459" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A460" s="7" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B460" s="7"/>
+      <c r="A460" s="9" t="s">
+        <v>1064</v>
+      </c>
       <c r="C460" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A461" s="7" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>1062</v>
+      <c r="A461" s="9" t="s">
+        <v>1065</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A462" s="7" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B462" s="7"/>
+      <c r="A462" s="9" t="s">
+        <v>1066</v>
+      </c>
       <c r="C462" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A463" s="7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B463" s="7" t="s">
-        <v>1065</v>
+      <c r="A463" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>1068</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A464" s="7" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B464" s="7"/>
+      <c r="A464" s="9" t="s">
+        <v>1069</v>
+      </c>
       <c r="C464" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A465" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="B465" s="7"/>
+      <c r="A465" s="9" t="s">
+        <v>1070</v>
+      </c>
       <c r="C465" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A466" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B466" s="7"/>
+      <c r="A466" s="9" t="s">
+        <v>1072</v>
+      </c>
       <c r="C466" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A467" s="7" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B467" s="7"/>
+      <c r="A467" s="9" t="s">
+        <v>1074</v>
+      </c>
       <c r="C467" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A468" s="7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B468" s="7" t="s">
-        <v>1070</v>
+      <c r="A468" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B468" s="9" t="s">
+        <v>591</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A469" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B469" s="7"/>
+      <c r="A469" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="C469" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A470" s="7" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B470" s="7"/>
-      <c r="C470" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A471" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B471" s="7"/>
-      <c r="C471" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A472" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B472" s="7"/>
-      <c r="C472" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A473" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="B473" s="7"/>
-      <c r="C473" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A474" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="B474" s="7"/>
-      <c r="C474" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A475" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B475" s="7"/>
-      <c r="C475" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A476" s="7" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B476" s="7"/>
-      <c r="C476" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A477" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B477" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C477" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A478" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B478" s="7"/>
-      <c r="C478" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A479" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B479" s="7"/>
-      <c r="C479" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A480" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B480" s="7"/>
-      <c r="C480" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A481" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B481" s="7"/>
-      <c r="C481" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A482" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B482" s="7"/>
-      <c r="C482" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A483" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B483" s="7"/>
-      <c r="C483" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A484" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B484" s="7"/>
-      <c r="C484" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A485" s="7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B485" s="7"/>
-      <c r="C485" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A486" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B486" s="7" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C486" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A487" s="7" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B487" s="7"/>
-      <c r="C487" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A488" s="7" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B488" s="7"/>
-      <c r="C488" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A489" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B489" s="7"/>
-      <c r="C489" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A490" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B490" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C490" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A491" s="7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B491" s="7"/>
-      <c r="C491" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A492" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="B492" s="7"/>
-      <c r="C492" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A493" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B493" s="7"/>
-      <c r="C493" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A494" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B494" s="7"/>
-      <c r="C494" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A495" s="7" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B495" s="7"/>
-      <c r="C495" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A496" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B496" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C496" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A497" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B497" s="7"/>
-      <c r="C497" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A498" s="7" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B498" s="7"/>
-      <c r="C498" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A499" s="7" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B499" s="7"/>
-      <c r="C499" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A500" s="7" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B500" s="7"/>
-      <c r="C500" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A501" s="7" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B501" s="7"/>
-      <c r="C501" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A502" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B502" s="7" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C502" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A503" s="7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B503" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A504" s="7" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B504" s="7"/>
-      <c r="C504" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A505" s="7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B505" s="7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C505" s="7" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A506" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B506" s="7"/>
-      <c r="C506" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A507" s="7" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B507" s="9" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C507" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A508" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B508" s="7"/>
-      <c r="C508" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A509" s="7" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B509" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C509" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A510" s="7" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B510" s="7"/>
-      <c r="C510" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A511" s="7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B511" s="7"/>
-      <c r="C511" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A512" s="7" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B512" s="7"/>
-      <c r="C512" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A513" s="7" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B513" s="7"/>
-      <c r="C513" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A514" s="7" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B514" s="7"/>
-      <c r="C514" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A515" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B515" s="7" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C515" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A516" s="7" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B516" s="7"/>
-      <c r="C516" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A517" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B517" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C517" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A518" s="7" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B518" s="7"/>
-      <c r="C518" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A519" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B519" s="7"/>
-      <c r="C519" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A520" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B520" s="7"/>
-      <c r="C520" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A521" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B521" s="7"/>
-      <c r="C521" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A522" s="7" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B522" s="7"/>
-      <c r="C522" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A523" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B523" s="7"/>
-      <c r="C523" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A524" s="7" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B524" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A525" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B525" s="7" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C525" s="8" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A526" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B526" s="7"/>
-      <c r="C526" s="8" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A527" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B527" s="7"/>
-      <c r="C527" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A528" s="7" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B528" s="7"/>
-      <c r="C528" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A529" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B529" s="7"/>
-      <c r="C529" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A530" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B530" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A531" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B531" s="7"/>
-      <c r="C531" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A532" s="7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B532" s="7"/>
-      <c r="C532" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A533" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B533" s="7"/>
-      <c r="C533" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A534" s="7" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B534" s="7"/>
-      <c r="C534" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A535" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B535" s="7"/>
-      <c r="C535" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A536" s="7" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B536" s="7"/>
-      <c r="C536" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A537" s="7" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B537" s="7"/>
-      <c r="C537" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A538" s="7" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B538" s="7"/>
-      <c r="C538" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A539" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B539" s="7"/>
-      <c r="C539" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A540" s="7" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B540" s="7"/>
-      <c r="C540" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A541" s="7" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B541" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C541" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A542" s="7" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B542" s="7"/>
-      <c r="C542" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A543" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B543" s="7"/>
-      <c r="C543" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A544" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B544" s="7"/>
-      <c r="C544" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A545" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B545" s="7"/>
-      <c r="C545" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A546" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B546" s="7"/>
-      <c r="C546" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A547" s="7" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B547" s="7"/>
-      <c r="C547" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A548" s="7" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B548" s="7"/>
-      <c r="C548" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A549" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B549" s="7"/>
-      <c r="C549" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A550" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B550" s="7"/>
-      <c r="C550" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A551" s="7" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B551" s="7"/>
-      <c r="C551" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A552" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B552" s="7"/>
-      <c r="C552" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A553" s="7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B553" s="7" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C553" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A554" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B554" s="7"/>
-      <c r="C554" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A555" s="7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B555" s="7"/>
-      <c r="C555" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A556" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B556" s="7"/>
-      <c r="C556" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A557" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B557" s="7"/>
-      <c r="C557" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A558" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B558" s="7"/>
-      <c r="C558" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A559" s="7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B559" s="7"/>
-      <c r="C559" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A560" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B560" s="7" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C560" s="7" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A561" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B561" s="6"/>
-      <c r="C561" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A562" s="7"/>
-      <c r="B562" s="7"/>
-      <c r="C562" s="7"/>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A563" s="7"/>
-      <c r="B563" s="7"/>
-      <c r="C563" s="7"/>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A564" s="4"/>
-      <c r="B564" s="4"/>
-      <c r="C564" s="4"/>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A565" s="6"/>
-      <c r="B565" s="6"/>
-      <c r="C565" s="6"/>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A566" s="4"/>
-      <c r="B566" s="4"/>
-      <c r="C566" s="4"/>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A567" s="4"/>
-      <c r="B567" s="4"/>
-      <c r="C567" s="4"/>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A568" s="4"/>
-      <c r="B568" s="4"/>
-      <c r="C568" s="4"/>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A569" s="4"/>
-      <c r="B569" s="4"/>
-      <c r="C569" s="4"/>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A570" s="4"/>
-      <c r="B570" s="4"/>
-      <c r="C570" s="4"/>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A571" s="4"/>
-      <c r="B571" s="4"/>
-      <c r="C571" s="4"/>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A572" s="4"/>
-      <c r="B572" s="4"/>
-      <c r="C572" s="4"/>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A573" s="4"/>
-      <c r="B573" s="5"/>
-      <c r="C573" s="4"/>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A574" s="4"/>
-      <c r="B574" s="5"/>
-      <c r="C574" s="4"/>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A575" s="4"/>
-      <c r="B575" s="5"/>
-      <c r="C575" s="4"/>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A576" s="4"/>
-      <c r="B576" s="5"/>
-      <c r="C576" s="4"/>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A578" s="4"/>
-      <c r="B578" s="4"/>
-      <c r="C578" s="4"/>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A579" s="4"/>
-      <c r="B579" s="4"/>
-      <c r="C579" s="4"/>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A580" s="4"/>
-      <c r="B580" s="4"/>
-      <c r="C580" s="4"/>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A581" s="4"/>
-      <c r="B581" s="4"/>
-      <c r="C581" s="4"/>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A582" s="4"/>
-      <c r="B582" s="4"/>
-      <c r="C582" s="4"/>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A583" s="4"/>
-      <c r="B583" s="4"/>
-      <c r="C583" s="4"/>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A584" s="4"/>
-      <c r="B584" s="4"/>
-      <c r="C584" s="4"/>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A585" s="4"/>
-      <c r="B585" s="4"/>
-      <c r="C585" s="4"/>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A586" s="4"/>
-      <c r="B586" s="4"/>
-      <c r="C586" s="4"/>
+        <v>1029</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C560" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
+  <autoFilter ref="A1:C426" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12016,84 +10713,84 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annika/Documents/GitHub/pellaton-experience-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D88D7-C80A-DF4C-B3A2-E91CACE82FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F257737E-D53A-9645-AC11-1C355FC7F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="6380" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ignore" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$479</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entities!$A$1:$F$182</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ignore!$A$1:$A$2</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1161">
   <si>
     <t>variations</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Isadora Duncan</t>
   </si>
   <si>
-    <t>Duncan</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/entity/Q483512</t>
   </si>
   <si>
@@ -1271,9 +1268,6 @@
     <t>Suzanne Perrottet</t>
   </si>
   <si>
-    <t>Suzanne</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/entity/Q21087539</t>
   </si>
   <si>
@@ -1346,9 +1340,6 @@
     <t>Ursula Pellaton</t>
   </si>
   <si>
-    <t>Liebe Ursula</t>
-  </si>
-  <si>
     <t>http://www.wikidata.org/entity/Q95195773</t>
   </si>
   <si>
@@ -1589,9 +1580,6 @@
     <t>Karte</t>
   </si>
   <si>
-    <t>Freikarte;Theaterkarte;Freikarten;Billett</t>
-  </si>
-  <si>
     <t>Können</t>
   </si>
   <si>
@@ -1655,9 +1643,6 @@
     <t>Probe</t>
   </si>
   <si>
-    <t>Generalprobe;Tanzprobe;Probensaal;Probezettel</t>
-  </si>
-  <si>
     <t>Produktionsbedingungen</t>
   </si>
   <si>
@@ -2180,9 +2165,6 @@
     <t>Bühne</t>
   </si>
   <si>
-    <t>Bühnenraum</t>
-  </si>
-  <si>
     <t>Bühnenbild</t>
   </si>
   <si>
@@ -2666,9 +2648,6 @@
     <t>Ballett</t>
   </si>
   <si>
-    <t>Ballette</t>
-  </si>
-  <si>
     <t>Barock</t>
   </si>
   <si>
@@ -2681,9 +2660,6 @@
     <t>Dadaismus</t>
   </si>
   <si>
-    <t>Dada</t>
-  </si>
-  <si>
     <t>Drama</t>
   </si>
   <si>
@@ -3095,9 +3071,6 @@
     <t>PC;Aufm PC</t>
   </si>
   <si>
-    <t>Sigurd;Leeder</t>
-  </si>
-  <si>
     <t>Trix;Beatrix Gutekunst</t>
   </si>
   <si>
@@ -3113,9 +3086,6 @@
     <t>Stadt Lausanne;Lausanner</t>
   </si>
   <si>
-    <t>Also Laban;Laban</t>
-  </si>
-  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -3282,6 +3252,264 @@
   </si>
   <si>
     <t>Schweizerischen Bund;SBTG;Schweizerische Bund für Tanz;Bund für Tanz und Gymnastik...;Schweizerische Verband für Tanz und Gymnastik</t>
+  </si>
+  <si>
+    <t>Vermicelles</t>
+  </si>
+  <si>
+    <t>Tip-Ex</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>WARUM</t>
+  </si>
+  <si>
+    <t>WOLLTEN</t>
+  </si>
+  <si>
+    <t>SICHER</t>
+  </si>
+  <si>
+    <t>Toni-Areal;Toni-Areal Zürich</t>
+  </si>
+  <si>
+    <t>UNS</t>
+  </si>
+  <si>
+    <t>NUR</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>I: MICH</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Mich</t>
+  </si>
+  <si>
+    <t>Ich bin</t>
+  </si>
+  <si>
+    <t>Unv.</t>
+  </si>
+  <si>
+    <t>Mein Sohn</t>
+  </si>
+  <si>
+    <t>Mein Mann</t>
+  </si>
+  <si>
+    <t>Mein Grossvater</t>
+  </si>
+  <si>
+    <t>Danke</t>
+  </si>
+  <si>
+    <t>Übertriebenes</t>
+  </si>
+  <si>
+    <t>Währende</t>
+  </si>
+  <si>
+    <t>Vernichtendes</t>
+  </si>
+  <si>
+    <t>Liebe Ursula;Ursulas</t>
+  </si>
+  <si>
+    <t>Theaterbestuhlung</t>
+  </si>
+  <si>
+    <t>Generalprobe;Tanzprobe;Tanzproben;Probensaal;Probezettel</t>
+  </si>
+  <si>
+    <t>Tanzpreisträger</t>
+  </si>
+  <si>
+    <t>Tanzgedichte</t>
+  </si>
+  <si>
+    <t>Tanzjournalismus</t>
+  </si>
+  <si>
+    <t>Tanzfreundin</t>
+  </si>
+  <si>
+    <t>Tanzauftritte</t>
+  </si>
+  <si>
+    <t>Spitzenschuh</t>
+  </si>
+  <si>
+    <t>Soloabend</t>
+  </si>
+  <si>
+    <t>Soloabende</t>
+  </si>
+  <si>
+    <t>Shortpieces</t>
+  </si>
+  <si>
+    <t>Schulpräsentationen</t>
+  </si>
+  <si>
+    <t>Sackgeld</t>
+  </si>
+  <si>
+    <t>Rein</t>
+  </si>
+  <si>
+    <t>Suzanne;Perrottet;Perrottethinaus</t>
+  </si>
+  <si>
+    <t>Nashörner</t>
+  </si>
+  <si>
+    <t>Meine Brüder</t>
+  </si>
+  <si>
+    <t>Mein Bruder</t>
+  </si>
+  <si>
+    <t>Matt [Anm</t>
+  </si>
+  <si>
+    <t>Lies</t>
+  </si>
+  <si>
+    <t>Lieblingsdinger</t>
+  </si>
+  <si>
+    <t>Lieblicheres</t>
+  </si>
+  <si>
+    <t>Sigurd;Leeder;Leeder]-Stunde</t>
+  </si>
+  <si>
+    <t>Landbote</t>
+  </si>
+  <si>
+    <t>Landboten-Leser</t>
+  </si>
+  <si>
+    <t>L'après-midi</t>
+  </si>
+  <si>
+    <t>Kinderauftritt</t>
+  </si>
+  <si>
+    <t>Kannst Du da</t>
+  </si>
+  <si>
+    <t>Jedenfalls Ursula</t>
+  </si>
+  <si>
+    <t>Julia"</t>
+  </si>
+  <si>
+    <t>Jürg [</t>
+  </si>
+  <si>
+    <t>Duncan;Isadora</t>
+  </si>
+  <si>
+    <t>Hans Meister auf Russland</t>
+  </si>
+  <si>
+    <t>Gulda's Cellokonzert</t>
+  </si>
+  <si>
+    <t>Grossvater Kantonsbaumeister</t>
+  </si>
+  <si>
+    <t>Grossmami</t>
+  </si>
+  <si>
+    <t>Gar</t>
+  </si>
+  <si>
+    <t>GEIRRT</t>
+  </si>
+  <si>
+    <t>Faszinierend</t>
+  </si>
+  <si>
+    <t>Einzeleinlagen</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Drückst</t>
+  </si>
+  <si>
+    <t>Doppelgeigenkonze Don Juan</t>
+  </si>
+  <si>
+    <t>Danke Ursula</t>
+  </si>
+  <si>
+    <t>Dada;Dadakostüme;Dada-Kreisen</t>
+  </si>
+  <si>
+    <t>Couverts</t>
+  </si>
+  <si>
+    <t>Bühnenraum;Bühnenunfall</t>
+  </si>
+  <si>
+    <t>Buben</t>
+  </si>
+  <si>
+    <t>Brentanound von Goethe</t>
+  </si>
+  <si>
+    <t>Freikarte;Theaterkarte;Freikarten;Billett;Billetts</t>
+  </si>
+  <si>
+    <t>Belinda Wright),bei</t>
+  </si>
+  <si>
+    <t>Ballettleiter</t>
+  </si>
+  <si>
+    <t>Ballette;Ballets</t>
+  </si>
+  <si>
+    <t>Bacharbeiten</t>
+  </si>
+  <si>
+    <t>Autostop</t>
+  </si>
+  <si>
+    <t>Ausser Gotthelf</t>
+  </si>
+  <si>
+    <t>Aussenstehendes</t>
+  </si>
+  <si>
+    <t>Ausdruckstänzerin</t>
+  </si>
+  <si>
+    <t>Also Pat Neary</t>
+  </si>
+  <si>
+    <t>Laban;Kinetographie Laban</t>
+  </si>
+  <si>
+    <t>Affenkasten</t>
+  </si>
+  <si>
+    <t>Richard Merz</t>
+  </si>
+  <si>
+    <t>Merz;Richard</t>
   </si>
 </sst>
 </file>
@@ -3590,9 +3818,9 @@
   </sheetPr>
   <dimension ref="A1:Z182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3608,7 +3836,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3651,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -3767,7 +3995,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -3809,7 +4037,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -4162,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -4449,142 +4677,142 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>1129</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
         <v>169</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>170</v>
-      </c>
-      <c r="F65" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
         <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" t="s">
         <v>177</v>
-      </c>
-      <c r="B68" t="s">
-        <v>178</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" t="s">
         <v>179</v>
-      </c>
-      <c r="E68" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" t="s">
         <v>182</v>
-      </c>
-      <c r="E69" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" t="s">
         <v>185</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>186</v>
-      </c>
-      <c r="F70" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
       </c>
       <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" t="s">
         <v>193</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>194</v>
-      </c>
-      <c r="F73" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -4592,83 +4820,83 @@
     </row>
     <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
       </c>
       <c r="D75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" t="s">
         <v>198</v>
-      </c>
-      <c r="E75" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
         <v>201</v>
-      </c>
-      <c r="E76" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s">
         <v>203</v>
-      </c>
-      <c r="B77" t="s">
-        <v>204</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
         <v>205</v>
-      </c>
-      <c r="F77" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
         <v>209</v>
-      </c>
-      <c r="B79" t="s">
-        <v>210</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" t="s">
         <v>211</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>212</v>
-      </c>
-      <c r="F79" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
@@ -4676,7 +4904,7 @@
     </row>
     <row r="81" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
@@ -4684,145 +4912,145 @@
     </row>
     <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" t="s">
         <v>218</v>
-      </c>
-      <c r="E82" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
         <v>220</v>
-      </c>
-      <c r="B83" t="s">
-        <v>221</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
       </c>
       <c r="D84" t="s">
+        <v>223</v>
+      </c>
+      <c r="E84" t="s">
         <v>224</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>225</v>
-      </c>
-      <c r="F84" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
       </c>
       <c r="D85" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" t="s">
         <v>228</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>229</v>
-      </c>
-      <c r="F85" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" t="s">
         <v>232</v>
-      </c>
-      <c r="E86" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
       </c>
       <c r="D87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" t="s">
         <v>235</v>
-      </c>
-      <c r="E87" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" t="s">
         <v>238</v>
-      </c>
-      <c r="E88" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" t="s">
         <v>241</v>
-      </c>
-      <c r="E89" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" t="s">
         <v>244</v>
-      </c>
-      <c r="E90" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" t="s">
         <v>246</v>
-      </c>
-      <c r="B91" t="s">
-        <v>247</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -4830,212 +5058,212 @@
     </row>
     <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
       </c>
       <c r="D92" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" t="s">
         <v>249</v>
-      </c>
-      <c r="E92" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" t="s">
         <v>252</v>
-      </c>
-      <c r="F93" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" t="s">
         <v>254</v>
-      </c>
-      <c r="B94" t="s">
-        <v>255</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" t="s">
         <v>256</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>257</v>
-      </c>
-      <c r="F94" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
+        <v>259</v>
+      </c>
+      <c r="E95" t="s">
         <v>260</v>
-      </c>
-      <c r="E95" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
       </c>
       <c r="D96" t="s">
+        <v>262</v>
+      </c>
+      <c r="F96" t="s">
         <v>263</v>
-      </c>
-      <c r="F96" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
         <v>265</v>
-      </c>
-      <c r="B97" t="s">
-        <v>266</v>
       </c>
       <c r="C97" t="s">
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
         <v>268</v>
-      </c>
-      <c r="B98" t="s">
-        <v>269</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
       </c>
       <c r="D98" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" t="s">
         <v>270</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>271</v>
-      </c>
-      <c r="F98" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" t="s">
         <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="B100" t="s">
         <v>276</v>
-      </c>
-      <c r="B100" t="s">
-        <v>277</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" t="s">
         <v>278</v>
-      </c>
-      <c r="E100" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>283</v>
+      </c>
+      <c r="B103" t="s">
         <v>284</v>
-      </c>
-      <c r="B103" t="s">
-        <v>285</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="s">
+        <v>285</v>
+      </c>
+      <c r="F103" t="s">
         <v>286</v>
-      </c>
-      <c r="F103" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
       </c>
       <c r="D105" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" t="s">
         <v>291</v>
-      </c>
-      <c r="E105" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
@@ -5043,18 +5271,18 @@
     </row>
     <row r="107" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -5062,10 +5290,10 @@
     </row>
     <row r="109" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
+        <v>296</v>
+      </c>
+      <c r="B109" t="s">
         <v>297</v>
-      </c>
-      <c r="B109" t="s">
-        <v>298</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -5073,49 +5301,49 @@
     </row>
     <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="s">
+        <v>299</v>
+      </c>
+      <c r="E110" t="s">
         <v>300</v>
-      </c>
-      <c r="E110" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="s">
+        <v>302</v>
+      </c>
+      <c r="E111" t="s">
         <v>303</v>
-      </c>
-      <c r="E111" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
+        <v>305</v>
+      </c>
+      <c r="F112" t="s">
         <v>306</v>
-      </c>
-      <c r="F112" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -5123,35 +5351,35 @@
     </row>
     <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" t="s">
         <v>310</v>
-      </c>
-      <c r="E114" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C115" t="s">
         <v>11</v>
       </c>
       <c r="D115" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" t="s">
         <v>313</v>
-      </c>
-      <c r="E115" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C116" t="s">
         <v>20</v>
@@ -5159,7 +5387,7 @@
     </row>
     <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -5167,43 +5395,43 @@
     </row>
     <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C118" t="s">
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
       <c r="D120" t="s">
+        <v>321</v>
+      </c>
+      <c r="E120" t="s">
         <v>322</v>
-      </c>
-      <c r="E120" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -5211,7 +5439,7 @@
     </row>
     <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -5219,32 +5447,32 @@
     </row>
     <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
       <c r="D123" t="s">
+        <v>326</v>
+      </c>
+      <c r="E123" t="s">
         <v>327</v>
-      </c>
-      <c r="E123" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -5252,21 +5480,21 @@
     </row>
     <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
+        <v>332</v>
+      </c>
+      <c r="F126" t="s">
         <v>333</v>
-      </c>
-      <c r="F126" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -5274,109 +5502,109 @@
     </row>
     <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" t="s">
+        <v>336</v>
+      </c>
+      <c r="E128" t="s">
         <v>337</v>
-      </c>
-      <c r="E128" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
+        <v>338</v>
+      </c>
+      <c r="B129" t="s">
         <v>339</v>
-      </c>
-      <c r="B129" t="s">
-        <v>340</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
       </c>
       <c r="D129" t="s">
+        <v>340</v>
+      </c>
+      <c r="E129" t="s">
         <v>341</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>342</v>
-      </c>
-      <c r="F129" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
+        <v>344</v>
+      </c>
+      <c r="E130" t="s">
         <v>345</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>346</v>
-      </c>
-      <c r="F130" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
       </c>
       <c r="D131" t="s">
+        <v>348</v>
+      </c>
+      <c r="E131" t="s">
         <v>349</v>
-      </c>
-      <c r="E131" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
+        <v>351</v>
+      </c>
+      <c r="E132" t="s">
         <v>352</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>353</v>
-      </c>
-      <c r="F132" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
+        <v>351</v>
+      </c>
+      <c r="E133" t="s">
         <v>352</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>353</v>
-      </c>
-      <c r="F133" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
+        <v>355</v>
+      </c>
+      <c r="B134" t="s">
         <v>356</v>
-      </c>
-      <c r="B134" t="s">
-        <v>357</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -5384,7 +5612,7 @@
     </row>
     <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -5392,7 +5620,7 @@
     </row>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -5400,21 +5628,21 @@
     </row>
     <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
+        <v>360</v>
+      </c>
+      <c r="E137" t="s">
         <v>361</v>
-      </c>
-      <c r="E137" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -5422,27 +5650,27 @@
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B139" t="s">
-        <v>1028</v>
+        <v>1157</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
+        <v>364</v>
+      </c>
+      <c r="E139" t="s">
         <v>365</v>
       </c>
-      <c r="E139" t="s">
-        <v>366</v>
-      </c>
       <c r="F139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -5450,110 +5678,110 @@
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141" t="s">
+        <v>368</v>
+      </c>
+      <c r="E141" t="s">
         <v>369</v>
-      </c>
-      <c r="E141" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
+        <v>371</v>
+      </c>
+      <c r="E142" t="s">
         <v>372</v>
-      </c>
-      <c r="E142" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143" t="s">
+        <v>374</v>
+      </c>
+      <c r="F143" t="s">
         <v>375</v>
-      </c>
-      <c r="F143" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C144" t="s">
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
+        <v>384</v>
+      </c>
+      <c r="B148" t="s">
         <v>385</v>
-      </c>
-      <c r="B148" t="s">
-        <v>386</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="s">
         <v>388</v>
-      </c>
-      <c r="B149" t="s">
-        <v>389</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -5561,7 +5789,7 @@
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -5569,10 +5797,10 @@
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="C151" t="s">
         <v>20</v>
@@ -5580,7 +5808,7 @@
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C152" t="s">
         <v>20</v>
@@ -5588,7 +5816,7 @@
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -5596,27 +5824,27 @@
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B154" t="s">
-        <v>1022</v>
+        <v>1120</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
       <c r="D154" t="s">
+        <v>394</v>
+      </c>
+      <c r="E154" t="s">
         <v>395</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>396</v>
-      </c>
-      <c r="F154" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C155" t="s">
         <v>20</v>
@@ -5624,91 +5852,91 @@
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" t="s">
         <v>399</v>
-      </c>
-      <c r="B156" t="s">
-        <v>400</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
+        <v>400</v>
+      </c>
+      <c r="E156" t="s">
         <v>401</v>
-      </c>
-      <c r="E156" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157" t="s">
+        <v>403</v>
+      </c>
+      <c r="E157" t="s">
         <v>404</v>
-      </c>
-      <c r="E157" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
       </c>
       <c r="D159" t="s">
+        <v>408</v>
+      </c>
+      <c r="E159" t="s">
         <v>409</v>
-      </c>
-      <c r="E159" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>413</v>
-      </c>
-      <c r="B161" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1112</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E161" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -5716,7 +5944,7 @@
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C163" t="s">
         <v>20</v>
@@ -5724,21 +5952,21 @@
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E164" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
@@ -5746,102 +5974,100 @@
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C166" t="s">
         <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+      <c r="A168" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
         <v>427</v>
       </c>
-      <c r="B168" t="s">
+      <c r="F168" t="s">
         <v>428</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s">
-        <v>429</v>
-      </c>
-      <c r="F168" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
       </c>
       <c r="D169" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E170" t="s">
         <v>108</v>
       </c>
       <c r="F170" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C171" t="s">
         <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s">
-        <v>439</v>
+        <v>1097</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E172" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C173" t="s">
         <v>11</v>
@@ -5849,18 +6075,18 @@
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
       </c>
       <c r="D174" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
@@ -5868,43 +6094,43 @@
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C177" t="s">
         <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E177" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C178" t="s">
         <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C179" t="s">
         <v>11</v>
@@ -5912,21 +6138,21 @@
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E180" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
@@ -6187,23 +6413,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C469"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
+    <sheetView zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C480" sqref="C480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6214,4486 +6440,4604 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>520</v>
+        <v>1147</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>542</v>
+        <v>1099</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B60" s="8"/>
+        <v>559</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1109</v>
+      </c>
       <c r="C60" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B105" s="7"/>
       <c r="C105" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B106" s="7"/>
       <c r="C106" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B115" s="7"/>
       <c r="C115" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B117" s="7"/>
       <c r="C117" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B118" s="7"/>
       <c r="C118" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B119" s="7"/>
       <c r="C119" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B120" s="7"/>
       <c r="C120" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B121" s="7"/>
       <c r="C121" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B130" s="7"/>
       <c r="C130" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B138" s="7"/>
       <c r="C138" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A141" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B157" s="7"/>
       <c r="C157" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B158" s="7"/>
       <c r="C158" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B163" s="7"/>
       <c r="C163" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B164" s="7"/>
       <c r="C164" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="B166" s="7"/>
+        <v>705</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1149</v>
+      </c>
       <c r="C166" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B168" s="7"/>
       <c r="C168" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B170" s="7"/>
       <c r="C170" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>717</v>
+        <v>1144</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B172" s="7"/>
       <c r="C172" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B173" s="7"/>
       <c r="C173" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B175" s="7"/>
       <c r="C175" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B185" s="7"/>
       <c r="C185" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B188" s="7"/>
       <c r="C188" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B189" s="7"/>
       <c r="C189" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B190" s="7"/>
       <c r="C190" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B192" s="7"/>
       <c r="C192" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B193" s="7"/>
       <c r="C193" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B195" s="7"/>
       <c r="C195" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B196" s="7"/>
       <c r="C196" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B197" s="7"/>
       <c r="C197" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B198" s="7"/>
       <c r="C198" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A201" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A202" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B202" s="7"/>
       <c r="C202" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A203" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B203" s="7"/>
       <c r="C203" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A204" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A205" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A206" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A207" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A208" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B208" s="7"/>
       <c r="C208" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A209" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B209" s="7"/>
       <c r="C209" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A210" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B210" s="7"/>
       <c r="C210" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A211" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B211" s="7"/>
       <c r="C211" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A212" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B212" s="7"/>
       <c r="C212" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A213" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B213" s="7"/>
       <c r="C213" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A214" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B214" s="7"/>
       <c r="C214" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B215" s="7"/>
       <c r="C215" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" s="7" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B216" s="7"/>
       <c r="C216" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B217" s="7"/>
       <c r="C217" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B219" s="7"/>
       <c r="C219" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B220" s="7"/>
       <c r="C220" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B221" s="7"/>
       <c r="C221" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B222" s="7"/>
       <c r="C222" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B223" s="7"/>
       <c r="C223" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="B224" s="7"/>
+        <v>775</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>1124</v>
+      </c>
       <c r="C224" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" s="7" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B226" s="7"/>
       <c r="C226" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B227" s="7"/>
       <c r="C227" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B229" s="7"/>
       <c r="C229" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B230" s="7"/>
       <c r="C230" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B232" s="7"/>
       <c r="C232" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B233" s="7"/>
       <c r="C233" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B234" s="7"/>
       <c r="C234" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B235" s="7"/>
       <c r="C235" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="7" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B236" s="7"/>
       <c r="C236" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="7" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B237" s="7"/>
       <c r="C237" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="7" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B238" s="7"/>
       <c r="C238" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" s="7" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B239" s="7"/>
       <c r="C239" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B240" s="7"/>
       <c r="C240" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B241" s="7"/>
       <c r="C241" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B242" s="7"/>
       <c r="C242" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B243" s="7"/>
       <c r="C243" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B244" s="7"/>
       <c r="C244" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B245" s="7"/>
       <c r="C245" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B247" s="7"/>
       <c r="C247" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B249" s="7"/>
       <c r="C249" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" s="7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B251" s="7"/>
       <c r="C251" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B252" s="7"/>
       <c r="C252" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B253" s="7"/>
       <c r="C253" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B254" s="7"/>
       <c r="C254" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B257" s="7"/>
       <c r="C257" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B259" s="7"/>
       <c r="C259" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B260" s="7"/>
       <c r="C260" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B262" s="7"/>
       <c r="C262" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B263" s="7"/>
       <c r="C263" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B264" s="7"/>
       <c r="C264" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B265" s="7"/>
       <c r="C265" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B267" s="7"/>
       <c r="C267" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B268" s="7"/>
       <c r="C268" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" s="7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B269" s="7"/>
       <c r="C269" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" s="7" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" s="7" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B271" s="7"/>
       <c r="C271" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" s="7" t="s">
-        <v>838</v>
+        <v>1106</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>839</v>
+        <v>1107</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="B273" s="7"/>
+        <v>832</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>833</v>
+      </c>
       <c r="C273" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" s="7" t="s">
-        <v>842</v>
+        <v>1105</v>
       </c>
       <c r="B275" s="7"/>
       <c r="C275" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" s="7" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="B276" s="7"/>
       <c r="C276" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>845</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="B277" s="7"/>
       <c r="C277" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>847</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="B278" s="7"/>
       <c r="C278" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A279" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="B279" s="7"/>
+        <v>838</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>839</v>
+      </c>
       <c r="C279" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" s="7" t="s">
-        <v>648</v>
+        <v>840</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>649</v>
+        <v>841</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" s="7" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B281" s="7"/>
       <c r="C281" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="B282" s="7"/>
+        <v>643</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>644</v>
+      </c>
       <c r="C282" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="B283" s="7"/>
       <c r="C283" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" s="7" t="s">
-        <v>852</v>
+        <v>1104</v>
       </c>
       <c r="B284" s="7"/>
       <c r="C284" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" s="7" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B286" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>845</v>
+      </c>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" s="7" t="s">
-        <v>854</v>
+        <v>1103</v>
       </c>
       <c r="B287" s="7"/>
-      <c r="C287" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C287" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" s="7" t="s">
-        <v>855</v>
+        <v>1101</v>
       </c>
       <c r="B288" s="7"/>
-      <c r="C288" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C288" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1102</v>
+      </c>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" s="7" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B290" s="7"/>
-      <c r="C290" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="C290" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1100</v>
+      </c>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" s="7" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="B292" s="7"/>
-      <c r="C292" s="8" t="s">
-        <v>699</v>
+      <c r="C292" s="7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A293" s="7" t="s">
-        <v>862</v>
+        <v>569</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>863</v>
+        <v>1070</v>
       </c>
       <c r="C293" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A294" s="7" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B294" s="7"/>
       <c r="C294" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="7" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B295" s="7"/>
       <c r="C295" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="B296" s="7"/>
+        <v>850</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>851</v>
+      </c>
       <c r="C296" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="7" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="B297" s="7"/>
       <c r="C297" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="B298" s="7"/>
+        <v>853</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>854</v>
+      </c>
       <c r="C298" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A299" s="7" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="B299" s="7"/>
       <c r="C299" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A300" s="7" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A301" s="7" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="B301" s="7"/>
-      <c r="C301" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C301" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A302" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+      <c r="B302" s="7"/>
+      <c r="C302" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A303" s="7" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="B303" s="7"/>
-      <c r="C303" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C303" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A304" s="7" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="B304" s="7"/>
-      <c r="C304" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C304" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="B305" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
+        <v>862</v>
+      </c>
+      <c r="B305" s="7"/>
+      <c r="C305" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A306" s="7" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="B306" s="7"/>
-      <c r="C306" s="7" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C306" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A307" s="7" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>872</v>
+        <v>865</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="B308" s="7" t="s">
-        <v>723</v>
-      </c>
+        <v>867</v>
+      </c>
+      <c r="B308" s="7"/>
       <c r="C308" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" s="7" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" s="7" t="s">
-        <v>885</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>1081</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="B310" s="7"/>
       <c r="C310" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="B311" s="7"/>
+        <v>871</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>1155</v>
+      </c>
       <c r="C311" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="B312" s="7"/>
+        <v>872</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>1150</v>
+      </c>
       <c r="C312" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" s="7" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="B313" s="7"/>
       <c r="C313" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="B314" s="7"/>
+        <v>874</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="C314" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" s="7" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>891</v>
+        <v>717</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" s="7" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>893</v>
+        <v>1142</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="B317" s="7"/>
+        <v>877</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>1071</v>
+      </c>
       <c r="C317" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" s="7" t="s">
-        <v>762</v>
+        <v>878</v>
       </c>
       <c r="B318" s="7"/>
       <c r="C318" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" s="7" t="s">
-        <v>767</v>
+        <v>879</v>
       </c>
       <c r="B319" s="7"/>
       <c r="C319" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" s="7" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="B320" s="7"/>
       <c r="C320" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" s="7" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="B321" s="7"/>
       <c r="C321" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="B322" s="7"/>
+        <v>882</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>883</v>
+      </c>
       <c r="C322" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" s="7" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>1079</v>
+        <v>885</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" s="7" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="B324" s="7"/>
       <c r="C324" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>901</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="B325" s="7"/>
       <c r="C325" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>903</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="B326" s="7"/>
       <c r="C326" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" s="7" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="B327" s="7"/>
       <c r="C327" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" s="7" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="B328" s="7"/>
       <c r="C328" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" s="7" t="s">
-        <v>906</v>
-      </c>
-      <c r="B329" s="7" t="s">
-        <v>907</v>
-      </c>
+        <v>889</v>
+      </c>
+      <c r="B329" s="7"/>
       <c r="C329" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="B330" s="7"/>
+        <v>890</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>1069</v>
+      </c>
       <c r="C330" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" s="7" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="B331" s="7"/>
       <c r="C331" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" s="7" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" s="7" t="s">
-        <v>912</v>
-      </c>
-      <c r="B333" s="7"/>
+        <v>894</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>895</v>
+      </c>
       <c r="C333" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" s="7" t="s">
-        <v>913</v>
-      </c>
-      <c r="B334" s="7" t="s">
-        <v>914</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="B334" s="7"/>
       <c r="C334" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" s="7" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="B335" s="7"/>
       <c r="C335" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="B336" s="7"/>
+        <v>898</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>899</v>
+      </c>
       <c r="C336" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" s="7" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="B337" s="7"/>
       <c r="C337" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="B338" s="7" t="s">
-        <v>1078</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="B338" s="7"/>
       <c r="C338" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" s="7" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" s="7" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="B340" s="7"/>
       <c r="C340" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" s="7" t="s">
-        <v>921</v>
-      </c>
-      <c r="B341" s="7"/>
+        <v>905</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>906</v>
+      </c>
       <c r="C341" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" s="7" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" s="7" t="s">
-        <v>923</v>
+        <v>793</v>
       </c>
       <c r="B343" s="7"/>
       <c r="C343" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" s="7" t="s">
-        <v>810</v>
+        <v>908</v>
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="B345" s="7"/>
+        <v>909</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>1068</v>
+      </c>
       <c r="C345" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" s="7" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" s="7" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="B347" s="7"/>
       <c r="C347" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" s="7" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="B348" s="7"/>
       <c r="C348" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" s="7" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="B349" s="7"/>
       <c r="C349" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" s="7" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" s="7" t="s">
-        <v>931</v>
+        <v>804</v>
       </c>
       <c r="B351" s="7"/>
       <c r="C351" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" s="7" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="B353" s="7"/>
+        <v>917</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>918</v>
+      </c>
       <c r="C353" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="B354" s="7" t="s">
-        <v>830</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="B354" s="7"/>
       <c r="C354" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" s="7" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B355" s="7"/>
       <c r="C355" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="B356" s="7" t="s">
-        <v>833</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="B356" s="7"/>
       <c r="C356" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="B357" s="7" t="s">
-        <v>936</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="B357" s="7"/>
       <c r="C357" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" s="7" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B358" s="7"/>
       <c r="C358" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" s="7" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
       <c r="B359" s="7"/>
       <c r="C359" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" s="7" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B360" s="7"/>
       <c r="C360" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" s="7" t="s">
-        <v>940</v>
+        <v>823</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>941</v>
+        <v>824</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" s="7" t="s">
-        <v>570</v>
+        <v>926</v>
       </c>
       <c r="B362" s="7"/>
       <c r="C362" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" s="7" t="s">
-        <v>942</v>
-      </c>
-      <c r="B363" s="7"/>
+        <v>826</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>827</v>
+      </c>
       <c r="C363" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="B364" s="7"/>
+        <v>927</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="C364" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" s="7" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="B365" s="7"/>
       <c r="C365" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" s="7" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="B366" s="7"/>
       <c r="C366" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>947</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="B367" s="7"/>
       <c r="C367" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" s="7" t="s">
-        <v>948</v>
-      </c>
-      <c r="B368" s="7"/>
+        <v>932</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>933</v>
+      </c>
       <c r="C368" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" s="7" t="s">
-        <v>949</v>
+        <v>565</v>
       </c>
       <c r="B369" s="7"/>
       <c r="C369" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" s="7" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="B370" s="7"/>
       <c r="C370" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" s="7" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="B371" s="7"/>
       <c r="C371" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" s="7" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="B372" s="7"/>
       <c r="C372" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="B373" s="7" t="s">
-        <v>954</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="B373" s="7"/>
       <c r="C373" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" s="7" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" s="7" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="B375" s="7"/>
       <c r="C375" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="B376" s="7" t="s">
-        <v>959</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="B376" s="7"/>
       <c r="C376" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" s="7" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="B377" s="7"/>
       <c r="C377" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="B378" s="7" t="s">
-        <v>1019</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="B378" s="7"/>
       <c r="C378" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" s="7" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="B379" s="7"/>
       <c r="C379" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" s="7" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" s="7" t="s">
-        <v>966</v>
-      </c>
-      <c r="B381" s="7"/>
+        <v>947</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>948</v>
+      </c>
       <c r="C381" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" s="7" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="B382" s="7"/>
       <c r="C382" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A383" s="7" t="s">
-        <v>968</v>
-      </c>
-      <c r="B383" s="7"/>
+        <v>950</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>951</v>
+      </c>
       <c r="C383" s="7" t="s">
-        <v>961</v>
+        <v>866</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A384" s="7" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="B384" s="7"/>
       <c r="C384" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A385" s="7" t="s">
-        <v>970</v>
-      </c>
-      <c r="B385" s="7"/>
+        <v>954</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C385" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A386" s="7" t="s">
-        <v>971</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>972</v>
-      </c>
+        <v>955</v>
+      </c>
+      <c r="B386" s="7"/>
       <c r="C386" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A387" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="B387" s="7"/>
+        <v>956</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>957</v>
+      </c>
       <c r="C387" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A388" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="B388" s="7" t="s">
-        <v>975</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="B388" s="7"/>
       <c r="C388" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A389" s="7" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="B389" s="7"/>
       <c r="C389" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A390" s="7" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A391" s="7" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="B391" s="7"/>
       <c r="C391" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A392" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B392" s="7" t="s">
-        <v>516</v>
-      </c>
+        <v>962</v>
+      </c>
+      <c r="B392" s="7"/>
       <c r="C392" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A393" s="7" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A394" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="B394" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>965</v>
+      </c>
+      <c r="B394" s="7"/>
+      <c r="C394" s="7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A395" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="B395" s="7"/>
-      <c r="C395" s="8" t="s">
-        <v>961</v>
+        <v>966</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A396" s="7" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A397" s="7" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="B397" s="7"/>
       <c r="C397" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A398" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="B398" s="7" t="s">
-        <v>987</v>
-      </c>
+        <v>970</v>
+      </c>
+      <c r="B398" s="7"/>
       <c r="C398" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A399" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="B399" s="7"/>
+        <v>512</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>513</v>
+      </c>
       <c r="C399" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A400" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="B400" s="7"/>
+        <v>971</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>972</v>
+      </c>
       <c r="C400" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A401" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="B401" s="7"/>
-      <c r="C401" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A402" s="7" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="B402" s="7"/>
-      <c r="C402" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C402" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A403" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="B403" s="7"/>
-      <c r="C403" s="7" t="s">
-        <v>961</v>
+        <v>1121</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A404" s="7" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="B404" s="7"/>
       <c r="C404" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A405" s="7" t="s">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="B405" s="7"/>
       <c r="C405" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A406" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="B406" s="7"/>
+        <v>978</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>979</v>
+      </c>
       <c r="C406" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A407" s="7" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A408" s="7" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="B408" s="7"/>
       <c r="C408" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A409" s="7" t="s">
-        <v>998</v>
-      </c>
-      <c r="B409" s="7" t="s">
-        <v>999</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="B409" s="7"/>
       <c r="C409" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A410" s="7" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="B410" s="7"/>
       <c r="C410" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A411" s="7" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="B411" s="7"/>
       <c r="C411" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A412" s="7" t="s">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="B412" s="7"/>
       <c r="C412" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A413" s="7" t="s">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="B413" s="7"/>
       <c r="C413" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A414" s="7" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="B414" s="7"/>
       <c r="C414" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A415" s="7" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="B415" s="7"/>
       <c r="C415" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A416" s="7" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="B416" s="7"/>
       <c r="C416" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A417" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B417" s="7"/>
+        <v>990</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>991</v>
+      </c>
       <c r="C417" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A418" s="7" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="B418" s="7"/>
       <c r="C418" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A419" s="7" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="B419" s="7"/>
       <c r="C419" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A420" s="7" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="B420" s="7"/>
       <c r="C420" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A421" s="7" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B421" s="7" t="s">
-        <v>1012</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="B421" s="7"/>
       <c r="C421" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A422" s="7" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="B422" s="7"/>
       <c r="C422" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A423" s="7" t="s">
-        <v>1076</v>
+        <v>997</v>
       </c>
       <c r="B423" s="7"/>
       <c r="C423" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A424" s="7" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="B424" s="7"/>
       <c r="C424" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A425" s="7" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="B425" s="7"/>
       <c r="C425" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A426" s="7" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B426" s="7" t="s">
-        <v>1018</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="B426" s="7"/>
       <c r="C426" s="7" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A427" s="7" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B427" s="6"/>
+        <v>1001</v>
+      </c>
+      <c r="B427" s="7"/>
       <c r="C427" s="7" t="s">
-        <v>699</v>
+        <v>953</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A428" s="7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B428" s="7" t="s">
-        <v>1040</v>
-      </c>
+        <v>1002</v>
+      </c>
+      <c r="B428" s="7"/>
       <c r="C428" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A429" s="7" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>1075</v>
+        <v>1004</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A430" s="4" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B430" s="4" t="s">
-        <v>1032</v>
-      </c>
+      <c r="A430" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B430" s="7"/>
       <c r="C430" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A431" s="9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B431" s="6"/>
+      <c r="A431" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B431" s="7"/>
       <c r="C431" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A432" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B432" s="4"/>
+      <c r="A432" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B432" s="7"/>
       <c r="C432" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A433" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B433" s="4"/>
+      <c r="A433" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B433" s="7"/>
       <c r="C433" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A434" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B434" s="4"/>
+      <c r="A434" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>1010</v>
+      </c>
       <c r="C434" s="7" t="s">
-        <v>1029</v>
+        <v>953</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A435" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B435" s="4"/>
+      <c r="A435" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B435" s="6"/>
       <c r="C435" s="7" t="s">
-        <v>1029</v>
+        <v>694</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A436" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B436" s="4"/>
+      <c r="A436" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>1030</v>
+      </c>
       <c r="C436" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A437" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>1071</v>
+      <c r="A437" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>1065</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A438" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B438" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>1022</v>
+      </c>
       <c r="C438" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A439" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B439" s="5"/>
+      <c r="A439" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B439" s="6"/>
       <c r="C439" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A440" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B440" s="5"/>
+        <v>1024</v>
+      </c>
+      <c r="B440" s="4"/>
       <c r="C440" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A441" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B441" s="5"/>
+        <v>1025</v>
+      </c>
+      <c r="B441" s="4"/>
       <c r="C441" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A442" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B442" s="5"/>
+        <v>1026</v>
+      </c>
+      <c r="B442" s="4"/>
       <c r="C442" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A443" s="9" t="s">
-        <v>1046</v>
-      </c>
+      <c r="A443" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B443" s="4"/>
       <c r="C443" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A444" s="4" t="s">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="B444" s="4"/>
       <c r="C444" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A445" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B445" s="4"/>
+        <v>1029</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>1061</v>
+      </c>
       <c r="C445" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A446" s="4" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="B446" s="4"/>
       <c r="C446" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A447" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B447" s="4"/>
+        <v>1032</v>
+      </c>
+      <c r="B447" s="5"/>
       <c r="C447" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A448" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B448" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="B448" s="5"/>
       <c r="C448" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A449" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B449" s="4"/>
+        <v>1034</v>
+      </c>
+      <c r="B449" s="5"/>
       <c r="C449" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A450" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B450" s="4"/>
+        <v>1035</v>
+      </c>
+      <c r="B450" s="5"/>
       <c r="C450" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A451" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B451" s="4"/>
+      <c r="A451" s="9" t="s">
+        <v>1036</v>
+      </c>
       <c r="C451" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A452" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B452" s="4"/>
+        <v>1037</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>1123</v>
+      </c>
       <c r="C452" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A453" s="9" t="s">
-        <v>1056</v>
+      <c r="A453" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>1108</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A454" s="9" t="s">
-        <v>1057</v>
-      </c>
+      <c r="A454" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B454" s="4"/>
       <c r="C454" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A455" s="9" t="s">
-        <v>1058</v>
-      </c>
+      <c r="A455" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B455" s="4"/>
       <c r="C455" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A456" s="9" t="s">
-        <v>1059</v>
-      </c>
+      <c r="A456" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B456" s="4"/>
       <c r="C456" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A457" s="9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B457" s="9" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A457" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B457" s="4"/>
       <c r="C457" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A458" s="9" t="s">
-        <v>1062</v>
-      </c>
+      <c r="A458" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B458" s="4"/>
       <c r="C458" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A459" s="9" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A459" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B459" s="4"/>
       <c r="C459" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A460" s="9" t="s">
-        <v>1064</v>
-      </c>
+      <c r="A460" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B460" s="4"/>
       <c r="C460" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A461" s="9" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A462" s="9" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A463" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B463" s="9" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A464" s="9" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A465" s="9" t="s">
-        <v>1070</v>
+        <v>1050</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>1051</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A466" s="9" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A467" s="9" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A468" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="B468" s="9" t="s">
-        <v>591</v>
+        <v>1054</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A469" s="9" t="s">
-        <v>577</v>
+        <v>1055</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1029</v>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B471" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A474" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A475" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A476" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B476" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A477" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C477" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A478" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A479" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A480" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C426" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
+  <autoFilter ref="A1:C479" xr:uid="{84520EBE-AB57-6F41-95BA-B108393683E4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBF373-464C-4049-B3A6-00F049E0D3CB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10703,94 +11047,94 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -10801,6 +11145,289 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="10" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="10" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="10" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="10" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="10" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="10" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="10" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="10" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{8B493542-0974-E147-8C2A-337612CB1B54}"/>

--- a/data/edited-entities.xlsx
+++ b/data/edited-entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvan/Sites/pellaton-experience-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F257737E-D53A-9645-AC11-1C355FC7F5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E30D530-CD6E-D341-93A7-FDDFA2C23183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="25600" windowHeight="11220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">additional!$A$1:$C$479</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entities!$A$1:$F$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">entities!$A$1:$F$183</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ignore!$A$1:$A$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1175">
   <si>
     <t>variations</t>
   </si>
@@ -3500,23 +3500,65 @@
     <t>Also Pat Neary</t>
   </si>
   <si>
-    <t>Laban;Kinetographie Laban</t>
-  </si>
-  <si>
     <t>Affenkasten</t>
   </si>
   <si>
     <t>Richard Merz</t>
   </si>
   <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t>Merz;Richard</t>
+  </si>
+  <si>
+    <t>Laban;Kinetographie Laban;Also Laban</t>
+  </si>
+  <si>
+    <t>Laban-Tänzerinnen</t>
+  </si>
+  <si>
+    <t>Also Laban</t>
+  </si>
+  <si>
+    <t>Kinetographie Laban</t>
+  </si>
+  <si>
+    <t>Laban</t>
+  </si>
+  <si>
+    <t>Fokine</t>
+  </si>
+  <si>
+    <t>Fokine! I</t>
+  </si>
+  <si>
+    <t>Laban-Spektakel;Laban-Tänzerinnen;Laban-Spektakel</t>
+  </si>
+  <si>
+    <t>Sigurd</t>
+  </si>
+  <si>
+    <t>Leeder]-Stunde</t>
+  </si>
+  <si>
+    <t>Leeder</t>
+  </si>
+  <si>
+    <t>Niels Björn Larsen</t>
+  </si>
+  <si>
+    <t>Niels</t>
+  </si>
+  <si>
+    <t>Sigurd;Leeder;Leeder\]-Stunde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3555,6 +3597,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3576,7 +3630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3598,6 +3652,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3816,11 +3875,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z182"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5314,132 +5373,135 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="A111" s="12" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="D111" t="s">
-        <v>302</v>
-      </c>
-      <c r="E111" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>305</v>
-      </c>
-      <c r="F112" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="E112" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
+      <c r="D113" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114" t="s">
-        <v>309</v>
-      </c>
-      <c r="E114" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E115" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>312</v>
+      </c>
+      <c r="E116" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
-        <v>317</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
-      </c>
-      <c r="E120" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -5447,144 +5509,135 @@
     </row>
     <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>326</v>
-      </c>
-      <c r="E123" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E124" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
       </c>
-      <c r="E126" t="s">
-        <v>332</v>
-      </c>
-      <c r="F126" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
       </c>
+      <c r="E127" t="s">
+        <v>332</v>
+      </c>
+      <c r="F127" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s">
-        <v>336</v>
-      </c>
-      <c r="E128" t="s">
-        <v>337</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>338</v>
-      </c>
-      <c r="B129" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E129" t="s">
-        <v>341</v>
-      </c>
-      <c r="F129" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>343</v>
+        <v>338</v>
+      </c>
+      <c r="B130" t="s">
+        <v>339</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E130" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F130" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E131" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="F131" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E132" t="s">
-        <v>352</v>
-      </c>
-      <c r="F132" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -5601,26 +5654,35 @@
     </row>
     <row r="134" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>355</v>
-      </c>
-      <c r="B134" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
+      <c r="D134" t="s">
+        <v>351</v>
+      </c>
+      <c r="E134" t="s">
+        <v>352</v>
+      </c>
+      <c r="F134" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="B135" t="s">
+        <v>356</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
@@ -5628,187 +5690,187 @@
     </row>
     <row r="137" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" t="s">
-        <v>360</v>
-      </c>
-      <c r="E137" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
+      <c r="D138" t="s">
+        <v>360</v>
+      </c>
+      <c r="E138" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="139" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>363</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1157</v>
+        <v>362</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
-      <c r="D139" t="s">
-        <v>364</v>
-      </c>
-      <c r="E139" t="s">
-        <v>365</v>
-      </c>
-      <c r="F139" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="140" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1161</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>364</v>
+      </c>
+      <c r="E140" t="s">
+        <v>365</v>
+      </c>
+      <c r="F140" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>368</v>
-      </c>
-      <c r="E141" t="s">
-        <v>369</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E142" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
-      </c>
-      <c r="F143" t="s">
-        <v>375</v>
+        <v>371</v>
+      </c>
+      <c r="E143" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="F144" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" t="s">
-        <v>381</v>
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>384</v>
-      </c>
-      <c r="B148" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B149" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
+      <c r="E149" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="150" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="B150" t="s">
+        <v>388</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>390</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>1074</v>
+        <v>389</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1074</v>
       </c>
       <c r="C152" t="s">
         <v>20</v>
@@ -5816,351 +5878,359 @@
     </row>
     <row r="153" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>393</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1120</v>
+        <v>392</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
       </c>
-      <c r="D154" t="s">
-        <v>394</v>
-      </c>
-      <c r="E154" t="s">
-        <v>395</v>
-      </c>
-      <c r="F154" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="155" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>1120</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>394</v>
+      </c>
+      <c r="E155" t="s">
+        <v>395</v>
+      </c>
+      <c r="F155" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>398</v>
-      </c>
-      <c r="B156" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" t="s">
-        <v>400</v>
-      </c>
-      <c r="E156" t="s">
-        <v>401</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>402</v>
+        <v>398</v>
+      </c>
+      <c r="B157" t="s">
+        <v>399</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E157" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>403</v>
       </c>
       <c r="E158" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s">
-        <v>408</v>
+        <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>408</v>
       </c>
       <c r="E160" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>412</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>1112</v>
+        <v>410</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
       </c>
-      <c r="D161" t="s">
-        <v>413</v>
-      </c>
       <c r="E161" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>415</v>
+        <v>412</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>1112</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
       </c>
+      <c r="D162" t="s">
+        <v>413</v>
+      </c>
+      <c r="E162" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="163" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" t="s">
-        <v>418</v>
-      </c>
-      <c r="E164" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>418</v>
+      </c>
+      <c r="E165" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
-        <v>422</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
+        <v>421</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
         <v>423</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>7</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A168" s="10" t="s">
+    <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10" t="s">
+      <c r="B169" s="10"/>
+      <c r="C169" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>427</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F169" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
-        <v>429</v>
-      </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
       </c>
       <c r="D170" t="s">
-        <v>432</v>
-      </c>
-      <c r="E170" t="s">
-        <v>108</v>
-      </c>
-      <c r="F170" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="E171" t="s">
+        <v>108</v>
+      </c>
+      <c r="F171" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>436</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1097</v>
+        <v>434</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>437</v>
-      </c>
-      <c r="E172" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1097</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>437</v>
+      </c>
+      <c r="E173" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>441</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" t="s">
-        <v>444</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="E178" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C180" t="s">
         <v>11</v>
       </c>
-      <c r="D180" t="s">
-        <v>452</v>
-      </c>
-      <c r="E180" t="s">
-        <v>453</v>
-      </c>
     </row>
     <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
+      <c r="D181" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>454</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:F182" xr:uid="{D80FE2EF-A799-5D40-AA01-0589FDA0CC52}"/>
+  <autoFilter ref="A1:F183" xr:uid="{D80FE2EF-A799-5D40-AA01-0589FDA0CC52}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -6323,89 +6393,89 @@
     <hyperlink ref="D107" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
     <hyperlink ref="D110" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
     <hyperlink ref="E110" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="D111" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="E111" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="D112" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="F112" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="D114" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="E114" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="D115" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="E115" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="D118" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="D119" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="D120" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="E120" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="D123" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="E123" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="D124" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="E126" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="F126" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="D128" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="E128" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D129" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="E129" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="F129" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="D130" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="E130" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="F130" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="D131" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="E131" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="D132" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="E132" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="F132" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="D133" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="E133" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="F133" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="D137" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="E137" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="D139" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="E139" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="F139" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="D141" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="E141" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="D142" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="E142" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="D143" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="F143" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="D144" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="D145" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="E146" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="E147" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="E148" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="D154" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="E154" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="F154" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="D156" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="E156" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="D157" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="E157" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="E158" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="D159" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="E159" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="E160" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="D161" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="E161" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="D164" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="E164" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="E166" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="E167" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="D168" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="F168" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="D169" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="D170" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="E170" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="F170" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="D171" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="D172" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="E172" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="D174" r:id="rId237" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="E176" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="D177" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="E177" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="D178" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="D180" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="E180" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="D37" r:id="rId244" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D112" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E112" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D113" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="F113" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D115" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E115" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D116" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="E116" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="D119" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="D120" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D121" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="E121" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="D124" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="E124" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D125" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E127" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F127" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D129" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="E129" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D130" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E130" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="F130" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D131" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E131" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="F131" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="D132" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E132" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="D133" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E133" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F133" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D134" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="E134" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="F134" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="D138" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E138" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D142" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="E142" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="D143" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E143" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="D144" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F144" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="D145" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="D146" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="E147" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="E148" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E149" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D155" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E155" r:id="rId209" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="F155" r:id="rId210" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="D157" r:id="rId211" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E157" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="D158" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E158" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="E159" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="D160" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E160" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E161" r:id="rId218" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="D162" r:id="rId219" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="E162" r:id="rId220" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="D165" r:id="rId221" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E165" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="E167" r:id="rId223" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="E168" r:id="rId224" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="D169" r:id="rId225" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="F169" r:id="rId226" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="D170" r:id="rId227" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="D171" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="E171" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="F171" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="D172" r:id="rId231" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D173" r:id="rId232" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="E173" r:id="rId233" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="D175" r:id="rId234" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E177" r:id="rId235" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D178" r:id="rId236" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E178" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="D179" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D181" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="E181" r:id="rId240" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="D37" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D140" r:id="rId242" xr:uid="{E8448CFD-3904-A64C-A69D-E27AB7ABDCE1}"/>
+    <hyperlink ref="E140" r:id="rId243" xr:uid="{3D1D6968-B3A4-864C-AB4D-B3947015524B}"/>
+    <hyperlink ref="F140" r:id="rId244" xr:uid="{5E2C0BE0-CD11-1742-B831-282EB84B2FA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6413,11 +6483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EED1A47-D285-DB40-BAF6-24A9377E1F76}">
-  <dimension ref="A1:C480"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
-    <sheetView zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C480" sqref="C480"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11016,12 +11086,56 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A480" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B480" s="10" t="s">
         <v>1160</v>
       </c>
       <c r="C480" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A481" t="s">
+        <v>363</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A482" t="s">
+        <v>214</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B483" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A484" t="s">
+        <v>393</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C484" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11033,11 +11147,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BBF373-464C-4049-B3A6-00F049E0D3CB}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11423,11 +11537,53 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10"/>
+      <c r="A72" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="12" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="10" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>1170</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A2" xr:uid="{8B493542-0974-E147-8C2A-337612CB1B54}"/>
